--- a/m5out_stats_congestion_aware.xlsx
+++ b/m5out_stats_congestion_aware.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T301"/>
+  <dimension ref="A1:T401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20366,6 +20366,6606 @@
       <c r="T301" t="inlineStr">
         <is>
           <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D302" t="n">
+        <v>27.849472944</v>
+      </c>
+      <c r="E302" t="n">
+        <v>25.83541813</v>
+      </c>
+      <c r="F302" t="n">
+        <v>2.014054814</v>
+      </c>
+      <c r="G302" t="n">
+        <v>23.96629861733333</v>
+      </c>
+      <c r="H302" t="n">
+        <v>27.107604448</v>
+      </c>
+      <c r="I302" t="n">
+        <v>25.101593026</v>
+      </c>
+      <c r="J302" t="n">
+        <v>2.006011422</v>
+      </c>
+      <c r="K302" t="n">
+        <v>25.67851262666667</v>
+      </c>
+      <c r="L302" t="n">
+        <v>7119</v>
+      </c>
+      <c r="M302" t="n">
+        <v>7115</v>
+      </c>
+      <c r="N302" t="n">
+        <v>3331</v>
+      </c>
+      <c r="O302" t="n">
+        <v>3327</v>
+      </c>
+      <c r="P302" t="n">
+        <v>0.9994381233319286</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>0.9987991594115881</v>
+      </c>
+      <c r="R302" t="n">
+        <v>0.01054074074074074</v>
+      </c>
+      <c r="S302" t="n">
+        <v>0.004928888888888889</v>
+      </c>
+      <c r="T302" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D303" t="n">
+        <v>27.800435362</v>
+      </c>
+      <c r="E303" t="n">
+        <v>25.779299206</v>
+      </c>
+      <c r="F303" t="n">
+        <v>2.021136156</v>
+      </c>
+      <c r="G303" t="n">
+        <v>23.96564108866667</v>
+      </c>
+      <c r="H303" t="n">
+        <v>27.073986034</v>
+      </c>
+      <c r="I303" t="n">
+        <v>25.06076363</v>
+      </c>
+      <c r="J303" t="n">
+        <v>2.013222404</v>
+      </c>
+      <c r="K303" t="n">
+        <v>25.65772666266667</v>
+      </c>
+      <c r="L303" t="n">
+        <v>14259</v>
+      </c>
+      <c r="M303" t="n">
+        <v>14241</v>
+      </c>
+      <c r="N303" t="n">
+        <v>6739</v>
+      </c>
+      <c r="O303" t="n">
+        <v>6731</v>
+      </c>
+      <c r="P303" t="n">
+        <v>0.9987376393856512</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>0.9988128802492952</v>
+      </c>
+      <c r="R303" t="n">
+        <v>0.02109777777777778</v>
+      </c>
+      <c r="S303" t="n">
+        <v>0.009971851851851852</v>
+      </c>
+      <c r="T303" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D304" t="n">
+        <v>28.36741019</v>
+      </c>
+      <c r="E304" t="n">
+        <v>26.29161775</v>
+      </c>
+      <c r="F304" t="n">
+        <v>2.07579244</v>
+      </c>
+      <c r="G304" t="n">
+        <v>24.24585468533333</v>
+      </c>
+      <c r="H304" t="n">
+        <v>27.368347478</v>
+      </c>
+      <c r="I304" t="n">
+        <v>25.332201698</v>
+      </c>
+      <c r="J304" t="n">
+        <v>2.036145782</v>
+      </c>
+      <c r="K304" t="n">
+        <v>25.91660280466667</v>
+      </c>
+      <c r="L304" t="n">
+        <v>21311</v>
+      </c>
+      <c r="M304" t="n">
+        <v>21295</v>
+      </c>
+      <c r="N304" t="n">
+        <v>10023</v>
+      </c>
+      <c r="O304" t="n">
+        <v>10015</v>
+      </c>
+      <c r="P304" t="n">
+        <v>0.9992492140209281</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>0.9992018357777113</v>
+      </c>
+      <c r="R304" t="n">
+        <v>0.03154814814814815</v>
+      </c>
+      <c r="S304" t="n">
+        <v>0.01483703703703704</v>
+      </c>
+      <c r="T304" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D305" t="n">
+        <v>28.669186088</v>
+      </c>
+      <c r="E305" t="n">
+        <v>26.537756316</v>
+      </c>
+      <c r="F305" t="n">
+        <v>2.131429772</v>
+      </c>
+      <c r="G305" t="n">
+        <v>24.31881851866667</v>
+      </c>
+      <c r="H305" t="n">
+        <v>27.481667918</v>
+      </c>
+      <c r="I305" t="n">
+        <v>25.41975958</v>
+      </c>
+      <c r="J305" t="n">
+        <v>2.06190834</v>
+      </c>
+      <c r="K305" t="n">
+        <v>25.97178508266667</v>
+      </c>
+      <c r="L305" t="n">
+        <v>28620</v>
+      </c>
+      <c r="M305" t="n">
+        <v>28578</v>
+      </c>
+      <c r="N305" t="n">
+        <v>13328</v>
+      </c>
+      <c r="O305" t="n">
+        <v>13310</v>
+      </c>
+      <c r="P305" t="n">
+        <v>0.9985324947589098</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>0.9986494597839136</v>
+      </c>
+      <c r="R305" t="n">
+        <v>0.04233777777777777</v>
+      </c>
+      <c r="S305" t="n">
+        <v>0.01971851851851852</v>
+      </c>
+      <c r="T305" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D306" t="n">
+        <v>29.604067118</v>
+      </c>
+      <c r="E306" t="n">
+        <v>27.28053117</v>
+      </c>
+      <c r="F306" t="n">
+        <v>2.323535948</v>
+      </c>
+      <c r="G306" t="n">
+        <v>24.720858664</v>
+      </c>
+      <c r="H306" t="n">
+        <v>27.857922848</v>
+      </c>
+      <c r="I306" t="n">
+        <v>25.710860534</v>
+      </c>
+      <c r="J306" t="n">
+        <v>2.147062314</v>
+      </c>
+      <c r="K306" t="n">
+        <v>26.34573345133333</v>
+      </c>
+      <c r="L306" t="n">
+        <v>36025</v>
+      </c>
+      <c r="M306" t="n">
+        <v>35996</v>
+      </c>
+      <c r="N306" t="n">
+        <v>16865</v>
+      </c>
+      <c r="O306" t="n">
+        <v>16850</v>
+      </c>
+      <c r="P306" t="n">
+        <v>0.9991950034698126</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>0.9991105840498073</v>
+      </c>
+      <c r="R306" t="n">
+        <v>0.05332740740740741</v>
+      </c>
+      <c r="S306" t="n">
+        <v>0.02496296296296296</v>
+      </c>
+      <c r="T306" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D307" t="n">
+        <v>30.841611236</v>
+      </c>
+      <c r="E307" t="n">
+        <v>28.209585834</v>
+      </c>
+      <c r="F307" t="n">
+        <v>2.632025402</v>
+      </c>
+      <c r="G307" t="n">
+        <v>25.29847056866667</v>
+      </c>
+      <c r="H307" t="n">
+        <v>28.523332506</v>
+      </c>
+      <c r="I307" t="n">
+        <v>26.236598066</v>
+      </c>
+      <c r="J307" t="n">
+        <v>2.28673444</v>
+      </c>
+      <c r="K307" t="n">
+        <v>26.90094101533333</v>
+      </c>
+      <c r="L307" t="n">
+        <v>43175</v>
+      </c>
+      <c r="M307" t="n">
+        <v>43147</v>
+      </c>
+      <c r="N307" t="n">
+        <v>20179</v>
+      </c>
+      <c r="O307" t="n">
+        <v>20165</v>
+      </c>
+      <c r="P307" t="n">
+        <v>0.9993514765489288</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>0.9993062094256405</v>
+      </c>
+      <c r="R307" t="n">
+        <v>0.06392148148148148</v>
+      </c>
+      <c r="S307" t="n">
+        <v>0.02987407407407407</v>
+      </c>
+      <c r="T307" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D308" t="n">
+        <v>32.029153466</v>
+      </c>
+      <c r="E308" t="n">
+        <v>28.928700324</v>
+      </c>
+      <c r="F308" t="n">
+        <v>3.100453142</v>
+      </c>
+      <c r="G308" t="n">
+        <v>25.703078506</v>
+      </c>
+      <c r="H308" t="n">
+        <v>29.023520388</v>
+      </c>
+      <c r="I308" t="n">
+        <v>26.535387106</v>
+      </c>
+      <c r="J308" t="n">
+        <v>2.488133282</v>
+      </c>
+      <c r="K308" t="n">
+        <v>27.29667703466666</v>
+      </c>
+      <c r="L308" t="n">
+        <v>49948</v>
+      </c>
+      <c r="M308" t="n">
+        <v>49874</v>
+      </c>
+      <c r="N308" t="n">
+        <v>23500</v>
+      </c>
+      <c r="O308" t="n">
+        <v>23469</v>
+      </c>
+      <c r="P308" t="n">
+        <v>0.9985184591975654</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0.9986808510638298</v>
+      </c>
+      <c r="R308" t="n">
+        <v>0.07388740740740742</v>
+      </c>
+      <c r="S308" t="n">
+        <v>0.03476888888888888</v>
+      </c>
+      <c r="T308" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D309" t="n">
+        <v>38.406926102</v>
+      </c>
+      <c r="E309" t="n">
+        <v>31.29276131</v>
+      </c>
+      <c r="F309" t="n">
+        <v>7.114164794000001</v>
+      </c>
+      <c r="G309" t="n">
+        <v>26.96530952666667</v>
+      </c>
+      <c r="H309" t="n">
+        <v>31.78929504</v>
+      </c>
+      <c r="I309" t="n">
+        <v>27.588884744</v>
+      </c>
+      <c r="J309" t="n">
+        <v>4.200410294</v>
+      </c>
+      <c r="K309" t="n">
+        <v>28.52695843533333</v>
+      </c>
+      <c r="L309" t="n">
+        <v>57025</v>
+      </c>
+      <c r="M309" t="n">
+        <v>56944</v>
+      </c>
+      <c r="N309" t="n">
+        <v>26841</v>
+      </c>
+      <c r="O309" t="n">
+        <v>26810</v>
+      </c>
+      <c r="P309" t="n">
+        <v>0.9985795703638755</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>0.9988450504824709</v>
+      </c>
+      <c r="R309" t="n">
+        <v>0.08436148148148147</v>
+      </c>
+      <c r="S309" t="n">
+        <v>0.03971851851851851</v>
+      </c>
+      <c r="T309" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D310" t="n">
+        <v>143.767009826</v>
+      </c>
+      <c r="E310" t="n">
+        <v>35.708859772</v>
+      </c>
+      <c r="F310" t="n">
+        <v>108.058150054</v>
+      </c>
+      <c r="G310" t="n">
+        <v>29.213678106</v>
+      </c>
+      <c r="H310" t="n">
+        <v>76.67717633000001</v>
+      </c>
+      <c r="I310" t="n">
+        <v>29.513822974</v>
+      </c>
+      <c r="J310" t="n">
+        <v>47.163353358</v>
+      </c>
+      <c r="K310" t="n">
+        <v>30.76509346399999</v>
+      </c>
+      <c r="L310" t="n">
+        <v>64203</v>
+      </c>
+      <c r="M310" t="n">
+        <v>64110</v>
+      </c>
+      <c r="N310" t="n">
+        <v>30167</v>
+      </c>
+      <c r="O310" t="n">
+        <v>30131</v>
+      </c>
+      <c r="P310" t="n">
+        <v>0.9985514695574973</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>0.9988066430205191</v>
+      </c>
+      <c r="R310" t="n">
+        <v>0.09497777777777777</v>
+      </c>
+      <c r="S310" t="n">
+        <v>0.04463851851851852</v>
+      </c>
+      <c r="T310" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D311" t="n">
+        <v>442.548567384</v>
+      </c>
+      <c r="E311" t="n">
+        <v>37.21896482</v>
+      </c>
+      <c r="F311" t="n">
+        <v>405.329602564</v>
+      </c>
+      <c r="G311" t="n">
+        <v>30.16807379</v>
+      </c>
+      <c r="H311" t="n">
+        <v>200.802387068</v>
+      </c>
+      <c r="I311" t="n">
+        <v>30.10297628</v>
+      </c>
+      <c r="J311" t="n">
+        <v>170.699410788</v>
+      </c>
+      <c r="K311" t="n">
+        <v>31.71647339533333</v>
+      </c>
+      <c r="L311" t="n">
+        <v>69359</v>
+      </c>
+      <c r="M311" t="n">
+        <v>69244</v>
+      </c>
+      <c r="N311" t="n">
+        <v>33139</v>
+      </c>
+      <c r="O311" t="n">
+        <v>33095</v>
+      </c>
+      <c r="P311" t="n">
+        <v>0.9983419599475194</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>0.9986722592715531</v>
+      </c>
+      <c r="R311" t="n">
+        <v>0.1025837037037037</v>
+      </c>
+      <c r="S311" t="n">
+        <v>0.04902962962962962</v>
+      </c>
+      <c r="T311" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D312" t="n">
+        <v>631.684862756</v>
+      </c>
+      <c r="E312" t="n">
+        <v>37.233221206</v>
+      </c>
+      <c r="F312" t="n">
+        <v>594.45164155</v>
+      </c>
+      <c r="G312" t="n">
+        <v>30.38613514266667</v>
+      </c>
+      <c r="H312" t="n">
+        <v>276.607273736</v>
+      </c>
+      <c r="I312" t="n">
+        <v>30.138811772</v>
+      </c>
+      <c r="J312" t="n">
+        <v>246.468461966</v>
+      </c>
+      <c r="K312" t="n">
+        <v>31.92980245133333</v>
+      </c>
+      <c r="L312" t="n">
+        <v>74428</v>
+      </c>
+      <c r="M312" t="n">
+        <v>74320</v>
+      </c>
+      <c r="N312" t="n">
+        <v>36068</v>
+      </c>
+      <c r="O312" t="n">
+        <v>36020</v>
+      </c>
+      <c r="P312" t="n">
+        <v>0.9985489331971839</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>0.9986691804369524</v>
+      </c>
+      <c r="R312" t="n">
+        <v>0.1101037037037037</v>
+      </c>
+      <c r="S312" t="n">
+        <v>0.05336296296296297</v>
+      </c>
+      <c r="T312" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D313" t="n">
+        <v>748.648504448</v>
+      </c>
+      <c r="E313" t="n">
+        <v>38.03179856200001</v>
+      </c>
+      <c r="F313" t="n">
+        <v>710.616705886</v>
+      </c>
+      <c r="G313" t="n">
+        <v>31.018733722</v>
+      </c>
+      <c r="H313" t="n">
+        <v>322.255971818</v>
+      </c>
+      <c r="I313" t="n">
+        <v>30.575351624</v>
+      </c>
+      <c r="J313" t="n">
+        <v>291.680620194</v>
+      </c>
+      <c r="K313" t="n">
+        <v>32.568485882</v>
+      </c>
+      <c r="L313" t="n">
+        <v>79597</v>
+      </c>
+      <c r="M313" t="n">
+        <v>79469</v>
+      </c>
+      <c r="N313" t="n">
+        <v>38941</v>
+      </c>
+      <c r="O313" t="n">
+        <v>38891</v>
+      </c>
+      <c r="P313" t="n">
+        <v>0.9983918991921806</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>0.9987160062658894</v>
+      </c>
+      <c r="R313" t="n">
+        <v>0.1177318518518519</v>
+      </c>
+      <c r="S313" t="n">
+        <v>0.0576162962962963</v>
+      </c>
+      <c r="T313" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D314" t="n">
+        <v>945.772496358</v>
+      </c>
+      <c r="E314" t="n">
+        <v>39.26254337</v>
+      </c>
+      <c r="F314" t="n">
+        <v>906.509952988</v>
+      </c>
+      <c r="G314" t="n">
+        <v>31.97518475066667</v>
+      </c>
+      <c r="H314" t="n">
+        <v>399.17012816</v>
+      </c>
+      <c r="I314" t="n">
+        <v>31.29476584</v>
+      </c>
+      <c r="J314" t="n">
+        <v>367.875362318</v>
+      </c>
+      <c r="K314" t="n">
+        <v>33.52850202333333</v>
+      </c>
+      <c r="L314" t="n">
+        <v>84573</v>
+      </c>
+      <c r="M314" t="n">
+        <v>84447</v>
+      </c>
+      <c r="N314" t="n">
+        <v>41797</v>
+      </c>
+      <c r="O314" t="n">
+        <v>41745</v>
+      </c>
+      <c r="P314" t="n">
+        <v>0.9985101628179206</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>0.9987558915711654</v>
+      </c>
+      <c r="R314" t="n">
+        <v>0.1251066666666667</v>
+      </c>
+      <c r="S314" t="n">
+        <v>0.06184444444444444</v>
+      </c>
+      <c r="T314" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1106.026546558</v>
+      </c>
+      <c r="E315" t="n">
+        <v>39.00730201</v>
+      </c>
+      <c r="F315" t="n">
+        <v>1067.01924455</v>
+      </c>
+      <c r="G315" t="n">
+        <v>32.21096893066667</v>
+      </c>
+      <c r="H315" t="n">
+        <v>454.57192651</v>
+      </c>
+      <c r="I315" t="n">
+        <v>31.261957768</v>
+      </c>
+      <c r="J315" t="n">
+        <v>423.309968742</v>
+      </c>
+      <c r="K315" t="n">
+        <v>33.776668</v>
+      </c>
+      <c r="L315" t="n">
+        <v>88068</v>
+      </c>
+      <c r="M315" t="n">
+        <v>87921</v>
+      </c>
+      <c r="N315" t="n">
+        <v>44524</v>
+      </c>
+      <c r="O315" t="n">
+        <v>44469</v>
+      </c>
+      <c r="P315" t="n">
+        <v>0.9983308352636598</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>0.998764711167011</v>
+      </c>
+      <c r="R315" t="n">
+        <v>0.1302533333333333</v>
+      </c>
+      <c r="S315" t="n">
+        <v>0.06587999999999999</v>
+      </c>
+      <c r="T315" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1315.391394046</v>
+      </c>
+      <c r="E316" t="n">
+        <v>38.929124232</v>
+      </c>
+      <c r="F316" t="n">
+        <v>1276.462269814</v>
+      </c>
+      <c r="G316" t="n">
+        <v>32.89747817666667</v>
+      </c>
+      <c r="H316" t="n">
+        <v>529.262486762</v>
+      </c>
+      <c r="I316" t="n">
+        <v>31.950285956</v>
+      </c>
+      <c r="J316" t="n">
+        <v>497.312200804</v>
+      </c>
+      <c r="K316" t="n">
+        <v>34.46897113733333</v>
+      </c>
+      <c r="L316" t="n">
+        <v>91761</v>
+      </c>
+      <c r="M316" t="n">
+        <v>91611</v>
+      </c>
+      <c r="N316" t="n">
+        <v>47273</v>
+      </c>
+      <c r="O316" t="n">
+        <v>47210</v>
+      </c>
+      <c r="P316" t="n">
+        <v>0.998365318599405</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>0.9986673153808728</v>
+      </c>
+      <c r="R316" t="n">
+        <v>0.13572</v>
+      </c>
+      <c r="S316" t="n">
+        <v>0.06994074074074073</v>
+      </c>
+      <c r="T316" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1464.258472406</v>
+      </c>
+      <c r="E317" t="n">
+        <v>38.686131692</v>
+      </c>
+      <c r="F317" t="n">
+        <v>1425.572340714</v>
+      </c>
+      <c r="G317" t="n">
+        <v>33.30736639666667</v>
+      </c>
+      <c r="H317" t="n">
+        <v>582.2442426800001</v>
+      </c>
+      <c r="I317" t="n">
+        <v>32.459423166</v>
+      </c>
+      <c r="J317" t="n">
+        <v>549.784819514</v>
+      </c>
+      <c r="K317" t="n">
+        <v>34.88402445533333</v>
+      </c>
+      <c r="L317" t="n">
+        <v>95856</v>
+      </c>
+      <c r="M317" t="n">
+        <v>95693</v>
+      </c>
+      <c r="N317" t="n">
+        <v>49968</v>
+      </c>
+      <c r="O317" t="n">
+        <v>49893</v>
+      </c>
+      <c r="P317" t="n">
+        <v>0.9982995326322818</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>0.9984990393852066</v>
+      </c>
+      <c r="R317" t="n">
+        <v>0.1417674074074074</v>
+      </c>
+      <c r="S317" t="n">
+        <v>0.07391555555555555</v>
+      </c>
+      <c r="T317" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1592.47592426</v>
+      </c>
+      <c r="E318" t="n">
+        <v>39.1035919</v>
+      </c>
+      <c r="F318" t="n">
+        <v>1553.37233236</v>
+      </c>
+      <c r="G318" t="n">
+        <v>34.36319907133333</v>
+      </c>
+      <c r="H318" t="n">
+        <v>645.484241566</v>
+      </c>
+      <c r="I318" t="n">
+        <v>33.606671006</v>
+      </c>
+      <c r="J318" t="n">
+        <v>611.877570558</v>
+      </c>
+      <c r="K318" t="n">
+        <v>35.94322907599999</v>
+      </c>
+      <c r="L318" t="n">
+        <v>99075</v>
+      </c>
+      <c r="M318" t="n">
+        <v>98917</v>
+      </c>
+      <c r="N318" t="n">
+        <v>52295</v>
+      </c>
+      <c r="O318" t="n">
+        <v>52226</v>
+      </c>
+      <c r="P318" t="n">
+        <v>0.998405248549079</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>0.9986805621952386</v>
+      </c>
+      <c r="R318" t="n">
+        <v>0.1465437037037037</v>
+      </c>
+      <c r="S318" t="n">
+        <v>0.07737185185185186</v>
+      </c>
+      <c r="T318" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1746.279738574</v>
+      </c>
+      <c r="E319" t="n">
+        <v>39.549071098</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1706.730667476</v>
+      </c>
+      <c r="G319" t="n">
+        <v>35.54407369933333</v>
+      </c>
+      <c r="H319" t="n">
+        <v>744.13184781</v>
+      </c>
+      <c r="I319" t="n">
+        <v>34.899022264</v>
+      </c>
+      <c r="J319" t="n">
+        <v>709.2328255460001</v>
+      </c>
+      <c r="K319" t="n">
+        <v>37.131669944</v>
+      </c>
+      <c r="L319" t="n">
+        <v>102229</v>
+      </c>
+      <c r="M319" t="n">
+        <v>102056</v>
+      </c>
+      <c r="N319" t="n">
+        <v>54697</v>
+      </c>
+      <c r="O319" t="n">
+        <v>54616</v>
+      </c>
+      <c r="P319" t="n">
+        <v>0.9983077209011142</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>0.9985191143938424</v>
+      </c>
+      <c r="R319" t="n">
+        <v>0.1511940740740741</v>
+      </c>
+      <c r="S319" t="n">
+        <v>0.08091259259259259</v>
+      </c>
+      <c r="T319" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1895.35025236</v>
+      </c>
+      <c r="E320" t="n">
+        <v>39.907382588</v>
+      </c>
+      <c r="F320" t="n">
+        <v>1855.442869772</v>
+      </c>
+      <c r="G320" t="n">
+        <v>36.76069206533334</v>
+      </c>
+      <c r="H320" t="n">
+        <v>910.0244614239999</v>
+      </c>
+      <c r="I320" t="n">
+        <v>36.388853514</v>
+      </c>
+      <c r="J320" t="n">
+        <v>873.63560791</v>
+      </c>
+      <c r="K320" t="n">
+        <v>38.35361357799999</v>
+      </c>
+      <c r="L320" t="n">
+        <v>105361</v>
+      </c>
+      <c r="M320" t="n">
+        <v>105207</v>
+      </c>
+      <c r="N320" t="n">
+        <v>56609</v>
+      </c>
+      <c r="O320" t="n">
+        <v>56538</v>
+      </c>
+      <c r="P320" t="n">
+        <v>0.9985383585956853</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>0.9987457824727517</v>
+      </c>
+      <c r="R320" t="n">
+        <v>0.1558622222222222</v>
+      </c>
+      <c r="S320" t="n">
+        <v>0.08376</v>
+      </c>
+      <c r="T320" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D321" t="n">
+        <v>2136.753194964</v>
+      </c>
+      <c r="E321" t="n">
+        <v>39.951564172</v>
+      </c>
+      <c r="F321" t="n">
+        <v>2096.801630792</v>
+      </c>
+      <c r="G321" t="n">
+        <v>37.08561965333333</v>
+      </c>
+      <c r="H321" t="n">
+        <v>1160.72588172</v>
+      </c>
+      <c r="I321" t="n">
+        <v>36.80707111</v>
+      </c>
+      <c r="J321" t="n">
+        <v>1123.91881061</v>
+      </c>
+      <c r="K321" t="n">
+        <v>38.678584244</v>
+      </c>
+      <c r="L321" t="n">
+        <v>106741</v>
+      </c>
+      <c r="M321" t="n">
+        <v>106574</v>
+      </c>
+      <c r="N321" t="n">
+        <v>57725</v>
+      </c>
+      <c r="O321" t="n">
+        <v>57643</v>
+      </c>
+      <c r="P321" t="n">
+        <v>0.9984354652851294</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>0.9985794716327414</v>
+      </c>
+      <c r="R321" t="n">
+        <v>0.1578874074074074</v>
+      </c>
+      <c r="S321" t="n">
+        <v>0.08539703703703705</v>
+      </c>
+      <c r="T321" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D322" t="n">
+        <v>2319.982193882</v>
+      </c>
+      <c r="E322" t="n">
+        <v>39.844614522</v>
+      </c>
+      <c r="F322" t="n">
+        <v>2280.13757936</v>
+      </c>
+      <c r="G322" t="n">
+        <v>37.256255684</v>
+      </c>
+      <c r="H322" t="n">
+        <v>1378.524580152</v>
+      </c>
+      <c r="I322" t="n">
+        <v>37.072230704</v>
+      </c>
+      <c r="J322" t="n">
+        <v>1341.452349448</v>
+      </c>
+      <c r="K322" t="n">
+        <v>38.85233617733333</v>
+      </c>
+      <c r="L322" t="n">
+        <v>109013</v>
+      </c>
+      <c r="M322" t="n">
+        <v>108839</v>
+      </c>
+      <c r="N322" t="n">
+        <v>59037</v>
+      </c>
+      <c r="O322" t="n">
+        <v>58950</v>
+      </c>
+      <c r="P322" t="n">
+        <v>0.998403860090081</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>0.9985263478835307</v>
+      </c>
+      <c r="R322" t="n">
+        <v>0.1612429629629629</v>
+      </c>
+      <c r="S322" t="n">
+        <v>0.08733333333333335</v>
+      </c>
+      <c r="T322" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D323" t="n">
+        <v>2464.764462066</v>
+      </c>
+      <c r="E323" t="n">
+        <v>39.67978014000001</v>
+      </c>
+      <c r="F323" t="n">
+        <v>2425.084681924</v>
+      </c>
+      <c r="G323" t="n">
+        <v>37.38954593</v>
+      </c>
+      <c r="H323" t="n">
+        <v>1512.541348506</v>
+      </c>
+      <c r="I323" t="n">
+        <v>37.388797392</v>
+      </c>
+      <c r="J323" t="n">
+        <v>1475.152551114</v>
+      </c>
+      <c r="K323" t="n">
+        <v>38.99117480533334</v>
+      </c>
+      <c r="L323" t="n">
+        <v>111171</v>
+      </c>
+      <c r="M323" t="n">
+        <v>110980</v>
+      </c>
+      <c r="N323" t="n">
+        <v>60211</v>
+      </c>
+      <c r="O323" t="n">
+        <v>60111</v>
+      </c>
+      <c r="P323" t="n">
+        <v>0.9982819260418634</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>0.9983391739051004</v>
+      </c>
+      <c r="R323" t="n">
+        <v>0.1644148148148148</v>
+      </c>
+      <c r="S323" t="n">
+        <v>0.08905333333333335</v>
+      </c>
+      <c r="T323" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D324" t="n">
+        <v>2603.783545126</v>
+      </c>
+      <c r="E324" t="n">
+        <v>39.588814882</v>
+      </c>
+      <c r="F324" t="n">
+        <v>2564.194730242</v>
+      </c>
+      <c r="G324" t="n">
+        <v>37.43668307066667</v>
+      </c>
+      <c r="H324" t="n">
+        <v>1645.007046168</v>
+      </c>
+      <c r="I324" t="n">
+        <v>37.47519945</v>
+      </c>
+      <c r="J324" t="n">
+        <v>1607.531846718</v>
+      </c>
+      <c r="K324" t="n">
+        <v>39.043637304</v>
+      </c>
+      <c r="L324" t="n">
+        <v>112633</v>
+      </c>
+      <c r="M324" t="n">
+        <v>112453</v>
+      </c>
+      <c r="N324" t="n">
+        <v>61265</v>
+      </c>
+      <c r="O324" t="n">
+        <v>61168</v>
+      </c>
+      <c r="P324" t="n">
+        <v>0.9984018893219572</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>0.9984167142740553</v>
+      </c>
+      <c r="R324" t="n">
+        <v>0.166597037037037</v>
+      </c>
+      <c r="S324" t="n">
+        <v>0.09061925925925925</v>
+      </c>
+      <c r="T324" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2762.263235936</v>
+      </c>
+      <c r="E325" t="n">
+        <v>39.394871348</v>
+      </c>
+      <c r="F325" t="n">
+        <v>2722.868364588</v>
+      </c>
+      <c r="G325" t="n">
+        <v>37.52095223933333</v>
+      </c>
+      <c r="H325" t="n">
+        <v>1819.80450669</v>
+      </c>
+      <c r="I325" t="n">
+        <v>37.711433756</v>
+      </c>
+      <c r="J325" t="n">
+        <v>1782.093072932</v>
+      </c>
+      <c r="K325" t="n">
+        <v>39.12689942133333</v>
+      </c>
+      <c r="L325" t="n">
+        <v>114839</v>
+      </c>
+      <c r="M325" t="n">
+        <v>114650</v>
+      </c>
+      <c r="N325" t="n">
+        <v>62371</v>
+      </c>
+      <c r="O325" t="n">
+        <v>62263</v>
+      </c>
+      <c r="P325" t="n">
+        <v>0.9983542176438318</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>0.9982684260313287</v>
+      </c>
+      <c r="R325" t="n">
+        <v>0.1698518518518519</v>
+      </c>
+      <c r="S325" t="n">
+        <v>0.09224148148148148</v>
+      </c>
+      <c r="T325" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D326" t="n">
+        <v>2826.755811064</v>
+      </c>
+      <c r="E326" t="n">
+        <v>39.26566824</v>
+      </c>
+      <c r="F326" t="n">
+        <v>2787.490142824</v>
+      </c>
+      <c r="G326" t="n">
+        <v>37.59982280200001</v>
+      </c>
+      <c r="H326" t="n">
+        <v>1901.338449924</v>
+      </c>
+      <c r="I326" t="n">
+        <v>37.879781078</v>
+      </c>
+      <c r="J326" t="n">
+        <v>1863.458668848</v>
+      </c>
+      <c r="K326" t="n">
+        <v>39.20767765533333</v>
+      </c>
+      <c r="L326" t="n">
+        <v>116910</v>
+      </c>
+      <c r="M326" t="n">
+        <v>116717</v>
+      </c>
+      <c r="N326" t="n">
+        <v>63690</v>
+      </c>
+      <c r="O326" t="n">
+        <v>63584</v>
+      </c>
+      <c r="P326" t="n">
+        <v>0.9983491574715593</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>0.9983356884911289</v>
+      </c>
+      <c r="R326" t="n">
+        <v>0.1729140740740741</v>
+      </c>
+      <c r="S326" t="n">
+        <v>0.09419851851851853</v>
+      </c>
+      <c r="T326" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D327" t="n">
+        <v>2926.091523904</v>
+      </c>
+      <c r="E327" t="n">
+        <v>39.377395382</v>
+      </c>
+      <c r="F327" t="n">
+        <v>2886.714128522</v>
+      </c>
+      <c r="G327" t="n">
+        <v>37.93610033866666</v>
+      </c>
+      <c r="H327" t="n">
+        <v>1996.619646304</v>
+      </c>
+      <c r="I327" t="n">
+        <v>38.249949804</v>
+      </c>
+      <c r="J327" t="n">
+        <v>1958.369696502</v>
+      </c>
+      <c r="K327" t="n">
+        <v>39.55018326533333</v>
+      </c>
+      <c r="L327" t="n">
+        <v>118337</v>
+      </c>
+      <c r="M327" t="n">
+        <v>118144</v>
+      </c>
+      <c r="N327" t="n">
+        <v>64853</v>
+      </c>
+      <c r="O327" t="n">
+        <v>64745</v>
+      </c>
+      <c r="P327" t="n">
+        <v>0.9983690646205329</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>0.9983346953880314</v>
+      </c>
+      <c r="R327" t="n">
+        <v>0.1750281481481482</v>
+      </c>
+      <c r="S327" t="n">
+        <v>0.09591851851851853</v>
+      </c>
+      <c r="T327" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D328" t="n">
+        <v>2952.662249772</v>
+      </c>
+      <c r="E328" t="n">
+        <v>39.412678496</v>
+      </c>
+      <c r="F328" t="n">
+        <v>2913.249571276</v>
+      </c>
+      <c r="G328" t="n">
+        <v>38.29768674466666</v>
+      </c>
+      <c r="H328" t="n">
+        <v>2061.99762817</v>
+      </c>
+      <c r="I328" t="n">
+        <v>38.745165116</v>
+      </c>
+      <c r="J328" t="n">
+        <v>2023.252463054</v>
+      </c>
+      <c r="K328" t="n">
+        <v>39.91956728666666</v>
+      </c>
+      <c r="L328" t="n">
+        <v>119733</v>
+      </c>
+      <c r="M328" t="n">
+        <v>119541</v>
+      </c>
+      <c r="N328" t="n">
+        <v>65877</v>
+      </c>
+      <c r="O328" t="n">
+        <v>65772</v>
+      </c>
+      <c r="P328" t="n">
+        <v>0.9983964320613364</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>0.9984061204972904</v>
+      </c>
+      <c r="R328" t="n">
+        <v>0.1770977777777778</v>
+      </c>
+      <c r="S328" t="n">
+        <v>0.09744</v>
+      </c>
+      <c r="T328" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D329" t="n">
+        <v>3020.198683598</v>
+      </c>
+      <c r="E329" t="n">
+        <v>39.70422547</v>
+      </c>
+      <c r="F329" t="n">
+        <v>2980.494458128</v>
+      </c>
+      <c r="G329" t="n">
+        <v>38.86389971333334</v>
+      </c>
+      <c r="H329" t="n">
+        <v>2124.871648858</v>
+      </c>
+      <c r="I329" t="n">
+        <v>39.400488528</v>
+      </c>
+      <c r="J329" t="n">
+        <v>2085.47116033</v>
+      </c>
+      <c r="K329" t="n">
+        <v>40.50604221066666</v>
+      </c>
+      <c r="L329" t="n">
+        <v>120367</v>
+      </c>
+      <c r="M329" t="n">
+        <v>120176</v>
+      </c>
+      <c r="N329" t="n">
+        <v>66839</v>
+      </c>
+      <c r="O329" t="n">
+        <v>66731</v>
+      </c>
+      <c r="P329" t="n">
+        <v>0.9984131863384482</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>0.9983841769027065</v>
+      </c>
+      <c r="R329" t="n">
+        <v>0.1780385185185185</v>
+      </c>
+      <c r="S329" t="n">
+        <v>0.09886074074074075</v>
+      </c>
+      <c r="T329" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D330" t="n">
+        <v>3043.417289936</v>
+      </c>
+      <c r="E330" t="n">
+        <v>38.26336995800001</v>
+      </c>
+      <c r="F330" t="n">
+        <v>3005.153919978</v>
+      </c>
+      <c r="G330" t="n">
+        <v>38.252420464</v>
+      </c>
+      <c r="H330" t="n">
+        <v>2218.150330094</v>
+      </c>
+      <c r="I330" t="n">
+        <v>39.258259774</v>
+      </c>
+      <c r="J330" t="n">
+        <v>2178.892070322</v>
+      </c>
+      <c r="K330" t="n">
+        <v>39.90672242133333</v>
+      </c>
+      <c r="L330" t="n">
+        <v>121071</v>
+      </c>
+      <c r="M330" t="n">
+        <v>120868</v>
+      </c>
+      <c r="N330" t="n">
+        <v>67515</v>
+      </c>
+      <c r="O330" t="n">
+        <v>67405</v>
+      </c>
+      <c r="P330" t="n">
+        <v>0.9983232978995796</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>0.9983707324298304</v>
+      </c>
+      <c r="R330" t="n">
+        <v>0.1790637037037037</v>
+      </c>
+      <c r="S330" t="n">
+        <v>0.09985925925925926</v>
+      </c>
+      <c r="T330" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D331" t="n">
+        <v>3150.01328863</v>
+      </c>
+      <c r="E331" t="n">
+        <v>37.925480886</v>
+      </c>
+      <c r="F331" t="n">
+        <v>3112.087807744</v>
+      </c>
+      <c r="G331" t="n">
+        <v>38.12553859666667</v>
+      </c>
+      <c r="H331" t="n">
+        <v>2388.704683632</v>
+      </c>
+      <c r="I331" t="n">
+        <v>39.251043818</v>
+      </c>
+      <c r="J331" t="n">
+        <v>2349.453639814</v>
+      </c>
+      <c r="K331" t="n">
+        <v>39.78810352266667</v>
+      </c>
+      <c r="L331" t="n">
+        <v>122792</v>
+      </c>
+      <c r="M331" t="n">
+        <v>122586</v>
+      </c>
+      <c r="N331" t="n">
+        <v>68376</v>
+      </c>
+      <c r="O331" t="n">
+        <v>68259</v>
+      </c>
+      <c r="P331" t="n">
+        <v>0.9983223662779335</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>0.9982888732888733</v>
+      </c>
+      <c r="R331" t="n">
+        <v>0.1816088888888889</v>
+      </c>
+      <c r="S331" t="n">
+        <v>0.1011244444444444</v>
+      </c>
+      <c r="T331" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D332" t="n">
+        <v>3255.146149816</v>
+      </c>
+      <c r="E332" t="n">
+        <v>37.380303824</v>
+      </c>
+      <c r="F332" t="n">
+        <v>3217.765845992</v>
+      </c>
+      <c r="G332" t="n">
+        <v>37.45885046066667</v>
+      </c>
+      <c r="H332" t="n">
+        <v>2549.253133776</v>
+      </c>
+      <c r="I332" t="n">
+        <v>38.54106476</v>
+      </c>
+      <c r="J332" t="n">
+        <v>2510.712069016</v>
+      </c>
+      <c r="K332" t="n">
+        <v>39.11938933</v>
+      </c>
+      <c r="L332" t="n">
+        <v>124281</v>
+      </c>
+      <c r="M332" t="n">
+        <v>124085</v>
+      </c>
+      <c r="N332" t="n">
+        <v>69197</v>
+      </c>
+      <c r="O332" t="n">
+        <v>69086</v>
+      </c>
+      <c r="P332" t="n">
+        <v>0.9984229286858007</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0.9983958842146335</v>
+      </c>
+      <c r="R332" t="n">
+        <v>0.1838296296296296</v>
+      </c>
+      <c r="S332" t="n">
+        <v>0.1023496296296296</v>
+      </c>
+      <c r="T332" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D333" t="n">
+        <v>3346.141907102</v>
+      </c>
+      <c r="E333" t="n">
+        <v>36.97852978</v>
+      </c>
+      <c r="F333" t="n">
+        <v>3309.163377324</v>
+      </c>
+      <c r="G333" t="n">
+        <v>37.07160882399999</v>
+      </c>
+      <c r="H333" t="n">
+        <v>2683.398364218</v>
+      </c>
+      <c r="I333" t="n">
+        <v>38.15236788</v>
+      </c>
+      <c r="J333" t="n">
+        <v>2645.24599634</v>
+      </c>
+      <c r="K333" t="n">
+        <v>38.73674424799999</v>
+      </c>
+      <c r="L333" t="n">
+        <v>125918</v>
+      </c>
+      <c r="M333" t="n">
+        <v>125709</v>
+      </c>
+      <c r="N333" t="n">
+        <v>70046</v>
+      </c>
+      <c r="O333" t="n">
+        <v>69936</v>
+      </c>
+      <c r="P333" t="n">
+        <v>0.9983401896472307</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>0.9984296034034778</v>
+      </c>
+      <c r="R333" t="n">
+        <v>0.1862355555555556</v>
+      </c>
+      <c r="S333" t="n">
+        <v>0.1036088888888889</v>
+      </c>
+      <c r="T333" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D334" t="n">
+        <v>3425.827241688</v>
+      </c>
+      <c r="E334" t="n">
+        <v>36.920441494</v>
+      </c>
+      <c r="F334" t="n">
+        <v>3388.906800196</v>
+      </c>
+      <c r="G334" t="n">
+        <v>37.16215838733333</v>
+      </c>
+      <c r="H334" t="n">
+        <v>2826.55310067</v>
+      </c>
+      <c r="I334" t="n">
+        <v>38.317795708</v>
+      </c>
+      <c r="J334" t="n">
+        <v>2788.235304962</v>
+      </c>
+      <c r="K334" t="n">
+        <v>38.817288026</v>
+      </c>
+      <c r="L334" t="n">
+        <v>127318</v>
+      </c>
+      <c r="M334" t="n">
+        <v>127114</v>
+      </c>
+      <c r="N334" t="n">
+        <v>70630</v>
+      </c>
+      <c r="O334" t="n">
+        <v>70517</v>
+      </c>
+      <c r="P334" t="n">
+        <v>0.9983977128135849</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>0.9984001132663174</v>
+      </c>
+      <c r="R334" t="n">
+        <v>0.188317037037037</v>
+      </c>
+      <c r="S334" t="n">
+        <v>0.1044696296296296</v>
+      </c>
+      <c r="T334" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D335" t="n">
+        <v>3452.95332049</v>
+      </c>
+      <c r="E335" t="n">
+        <v>36.534187538</v>
+      </c>
+      <c r="F335" t="n">
+        <v>3416.419132952</v>
+      </c>
+      <c r="G335" t="n">
+        <v>36.86261660866666</v>
+      </c>
+      <c r="H335" t="n">
+        <v>2908.32931457</v>
+      </c>
+      <c r="I335" t="n">
+        <v>38.071609606</v>
+      </c>
+      <c r="J335" t="n">
+        <v>2870.257704964</v>
+      </c>
+      <c r="K335" t="n">
+        <v>38.51531809199999</v>
+      </c>
+      <c r="L335" t="n">
+        <v>129439</v>
+      </c>
+      <c r="M335" t="n">
+        <v>129243</v>
+      </c>
+      <c r="N335" t="n">
+        <v>71527</v>
+      </c>
+      <c r="O335" t="n">
+        <v>71415</v>
+      </c>
+      <c r="P335" t="n">
+        <v>0.998485773221363</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>0.9984341577306471</v>
+      </c>
+      <c r="R335" t="n">
+        <v>0.1914711111111111</v>
+      </c>
+      <c r="S335" t="n">
+        <v>0.1058</v>
+      </c>
+      <c r="T335" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D336" t="n">
+        <v>3556.732761528</v>
+      </c>
+      <c r="E336" t="n">
+        <v>36.231067574</v>
+      </c>
+      <c r="F336" t="n">
+        <v>3520.501693954</v>
+      </c>
+      <c r="G336" t="n">
+        <v>36.54158019600001</v>
+      </c>
+      <c r="H336" t="n">
+        <v>3065.332131666</v>
+      </c>
+      <c r="I336" t="n">
+        <v>37.735989018</v>
+      </c>
+      <c r="J336" t="n">
+        <v>3027.596142648</v>
+      </c>
+      <c r="K336" t="n">
+        <v>38.19958593200001</v>
+      </c>
+      <c r="L336" t="n">
+        <v>130669</v>
+      </c>
+      <c r="M336" t="n">
+        <v>130464</v>
+      </c>
+      <c r="N336" t="n">
+        <v>72237</v>
+      </c>
+      <c r="O336" t="n">
+        <v>72122</v>
+      </c>
+      <c r="P336" t="n">
+        <v>0.9984311504641499</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>0.998408018051691</v>
+      </c>
+      <c r="R336" t="n">
+        <v>0.19328</v>
+      </c>
+      <c r="S336" t="n">
+        <v>0.1068474074074074</v>
+      </c>
+      <c r="T336" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D337" t="n">
+        <v>3620.508856842</v>
+      </c>
+      <c r="E337" t="n">
+        <v>35.90875367</v>
+      </c>
+      <c r="F337" t="n">
+        <v>3584.600103172</v>
+      </c>
+      <c r="G337" t="n">
+        <v>36.20154240466667</v>
+      </c>
+      <c r="H337" t="n">
+        <v>3154.34930567</v>
+      </c>
+      <c r="I337" t="n">
+        <v>37.388426916</v>
+      </c>
+      <c r="J337" t="n">
+        <v>3116.960878752</v>
+      </c>
+      <c r="K337" t="n">
+        <v>37.85905363666667</v>
+      </c>
+      <c r="L337" t="n">
+        <v>132022</v>
+      </c>
+      <c r="M337" t="n">
+        <v>131819</v>
+      </c>
+      <c r="N337" t="n">
+        <v>72990</v>
+      </c>
+      <c r="O337" t="n">
+        <v>72876</v>
+      </c>
+      <c r="P337" t="n">
+        <v>0.9984623774825407</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>0.9984381422112618</v>
+      </c>
+      <c r="R337" t="n">
+        <v>0.1952874074074074</v>
+      </c>
+      <c r="S337" t="n">
+        <v>0.1079644444444444</v>
+      </c>
+      <c r="T337" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D338" t="n">
+        <v>3659.659452596</v>
+      </c>
+      <c r="E338" t="n">
+        <v>35.577700608</v>
+      </c>
+      <c r="F338" t="n">
+        <v>3624.081751988</v>
+      </c>
+      <c r="G338" t="n">
+        <v>35.94590530666666</v>
+      </c>
+      <c r="H338" t="n">
+        <v>3268.50987418</v>
+      </c>
+      <c r="I338" t="n">
+        <v>37.182743598</v>
+      </c>
+      <c r="J338" t="n">
+        <v>3231.327130584</v>
+      </c>
+      <c r="K338" t="n">
+        <v>37.595978652</v>
+      </c>
+      <c r="L338" t="n">
+        <v>134114</v>
+      </c>
+      <c r="M338" t="n">
+        <v>133905</v>
+      </c>
+      <c r="N338" t="n">
+        <v>73790</v>
+      </c>
+      <c r="O338" t="n">
+        <v>73677</v>
+      </c>
+      <c r="P338" t="n">
+        <v>0.9984416242897833</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>0.9984686271852554</v>
+      </c>
+      <c r="R338" t="n">
+        <v>0.1983777777777778</v>
+      </c>
+      <c r="S338" t="n">
+        <v>0.1091511111111111</v>
+      </c>
+      <c r="T338" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D339" t="n">
+        <v>3689.285804924</v>
+      </c>
+      <c r="E339" t="n">
+        <v>35.089570408</v>
+      </c>
+      <c r="F339" t="n">
+        <v>3654.196234516</v>
+      </c>
+      <c r="G339" t="n">
+        <v>35.37762422866666</v>
+      </c>
+      <c r="H339" t="n">
+        <v>3318.537951848</v>
+      </c>
+      <c r="I339" t="n">
+        <v>36.560767218</v>
+      </c>
+      <c r="J339" t="n">
+        <v>3281.977184628</v>
+      </c>
+      <c r="K339" t="n">
+        <v>37.02361222733333</v>
+      </c>
+      <c r="L339" t="n">
+        <v>135753</v>
+      </c>
+      <c r="M339" t="n">
+        <v>135547</v>
+      </c>
+      <c r="N339" t="n">
+        <v>74669</v>
+      </c>
+      <c r="O339" t="n">
+        <v>74555</v>
+      </c>
+      <c r="P339" t="n">
+        <v>0.9984825381391204</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>0.998473261996277</v>
+      </c>
+      <c r="R339" t="n">
+        <v>0.2008103703703704</v>
+      </c>
+      <c r="S339" t="n">
+        <v>0.1104518518518518</v>
+      </c>
+      <c r="T339" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D340" t="n">
+        <v>3748.412727154</v>
+      </c>
+      <c r="E340" t="n">
+        <v>34.46254937400001</v>
+      </c>
+      <c r="F340" t="n">
+        <v>3713.95017778</v>
+      </c>
+      <c r="G340" t="n">
+        <v>34.595173424</v>
+      </c>
+      <c r="H340" t="n">
+        <v>3422.576702958</v>
+      </c>
+      <c r="I340" t="n">
+        <v>35.735685576</v>
+      </c>
+      <c r="J340" t="n">
+        <v>3386.841017382</v>
+      </c>
+      <c r="K340" t="n">
+        <v>36.237428098</v>
+      </c>
+      <c r="L340" t="n">
+        <v>137165</v>
+      </c>
+      <c r="M340" t="n">
+        <v>136967</v>
+      </c>
+      <c r="N340" t="n">
+        <v>75245</v>
+      </c>
+      <c r="O340" t="n">
+        <v>75134</v>
+      </c>
+      <c r="P340" t="n">
+        <v>0.998556483067838</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>0.9985248189248455</v>
+      </c>
+      <c r="R340" t="n">
+        <v>0.2029140740740741</v>
+      </c>
+      <c r="S340" t="n">
+        <v>0.1113096296296296</v>
+      </c>
+      <c r="T340" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D341" t="n">
+        <v>3827.033913094</v>
+      </c>
+      <c r="E341" t="n">
+        <v>34.352219184</v>
+      </c>
+      <c r="F341" t="n">
+        <v>3792.68169391</v>
+      </c>
+      <c r="G341" t="n">
+        <v>34.42573829400001</v>
+      </c>
+      <c r="H341" t="n">
+        <v>3525.371596976</v>
+      </c>
+      <c r="I341" t="n">
+        <v>35.527660306</v>
+      </c>
+      <c r="J341" t="n">
+        <v>3489.84393667</v>
+      </c>
+      <c r="K341" t="n">
+        <v>36.06698839666666</v>
+      </c>
+      <c r="L341" t="n">
+        <v>137747</v>
+      </c>
+      <c r="M341" t="n">
+        <v>137528</v>
+      </c>
+      <c r="N341" t="n">
+        <v>75787</v>
+      </c>
+      <c r="O341" t="n">
+        <v>75668</v>
+      </c>
+      <c r="P341" t="n">
+        <v>0.998410128714237</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>0.9984298098618497</v>
+      </c>
+      <c r="R341" t="n">
+        <v>0.2037451851851852</v>
+      </c>
+      <c r="S341" t="n">
+        <v>0.1121007407407408</v>
+      </c>
+      <c r="T341" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D342" t="n">
+        <v>3868.456182456</v>
+      </c>
+      <c r="E342" t="n">
+        <v>34.289319384</v>
+      </c>
+      <c r="F342" t="n">
+        <v>3834.166863072</v>
+      </c>
+      <c r="G342" t="n">
+        <v>34.55921015066666</v>
+      </c>
+      <c r="H342" t="n">
+        <v>3615.684554168</v>
+      </c>
+      <c r="I342" t="n">
+        <v>35.74116659800001</v>
+      </c>
+      <c r="J342" t="n">
+        <v>3579.943387568</v>
+      </c>
+      <c r="K342" t="n">
+        <v>36.20351698066667</v>
+      </c>
+      <c r="L342" t="n">
+        <v>139370</v>
+      </c>
+      <c r="M342" t="n">
+        <v>139168</v>
+      </c>
+      <c r="N342" t="n">
+        <v>76390</v>
+      </c>
+      <c r="O342" t="n">
+        <v>76273</v>
+      </c>
+      <c r="P342" t="n">
+        <v>0.9985506206500682</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>0.9984683859143867</v>
+      </c>
+      <c r="R342" t="n">
+        <v>0.2061748148148148</v>
+      </c>
+      <c r="S342" t="n">
+        <v>0.112997037037037</v>
+      </c>
+      <c r="T342" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D343" t="n">
+        <v>3899.143873456</v>
+      </c>
+      <c r="E343" t="n">
+        <v>33.401178398</v>
+      </c>
+      <c r="F343" t="n">
+        <v>3865.742695058</v>
+      </c>
+      <c r="G343" t="n">
+        <v>33.595787244</v>
+      </c>
+      <c r="H343" t="n">
+        <v>3701.702914914</v>
+      </c>
+      <c r="I343" t="n">
+        <v>34.795281108</v>
+      </c>
+      <c r="J343" t="n">
+        <v>3666.907633806</v>
+      </c>
+      <c r="K343" t="n">
+        <v>35.22688583266666</v>
+      </c>
+      <c r="L343" t="n">
+        <v>141752</v>
+      </c>
+      <c r="M343" t="n">
+        <v>141548</v>
+      </c>
+      <c r="N343" t="n">
+        <v>77168</v>
+      </c>
+      <c r="O343" t="n">
+        <v>77052</v>
+      </c>
+      <c r="P343" t="n">
+        <v>0.9985608668660759</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>0.9984967862326353</v>
+      </c>
+      <c r="R343" t="n">
+        <v>0.2097007407407407</v>
+      </c>
+      <c r="S343" t="n">
+        <v>0.1141511111111111</v>
+      </c>
+      <c r="T343" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D344" t="n">
+        <v>3925.521697474</v>
+      </c>
+      <c r="E344" t="n">
+        <v>33.369315122</v>
+      </c>
+      <c r="F344" t="n">
+        <v>3892.152382352</v>
+      </c>
+      <c r="G344" t="n">
+        <v>33.64350030733333</v>
+      </c>
+      <c r="H344" t="n">
+        <v>3782.898246066</v>
+      </c>
+      <c r="I344" t="n">
+        <v>34.875741552</v>
+      </c>
+      <c r="J344" t="n">
+        <v>3748.022504514</v>
+      </c>
+      <c r="K344" t="n">
+        <v>35.277023146</v>
+      </c>
+      <c r="L344" t="n">
+        <v>143207</v>
+      </c>
+      <c r="M344" t="n">
+        <v>142989</v>
+      </c>
+      <c r="N344" t="n">
+        <v>77659</v>
+      </c>
+      <c r="O344" t="n">
+        <v>77540</v>
+      </c>
+      <c r="P344" t="n">
+        <v>0.9984777280440202</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>0.9984676598977581</v>
+      </c>
+      <c r="R344" t="n">
+        <v>0.2118355555555556</v>
+      </c>
+      <c r="S344" t="n">
+        <v>0.1148740740740741</v>
+      </c>
+      <c r="T344" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D345" t="n">
+        <v>3971.90376645</v>
+      </c>
+      <c r="E345" t="n">
+        <v>33.713950794</v>
+      </c>
+      <c r="F345" t="n">
+        <v>3938.189815654</v>
+      </c>
+      <c r="G345" t="n">
+        <v>34.09985391266667</v>
+      </c>
+      <c r="H345" t="n">
+        <v>3852.584756832</v>
+      </c>
+      <c r="I345" t="n">
+        <v>35.335288242</v>
+      </c>
+      <c r="J345" t="n">
+        <v>3817.24946859</v>
+      </c>
+      <c r="K345" t="n">
+        <v>35.74804595933333</v>
+      </c>
+      <c r="L345" t="n">
+        <v>143523</v>
+      </c>
+      <c r="M345" t="n">
+        <v>143318</v>
+      </c>
+      <c r="N345" t="n">
+        <v>78215</v>
+      </c>
+      <c r="O345" t="n">
+        <v>78094</v>
+      </c>
+      <c r="P345" t="n">
+        <v>0.9985716575043722</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>0.9984529821645465</v>
+      </c>
+      <c r="R345" t="n">
+        <v>0.2123229629629629</v>
+      </c>
+      <c r="S345" t="n">
+        <v>0.1156948148148148</v>
+      </c>
+      <c r="T345" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D346" t="n">
+        <v>3971.621223384</v>
+      </c>
+      <c r="E346" t="n">
+        <v>33.38390387</v>
+      </c>
+      <c r="F346" t="n">
+        <v>3938.237319514</v>
+      </c>
+      <c r="G346" t="n">
+        <v>33.83534328066667</v>
+      </c>
+      <c r="H346" t="n">
+        <v>3910.766551186</v>
+      </c>
+      <c r="I346" t="n">
+        <v>35.109529066</v>
+      </c>
+      <c r="J346" t="n">
+        <v>3875.65702212</v>
+      </c>
+      <c r="K346" t="n">
+        <v>35.47957115733333</v>
+      </c>
+      <c r="L346" t="n">
+        <v>145509</v>
+      </c>
+      <c r="M346" t="n">
+        <v>145302</v>
+      </c>
+      <c r="N346" t="n">
+        <v>78917</v>
+      </c>
+      <c r="O346" t="n">
+        <v>78801</v>
+      </c>
+      <c r="P346" t="n">
+        <v>0.9985774075830361</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>0.9985301012456125</v>
+      </c>
+      <c r="R346" t="n">
+        <v>0.2152622222222222</v>
+      </c>
+      <c r="S346" t="n">
+        <v>0.1167422222222222</v>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D347" t="n">
+        <v>3982.768361966</v>
+      </c>
+      <c r="E347" t="n">
+        <v>32.954032072</v>
+      </c>
+      <c r="F347" t="n">
+        <v>3949.814329896</v>
+      </c>
+      <c r="G347" t="n">
+        <v>33.266710738</v>
+      </c>
+      <c r="H347" t="n">
+        <v>3933.172632134</v>
+      </c>
+      <c r="I347" t="n">
+        <v>34.50320992</v>
+      </c>
+      <c r="J347" t="n">
+        <v>3898.669422214</v>
+      </c>
+      <c r="K347" t="n">
+        <v>34.914285142</v>
+      </c>
+      <c r="L347" t="n">
+        <v>147009</v>
+      </c>
+      <c r="M347" t="n">
+        <v>146798</v>
+      </c>
+      <c r="N347" t="n">
+        <v>79713</v>
+      </c>
+      <c r="O347" t="n">
+        <v>79597</v>
+      </c>
+      <c r="P347" t="n">
+        <v>0.99856471372501</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>0.9985447793960834</v>
+      </c>
+      <c r="R347" t="n">
+        <v>0.2174785185185185</v>
+      </c>
+      <c r="S347" t="n">
+        <v>0.1179214814814815</v>
+      </c>
+      <c r="T347" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D348" t="n">
+        <v>4029.027893674</v>
+      </c>
+      <c r="E348" t="n">
+        <v>32.34666891</v>
+      </c>
+      <c r="F348" t="n">
+        <v>3996.681224764</v>
+      </c>
+      <c r="G348" t="n">
+        <v>32.70827835266667</v>
+      </c>
+      <c r="H348" t="n">
+        <v>4000.869871132</v>
+      </c>
+      <c r="I348" t="n">
+        <v>33.993874674</v>
+      </c>
+      <c r="J348" t="n">
+        <v>3966.875996458</v>
+      </c>
+      <c r="K348" t="n">
+        <v>34.34472446600001</v>
+      </c>
+      <c r="L348" t="n">
+        <v>148823</v>
+      </c>
+      <c r="M348" t="n">
+        <v>148600</v>
+      </c>
+      <c r="N348" t="n">
+        <v>80279</v>
+      </c>
+      <c r="O348" t="n">
+        <v>80159</v>
+      </c>
+      <c r="P348" t="n">
+        <v>0.9985015756973048</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>0.9985052130694204</v>
+      </c>
+      <c r="R348" t="n">
+        <v>0.2201481481481481</v>
+      </c>
+      <c r="S348" t="n">
+        <v>0.1187540740740741</v>
+      </c>
+      <c r="T348" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D349" t="n">
+        <v>4037.332557552</v>
+      </c>
+      <c r="E349" t="n">
+        <v>32.079575226</v>
+      </c>
+      <c r="F349" t="n">
+        <v>4005.252982326</v>
+      </c>
+      <c r="G349" t="n">
+        <v>32.48329732333333</v>
+      </c>
+      <c r="H349" t="n">
+        <v>4056.45849465</v>
+      </c>
+      <c r="I349" t="n">
+        <v>33.790549818</v>
+      </c>
+      <c r="J349" t="n">
+        <v>4022.667944832</v>
+      </c>
+      <c r="K349" t="n">
+        <v>34.11730695866667</v>
+      </c>
+      <c r="L349" t="n">
+        <v>150581</v>
+      </c>
+      <c r="M349" t="n">
+        <v>150386</v>
+      </c>
+      <c r="N349" t="n">
+        <v>80957</v>
+      </c>
+      <c r="O349" t="n">
+        <v>80845</v>
+      </c>
+      <c r="P349" t="n">
+        <v>0.9987050159050611</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>0.9986165495262918</v>
+      </c>
+      <c r="R349" t="n">
+        <v>0.2227940740740741</v>
+      </c>
+      <c r="S349" t="n">
+        <v>0.1197703703703704</v>
+      </c>
+      <c r="T349" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D350" t="n">
+        <v>4049.6028151</v>
+      </c>
+      <c r="E350" t="n">
+        <v>31.873063464</v>
+      </c>
+      <c r="F350" t="n">
+        <v>4017.729751636</v>
+      </c>
+      <c r="G350" t="n">
+        <v>32.26231737666667</v>
+      </c>
+      <c r="H350" t="n">
+        <v>4084.521548872</v>
+      </c>
+      <c r="I350" t="n">
+        <v>33.560479028</v>
+      </c>
+      <c r="J350" t="n">
+        <v>4050.961069844</v>
+      </c>
+      <c r="K350" t="n">
+        <v>33.89593061066666</v>
+      </c>
+      <c r="L350" t="n">
+        <v>151959</v>
+      </c>
+      <c r="M350" t="n">
+        <v>151753</v>
+      </c>
+      <c r="N350" t="n">
+        <v>81703</v>
+      </c>
+      <c r="O350" t="n">
+        <v>81582</v>
+      </c>
+      <c r="P350" t="n">
+        <v>0.998644371179068</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>0.998519026229147</v>
+      </c>
+      <c r="R350" t="n">
+        <v>0.2248192592592593</v>
+      </c>
+      <c r="S350" t="n">
+        <v>0.1208622222222222</v>
+      </c>
+      <c r="T350" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D351" t="n">
+        <v>4060.031806524</v>
+      </c>
+      <c r="E351" t="n">
+        <v>32.167776298</v>
+      </c>
+      <c r="F351" t="n">
+        <v>4027.864030226</v>
+      </c>
+      <c r="G351" t="n">
+        <v>32.64282396866667</v>
+      </c>
+      <c r="H351" t="n">
+        <v>4147.442796144</v>
+      </c>
+      <c r="I351" t="n">
+        <v>33.948151762</v>
+      </c>
+      <c r="J351" t="n">
+        <v>4113.494644382</v>
+      </c>
+      <c r="K351" t="n">
+        <v>34.277366492</v>
+      </c>
+      <c r="L351" t="n">
+        <v>152671</v>
+      </c>
+      <c r="M351" t="n">
+        <v>152453</v>
+      </c>
+      <c r="N351" t="n">
+        <v>82087</v>
+      </c>
+      <c r="O351" t="n">
+        <v>81970</v>
+      </c>
+      <c r="P351" t="n">
+        <v>0.99857209293186</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>0.9985746829583247</v>
+      </c>
+      <c r="R351" t="n">
+        <v>0.2258562962962963</v>
+      </c>
+      <c r="S351" t="n">
+        <v>0.121437037037037</v>
+      </c>
+      <c r="T351" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D352" t="n">
+        <v>4075.51432606</v>
+      </c>
+      <c r="E352" t="n">
+        <v>31.991319116</v>
+      </c>
+      <c r="F352" t="n">
+        <v>4043.523006944</v>
+      </c>
+      <c r="G352" t="n">
+        <v>32.45362449866667</v>
+      </c>
+      <c r="H352" t="n">
+        <v>4186.41090733</v>
+      </c>
+      <c r="I352" t="n">
+        <v>33.75726651</v>
+      </c>
+      <c r="J352" t="n">
+        <v>4152.65364082</v>
+      </c>
+      <c r="K352" t="n">
+        <v>34.09364740266667</v>
+      </c>
+      <c r="L352" t="n">
+        <v>153888</v>
+      </c>
+      <c r="M352" t="n">
+        <v>153671</v>
+      </c>
+      <c r="N352" t="n">
+        <v>82728</v>
+      </c>
+      <c r="O352" t="n">
+        <v>82605</v>
+      </c>
+      <c r="P352" t="n">
+        <v>0.998589883551674</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>0.998513199883957</v>
+      </c>
+      <c r="R352" t="n">
+        <v>0.2276607407407407</v>
+      </c>
+      <c r="S352" t="n">
+        <v>0.1223777777777778</v>
+      </c>
+      <c r="T352" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D353" t="n">
+        <v>4070.738277018</v>
+      </c>
+      <c r="E353" t="n">
+        <v>31.667282064</v>
+      </c>
+      <c r="F353" t="n">
+        <v>4039.070994956</v>
+      </c>
+      <c r="G353" t="n">
+        <v>32.229948236</v>
+      </c>
+      <c r="H353" t="n">
+        <v>4220.632536414</v>
+      </c>
+      <c r="I353" t="n">
+        <v>33.578909448</v>
+      </c>
+      <c r="J353" t="n">
+        <v>4187.053626964</v>
+      </c>
+      <c r="K353" t="n">
+        <v>33.86612366466667</v>
+      </c>
+      <c r="L353" t="n">
+        <v>156219</v>
+      </c>
+      <c r="M353" t="n">
+        <v>155997</v>
+      </c>
+      <c r="N353" t="n">
+        <v>83399</v>
+      </c>
+      <c r="O353" t="n">
+        <v>83279</v>
+      </c>
+      <c r="P353" t="n">
+        <v>0.9985789180573426</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>0.9985611338265447</v>
+      </c>
+      <c r="R353" t="n">
+        <v>0.2311066666666667</v>
+      </c>
+      <c r="S353" t="n">
+        <v>0.1233762962962963</v>
+      </c>
+      <c r="T353" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D354" t="n">
+        <v>4085.173397188</v>
+      </c>
+      <c r="E354" t="n">
+        <v>31.235826526</v>
+      </c>
+      <c r="F354" t="n">
+        <v>4053.93757066</v>
+      </c>
+      <c r="G354" t="n">
+        <v>31.73716424466667</v>
+      </c>
+      <c r="H354" t="n">
+        <v>4255.576085272</v>
+      </c>
+      <c r="I354" t="n">
+        <v>33.081909554</v>
+      </c>
+      <c r="J354" t="n">
+        <v>4222.494175718</v>
+      </c>
+      <c r="K354" t="n">
+        <v>33.36352912533334</v>
+      </c>
+      <c r="L354" t="n">
+        <v>157653</v>
+      </c>
+      <c r="M354" t="n">
+        <v>157442</v>
+      </c>
+      <c r="N354" t="n">
+        <v>83989</v>
+      </c>
+      <c r="O354" t="n">
+        <v>83873</v>
+      </c>
+      <c r="P354" t="n">
+        <v>0.9986616176032171</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>0.9986188667563609</v>
+      </c>
+      <c r="R354" t="n">
+        <v>0.2332474074074074</v>
+      </c>
+      <c r="S354" t="n">
+        <v>0.1242562962962963</v>
+      </c>
+      <c r="T354" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D355" t="n">
+        <v>4091.28482779</v>
+      </c>
+      <c r="E355" t="n">
+        <v>31.04701665</v>
+      </c>
+      <c r="F355" t="n">
+        <v>4060.23781114</v>
+      </c>
+      <c r="G355" t="n">
+        <v>31.541310264</v>
+      </c>
+      <c r="H355" t="n">
+        <v>4285.763770772</v>
+      </c>
+      <c r="I355" t="n">
+        <v>32.883162812</v>
+      </c>
+      <c r="J355" t="n">
+        <v>4252.88060796</v>
+      </c>
+      <c r="K355" t="n">
+        <v>33.16697495933333</v>
+      </c>
+      <c r="L355" t="n">
+        <v>158933</v>
+      </c>
+      <c r="M355" t="n">
+        <v>158731</v>
+      </c>
+      <c r="N355" t="n">
+        <v>84661</v>
+      </c>
+      <c r="O355" t="n">
+        <v>84545</v>
+      </c>
+      <c r="P355" t="n">
+        <v>0.9987290241800004</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>0.9986298295555215</v>
+      </c>
+      <c r="R355" t="n">
+        <v>0.235157037037037</v>
+      </c>
+      <c r="S355" t="n">
+        <v>0.1252518518518518</v>
+      </c>
+      <c r="T355" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D356" t="n">
+        <v>4086.643448738</v>
+      </c>
+      <c r="E356" t="n">
+        <v>30.781158284</v>
+      </c>
+      <c r="F356" t="n">
+        <v>4055.862290454</v>
+      </c>
+      <c r="G356" t="n">
+        <v>31.31323919933333</v>
+      </c>
+      <c r="H356" t="n">
+        <v>4301.916981044</v>
+      </c>
+      <c r="I356" t="n">
+        <v>32.669693278</v>
+      </c>
+      <c r="J356" t="n">
+        <v>4269.247287766</v>
+      </c>
+      <c r="K356" t="n">
+        <v>32.93354521000001</v>
+      </c>
+      <c r="L356" t="n">
+        <v>161048</v>
+      </c>
+      <c r="M356" t="n">
+        <v>160824</v>
+      </c>
+      <c r="N356" t="n">
+        <v>85476</v>
+      </c>
+      <c r="O356" t="n">
+        <v>85354</v>
+      </c>
+      <c r="P356" t="n">
+        <v>0.9986091103273558</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>0.9985726987692451</v>
+      </c>
+      <c r="R356" t="n">
+        <v>0.2382577777777778</v>
+      </c>
+      <c r="S356" t="n">
+        <v>0.1264503703703704</v>
+      </c>
+      <c r="T356" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D357" t="n">
+        <v>4116.259309772</v>
+      </c>
+      <c r="E357" t="n">
+        <v>30.706290412</v>
+      </c>
+      <c r="F357" t="n">
+        <v>4085.55301936</v>
+      </c>
+      <c r="G357" t="n">
+        <v>31.214266042</v>
+      </c>
+      <c r="H357" t="n">
+        <v>4350.829391794</v>
+      </c>
+      <c r="I357" t="n">
+        <v>32.558551412</v>
+      </c>
+      <c r="J357" t="n">
+        <v>4318.270840382001</v>
+      </c>
+      <c r="K357" t="n">
+        <v>32.83171759266666</v>
+      </c>
+      <c r="L357" t="n">
+        <v>161531</v>
+      </c>
+      <c r="M357" t="n">
+        <v>161309</v>
+      </c>
+      <c r="N357" t="n">
+        <v>85831</v>
+      </c>
+      <c r="O357" t="n">
+        <v>85711</v>
+      </c>
+      <c r="P357" t="n">
+        <v>0.9986256508038704</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>0.9986019037410726</v>
+      </c>
+      <c r="R357" t="n">
+        <v>0.2389762962962963</v>
+      </c>
+      <c r="S357" t="n">
+        <v>0.1269792592592593</v>
+      </c>
+      <c r="T357" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D358" t="n">
+        <v>4114.196529294</v>
+      </c>
+      <c r="E358" t="n">
+        <v>31.015421928</v>
+      </c>
+      <c r="F358" t="n">
+        <v>4083.181107368</v>
+      </c>
+      <c r="G358" t="n">
+        <v>31.68651400533333</v>
+      </c>
+      <c r="H358" t="n">
+        <v>4370.33438222</v>
+      </c>
+      <c r="I358" t="n">
+        <v>33.054549888</v>
+      </c>
+      <c r="J358" t="n">
+        <v>4337.279832332</v>
+      </c>
+      <c r="K358" t="n">
+        <v>33.30099086266667</v>
+      </c>
+      <c r="L358" t="n">
+        <v>162263</v>
+      </c>
+      <c r="M358" t="n">
+        <v>162042</v>
+      </c>
+      <c r="N358" t="n">
+        <v>86243</v>
+      </c>
+      <c r="O358" t="n">
+        <v>86123</v>
+      </c>
+      <c r="P358" t="n">
+        <v>0.9986380135952128</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>0.9986085827255545</v>
+      </c>
+      <c r="R358" t="n">
+        <v>0.2400622222222222</v>
+      </c>
+      <c r="S358" t="n">
+        <v>0.1275896296296296</v>
+      </c>
+      <c r="T358" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D359" t="n">
+        <v>4099.015961108</v>
+      </c>
+      <c r="E359" t="n">
+        <v>30.76815576</v>
+      </c>
+      <c r="F359" t="n">
+        <v>4068.247805348</v>
+      </c>
+      <c r="G359" t="n">
+        <v>31.474177044</v>
+      </c>
+      <c r="H359" t="n">
+        <v>4381.62634189</v>
+      </c>
+      <c r="I359" t="n">
+        <v>32.862318924</v>
+      </c>
+      <c r="J359" t="n">
+        <v>4348.764022966</v>
+      </c>
+      <c r="K359" t="n">
+        <v>33.09099817933333</v>
+      </c>
+      <c r="L359" t="n">
+        <v>164372</v>
+      </c>
+      <c r="M359" t="n">
+        <v>164149</v>
+      </c>
+      <c r="N359" t="n">
+        <v>87032</v>
+      </c>
+      <c r="O359" t="n">
+        <v>86911</v>
+      </c>
+      <c r="P359" t="n">
+        <v>0.9986433212469277</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>0.9986097067745198</v>
+      </c>
+      <c r="R359" t="n">
+        <v>0.2431837037037037</v>
+      </c>
+      <c r="S359" t="n">
+        <v>0.128757037037037</v>
+      </c>
+      <c r="T359" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D360" t="n">
+        <v>4098.467574266</v>
+      </c>
+      <c r="E360" t="n">
+        <v>30.044914754</v>
+      </c>
+      <c r="F360" t="n">
+        <v>4068.422659512</v>
+      </c>
+      <c r="G360" t="n">
+        <v>30.63703956933333</v>
+      </c>
+      <c r="H360" t="n">
+        <v>4397.921181478</v>
+      </c>
+      <c r="I360" t="n">
+        <v>32.021422294</v>
+      </c>
+      <c r="J360" t="n">
+        <v>4365.899759184</v>
+      </c>
+      <c r="K360" t="n">
+        <v>32.248912316</v>
+      </c>
+      <c r="L360" t="n">
+        <v>166443</v>
+      </c>
+      <c r="M360" t="n">
+        <v>166226</v>
+      </c>
+      <c r="N360" t="n">
+        <v>87739</v>
+      </c>
+      <c r="O360" t="n">
+        <v>87619</v>
+      </c>
+      <c r="P360" t="n">
+        <v>0.9986962503679938</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>0.9986323071838065</v>
+      </c>
+      <c r="R360" t="n">
+        <v>0.2462607407407408</v>
+      </c>
+      <c r="S360" t="n">
+        <v>0.1298059259259259</v>
+      </c>
+      <c r="T360" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D361" t="n">
+        <v>4103.55276427</v>
+      </c>
+      <c r="E361" t="n">
+        <v>29.95066004</v>
+      </c>
+      <c r="F361" t="n">
+        <v>4073.60210423</v>
+      </c>
+      <c r="G361" t="n">
+        <v>30.48936935466666</v>
+      </c>
+      <c r="H361" t="n">
+        <v>4405.461813774</v>
+      </c>
+      <c r="I361" t="n">
+        <v>31.844899254</v>
+      </c>
+      <c r="J361" t="n">
+        <v>4373.616914521999</v>
+      </c>
+      <c r="K361" t="n">
+        <v>32.09402637133333</v>
+      </c>
+      <c r="L361" t="n">
+        <v>167402</v>
+      </c>
+      <c r="M361" t="n">
+        <v>167187</v>
+      </c>
+      <c r="N361" t="n">
+        <v>88410</v>
+      </c>
+      <c r="O361" t="n">
+        <v>88291</v>
+      </c>
+      <c r="P361" t="n">
+        <v>0.9987156664794925</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>0.9986539984164687</v>
+      </c>
+      <c r="R361" t="n">
+        <v>0.2476844444444444</v>
+      </c>
+      <c r="S361" t="n">
+        <v>0.1308014814814815</v>
+      </c>
+      <c r="T361" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D362" t="n">
+        <v>4106.388090764</v>
+      </c>
+      <c r="E362" t="n">
+        <v>29.816315762</v>
+      </c>
+      <c r="F362" t="n">
+        <v>4076.571775002</v>
+      </c>
+      <c r="G362" t="n">
+        <v>30.36981835333334</v>
+      </c>
+      <c r="H362" t="n">
+        <v>4436.172522488</v>
+      </c>
+      <c r="I362" t="n">
+        <v>31.735412984</v>
+      </c>
+      <c r="J362" t="n">
+        <v>4404.437109502</v>
+      </c>
+      <c r="K362" t="n">
+        <v>31.975790062</v>
+      </c>
+      <c r="L362" t="n">
+        <v>168879</v>
+      </c>
+      <c r="M362" t="n">
+        <v>168659</v>
+      </c>
+      <c r="N362" t="n">
+        <v>88947</v>
+      </c>
+      <c r="O362" t="n">
+        <v>88829</v>
+      </c>
+      <c r="P362" t="n">
+        <v>0.9986972921440795</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>0.9986733672861366</v>
+      </c>
+      <c r="R362" t="n">
+        <v>0.2498651851851852</v>
+      </c>
+      <c r="S362" t="n">
+        <v>0.1315985185185185</v>
+      </c>
+      <c r="T362" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D363" t="n">
+        <v>4086.2525692</v>
+      </c>
+      <c r="E363" t="n">
+        <v>29.574710288</v>
+      </c>
+      <c r="F363" t="n">
+        <v>4056.677858912</v>
+      </c>
+      <c r="G363" t="n">
+        <v>30.20252811533333</v>
+      </c>
+      <c r="H363" t="n">
+        <v>4443.831292836</v>
+      </c>
+      <c r="I363" t="n">
+        <v>31.596764276</v>
+      </c>
+      <c r="J363" t="n">
+        <v>4412.234528562</v>
+      </c>
+      <c r="K363" t="n">
+        <v>31.80377225533333</v>
+      </c>
+      <c r="L363" t="n">
+        <v>170994</v>
+      </c>
+      <c r="M363" t="n">
+        <v>170773</v>
+      </c>
+      <c r="N363" t="n">
+        <v>89562</v>
+      </c>
+      <c r="O363" t="n">
+        <v>89439</v>
+      </c>
+      <c r="P363" t="n">
+        <v>0.9987075569903038</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>0.9986266496951832</v>
+      </c>
+      <c r="R363" t="n">
+        <v>0.252997037037037</v>
+      </c>
+      <c r="S363" t="n">
+        <v>0.1325022222222222</v>
+      </c>
+      <c r="T363" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D364" t="n">
+        <v>4101.055568852</v>
+      </c>
+      <c r="E364" t="n">
+        <v>29.88289035</v>
+      </c>
+      <c r="F364" t="n">
+        <v>4071.172678502</v>
+      </c>
+      <c r="G364" t="n">
+        <v>30.63504079533334</v>
+      </c>
+      <c r="H364" t="n">
+        <v>4461.696522164</v>
+      </c>
+      <c r="I364" t="n">
+        <v>32.037465576</v>
+      </c>
+      <c r="J364" t="n">
+        <v>4429.659056588</v>
+      </c>
+      <c r="K364" t="n">
+        <v>32.239711056</v>
+      </c>
+      <c r="L364" t="n">
+        <v>171516</v>
+      </c>
+      <c r="M364" t="n">
+        <v>171301</v>
+      </c>
+      <c r="N364" t="n">
+        <v>90176</v>
+      </c>
+      <c r="O364" t="n">
+        <v>90056</v>
+      </c>
+      <c r="P364" t="n">
+        <v>0.9987464726322909</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>0.9986692689850958</v>
+      </c>
+      <c r="R364" t="n">
+        <v>0.2537792592592593</v>
+      </c>
+      <c r="S364" t="n">
+        <v>0.1334162962962963</v>
+      </c>
+      <c r="T364" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D365" t="n">
+        <v>4096.02919198</v>
+      </c>
+      <c r="E365" t="n">
+        <v>29.760960708</v>
+      </c>
+      <c r="F365" t="n">
+        <v>4066.268231272</v>
+      </c>
+      <c r="G365" t="n">
+        <v>30.52597203133334</v>
+      </c>
+      <c r="H365" t="n">
+        <v>4475.044657624</v>
+      </c>
+      <c r="I365" t="n">
+        <v>31.941570184</v>
+      </c>
+      <c r="J365" t="n">
+        <v>4443.10308744</v>
+      </c>
+      <c r="K365" t="n">
+        <v>32.13940399000001</v>
+      </c>
+      <c r="L365" t="n">
+        <v>173387</v>
+      </c>
+      <c r="M365" t="n">
+        <v>173164</v>
+      </c>
+      <c r="N365" t="n">
+        <v>90811</v>
+      </c>
+      <c r="O365" t="n">
+        <v>90690</v>
+      </c>
+      <c r="P365" t="n">
+        <v>0.9987138597472706</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>0.9986675622997214</v>
+      </c>
+      <c r="R365" t="n">
+        <v>0.2565392592592592</v>
+      </c>
+      <c r="S365" t="n">
+        <v>0.1343555555555555</v>
+      </c>
+      <c r="T365" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D366" t="n">
+        <v>4095.424180468</v>
+      </c>
+      <c r="E366" t="n">
+        <v>29.646834124</v>
+      </c>
+      <c r="F366" t="n">
+        <v>4065.777346346</v>
+      </c>
+      <c r="G366" t="n">
+        <v>30.39995224333333</v>
+      </c>
+      <c r="H366" t="n">
+        <v>4489.296282914</v>
+      </c>
+      <c r="I366" t="n">
+        <v>31.813893908</v>
+      </c>
+      <c r="J366" t="n">
+        <v>4457.482389008</v>
+      </c>
+      <c r="K366" t="n">
+        <v>32.02031335133334</v>
+      </c>
+      <c r="L366" t="n">
+        <v>174839</v>
+      </c>
+      <c r="M366" t="n">
+        <v>174612</v>
+      </c>
+      <c r="N366" t="n">
+        <v>91455</v>
+      </c>
+      <c r="O366" t="n">
+        <v>91335</v>
+      </c>
+      <c r="P366" t="n">
+        <v>0.9987016626725158</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>0.9986878792848942</v>
+      </c>
+      <c r="R366" t="n">
+        <v>0.2586844444444444</v>
+      </c>
+      <c r="S366" t="n">
+        <v>0.1353111111111111</v>
+      </c>
+      <c r="T366" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D367" t="n">
+        <v>4124.770995928</v>
+      </c>
+      <c r="E367" t="n">
+        <v>29.566378074</v>
+      </c>
+      <c r="F367" t="n">
+        <v>4095.204617852</v>
+      </c>
+      <c r="G367" t="n">
+        <v>30.27886071133333</v>
+      </c>
+      <c r="H367" t="n">
+        <v>4511.237040338</v>
+      </c>
+      <c r="I367" t="n">
+        <v>31.680870028</v>
+      </c>
+      <c r="J367" t="n">
+        <v>4479.55617031</v>
+      </c>
+      <c r="K367" t="n">
+        <v>31.90957890333333</v>
+      </c>
+      <c r="L367" t="n">
+        <v>176014</v>
+      </c>
+      <c r="M367" t="n">
+        <v>175796</v>
+      </c>
+      <c r="N367" t="n">
+        <v>92118</v>
+      </c>
+      <c r="O367" t="n">
+        <v>91997</v>
+      </c>
+      <c r="P367" t="n">
+        <v>0.9987614621564194</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>0.9986864673570854</v>
+      </c>
+      <c r="R367" t="n">
+        <v>0.2604385185185185</v>
+      </c>
+      <c r="S367" t="n">
+        <v>0.1362918518518518</v>
+      </c>
+      <c r="T367" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D368" t="n">
+        <v>4155.735655378</v>
+      </c>
+      <c r="E368" t="n">
+        <v>29.516219836</v>
+      </c>
+      <c r="F368" t="n">
+        <v>4126.219435542</v>
+      </c>
+      <c r="G368" t="n">
+        <v>30.19587828133334</v>
+      </c>
+      <c r="H368" t="n">
+        <v>4527.612524588</v>
+      </c>
+      <c r="I368" t="n">
+        <v>31.597155272</v>
+      </c>
+      <c r="J368" t="n">
+        <v>4496.015369318</v>
+      </c>
+      <c r="K368" t="n">
+        <v>31.83721699866667</v>
+      </c>
+      <c r="L368" t="n">
+        <v>177144</v>
+      </c>
+      <c r="M368" t="n">
+        <v>176913</v>
+      </c>
+      <c r="N368" t="n">
+        <v>92644</v>
+      </c>
+      <c r="O368" t="n">
+        <v>92522</v>
+      </c>
+      <c r="P368" t="n">
+        <v>0.9986959761549925</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>0.998683131125599</v>
+      </c>
+      <c r="R368" t="n">
+        <v>0.2620933333333333</v>
+      </c>
+      <c r="S368" t="n">
+        <v>0.1370696296296296</v>
+      </c>
+      <c r="T368" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D369" t="n">
+        <v>4195.446201676</v>
+      </c>
+      <c r="E369" t="n">
+        <v>29.473737272</v>
+      </c>
+      <c r="F369" t="n">
+        <v>4165.972464404</v>
+      </c>
+      <c r="G369" t="n">
+        <v>30.13095933866667</v>
+      </c>
+      <c r="H369" t="n">
+        <v>4556.041794966</v>
+      </c>
+      <c r="I369" t="n">
+        <v>31.525322452</v>
+      </c>
+      <c r="J369" t="n">
+        <v>4524.516472513999</v>
+      </c>
+      <c r="K369" t="n">
+        <v>31.77733528533333</v>
+      </c>
+      <c r="L369" t="n">
+        <v>177761</v>
+      </c>
+      <c r="M369" t="n">
+        <v>177552</v>
+      </c>
+      <c r="N369" t="n">
+        <v>93001</v>
+      </c>
+      <c r="O369" t="n">
+        <v>92882</v>
+      </c>
+      <c r="P369" t="n">
+        <v>0.9988242640399188</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>0.998720443866195</v>
+      </c>
+      <c r="R369" t="n">
+        <v>0.26304</v>
+      </c>
+      <c r="S369" t="n">
+        <v>0.137602962962963</v>
+      </c>
+      <c r="T369" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D370" t="n">
+        <v>4314.097458992</v>
+      </c>
+      <c r="E370" t="n">
+        <v>29.482000486</v>
+      </c>
+      <c r="F370" t="n">
+        <v>4284.615458506</v>
+      </c>
+      <c r="G370" t="n">
+        <v>29.89708272666666</v>
+      </c>
+      <c r="H370" t="n">
+        <v>4608.96855481</v>
+      </c>
+      <c r="I370" t="n">
+        <v>31.22613707</v>
+      </c>
+      <c r="J370" t="n">
+        <v>4577.742417738</v>
+      </c>
+      <c r="K370" t="n">
+        <v>31.57358848066667</v>
+      </c>
+      <c r="L370" t="n">
+        <v>177202</v>
+      </c>
+      <c r="M370" t="n">
+        <v>176977</v>
+      </c>
+      <c r="N370" t="n">
+        <v>93302</v>
+      </c>
+      <c r="O370" t="n">
+        <v>93178</v>
+      </c>
+      <c r="P370" t="n">
+        <v>0.9987302626381193</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>0.9986709824012348</v>
+      </c>
+      <c r="R370" t="n">
+        <v>0.2621881481481482</v>
+      </c>
+      <c r="S370" t="n">
+        <v>0.1380414814814815</v>
+      </c>
+      <c r="T370" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D371" t="n">
+        <v>4396.80651548</v>
+      </c>
+      <c r="E371" t="n">
+        <v>29.57578106</v>
+      </c>
+      <c r="F371" t="n">
+        <v>4367.23073442</v>
+      </c>
+      <c r="G371" t="n">
+        <v>29.91198386266666</v>
+      </c>
+      <c r="H371" t="n">
+        <v>4655.672114294</v>
+      </c>
+      <c r="I371" t="n">
+        <v>31.214877804</v>
+      </c>
+      <c r="J371" t="n">
+        <v>4624.45723649</v>
+      </c>
+      <c r="K371" t="n">
+        <v>31.608060688</v>
+      </c>
+      <c r="L371" t="n">
+        <v>177001</v>
+      </c>
+      <c r="M371" t="n">
+        <v>176779</v>
+      </c>
+      <c r="N371" t="n">
+        <v>93497</v>
+      </c>
+      <c r="O371" t="n">
+        <v>93374</v>
+      </c>
+      <c r="P371" t="n">
+        <v>0.9987457697979107</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>0.9986844497684417</v>
+      </c>
+      <c r="R371" t="n">
+        <v>0.2618948148148148</v>
+      </c>
+      <c r="S371" t="n">
+        <v>0.1383318518518518</v>
+      </c>
+      <c r="T371" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D372" t="n">
+        <v>4317.904435328001</v>
+      </c>
+      <c r="E372" t="n">
+        <v>29.308632136</v>
+      </c>
+      <c r="F372" t="n">
+        <v>4288.595803192</v>
+      </c>
+      <c r="G372" t="n">
+        <v>29.68617276333334</v>
+      </c>
+      <c r="H372" t="n">
+        <v>4621.498489812</v>
+      </c>
+      <c r="I372" t="n">
+        <v>30.996777556</v>
+      </c>
+      <c r="J372" t="n">
+        <v>4590.501712256</v>
+      </c>
+      <c r="K372" t="n">
+        <v>31.35903910666667</v>
+      </c>
+      <c r="L372" t="n">
+        <v>178405</v>
+      </c>
+      <c r="M372" t="n">
+        <v>178183</v>
+      </c>
+      <c r="N372" t="n">
+        <v>94149</v>
+      </c>
+      <c r="O372" t="n">
+        <v>94028</v>
+      </c>
+      <c r="P372" t="n">
+        <v>0.9987556402567193</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>0.9987148031312069</v>
+      </c>
+      <c r="R372" t="n">
+        <v>0.2639748148148148</v>
+      </c>
+      <c r="S372" t="n">
+        <v>0.1393007407407408</v>
+      </c>
+      <c r="T372" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D373" t="n">
+        <v>4574.19849684</v>
+      </c>
+      <c r="E373" t="n">
+        <v>29.580970476</v>
+      </c>
+      <c r="F373" t="n">
+        <v>4544.617526364</v>
+      </c>
+      <c r="G373" t="n">
+        <v>29.95017237066667</v>
+      </c>
+      <c r="H373" t="n">
+        <v>4738.152925574</v>
+      </c>
+      <c r="I373" t="n">
+        <v>31.244740332</v>
+      </c>
+      <c r="J373" t="n">
+        <v>4706.908185242</v>
+      </c>
+      <c r="K373" t="n">
+        <v>31.640335988</v>
+      </c>
+      <c r="L373" t="n">
+        <v>178128</v>
+      </c>
+      <c r="M373" t="n">
+        <v>177892</v>
+      </c>
+      <c r="N373" t="n">
+        <v>94376</v>
+      </c>
+      <c r="O373" t="n">
+        <v>94255</v>
+      </c>
+      <c r="P373" t="n">
+        <v>0.9986751100332345</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>0.9987178943799271</v>
+      </c>
+      <c r="R373" t="n">
+        <v>0.2635437037037037</v>
+      </c>
+      <c r="S373" t="n">
+        <v>0.139637037037037</v>
+      </c>
+      <c r="T373" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D374" t="n">
+        <v>4611.275463288</v>
+      </c>
+      <c r="E374" t="n">
+        <v>29.492195944</v>
+      </c>
+      <c r="F374" t="n">
+        <v>4581.783267342</v>
+      </c>
+      <c r="G374" t="n">
+        <v>29.82607671066667</v>
+      </c>
+      <c r="H374" t="n">
+        <v>4748.917194026</v>
+      </c>
+      <c r="I374" t="n">
+        <v>31.101210818</v>
+      </c>
+      <c r="J374" t="n">
+        <v>4717.815983208</v>
+      </c>
+      <c r="K374" t="n">
+        <v>31.51751196933333</v>
+      </c>
+      <c r="L374" t="n">
+        <v>178781</v>
+      </c>
+      <c r="M374" t="n">
+        <v>178561</v>
+      </c>
+      <c r="N374" t="n">
+        <v>94937</v>
+      </c>
+      <c r="O374" t="n">
+        <v>94812</v>
+      </c>
+      <c r="P374" t="n">
+        <v>0.99876944418031</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>0.9986833373710987</v>
+      </c>
+      <c r="R374" t="n">
+        <v>0.2645348148148148</v>
+      </c>
+      <c r="S374" t="n">
+        <v>0.1404622222222222</v>
+      </c>
+      <c r="T374" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D375" t="n">
+        <v>4785.434643314</v>
+      </c>
+      <c r="E375" t="n">
+        <v>29.624586884</v>
+      </c>
+      <c r="F375" t="n">
+        <v>4755.810056432</v>
+      </c>
+      <c r="G375" t="n">
+        <v>29.863347178</v>
+      </c>
+      <c r="H375" t="n">
+        <v>4819.177329990001</v>
+      </c>
+      <c r="I375" t="n">
+        <v>31.09946701</v>
+      </c>
+      <c r="J375" t="n">
+        <v>4788.077862982001</v>
+      </c>
+      <c r="K375" t="n">
+        <v>31.576333396</v>
+      </c>
+      <c r="L375" t="n">
+        <v>178143</v>
+      </c>
+      <c r="M375" t="n">
+        <v>177916</v>
+      </c>
+      <c r="N375" t="n">
+        <v>95063</v>
+      </c>
+      <c r="O375" t="n">
+        <v>94936</v>
+      </c>
+      <c r="P375" t="n">
+        <v>0.9987257428021309</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>0.9986640438446083</v>
+      </c>
+      <c r="R375" t="n">
+        <v>0.2635792592592593</v>
+      </c>
+      <c r="S375" t="n">
+        <v>0.1406459259259259</v>
+      </c>
+      <c r="T375" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D376" t="n">
+        <v>4726.381888292</v>
+      </c>
+      <c r="E376" t="n">
+        <v>29.416280224</v>
+      </c>
+      <c r="F376" t="n">
+        <v>4696.965608068</v>
+      </c>
+      <c r="G376" t="n">
+        <v>29.692115402</v>
+      </c>
+      <c r="H376" t="n">
+        <v>4807.739287996</v>
+      </c>
+      <c r="I376" t="n">
+        <v>30.939503754</v>
+      </c>
+      <c r="J376" t="n">
+        <v>4776.799784242</v>
+      </c>
+      <c r="K376" t="n">
+        <v>31.39085523133333</v>
+      </c>
+      <c r="L376" t="n">
+        <v>179416</v>
+      </c>
+      <c r="M376" t="n">
+        <v>179199</v>
+      </c>
+      <c r="N376" t="n">
+        <v>95600</v>
+      </c>
+      <c r="O376" t="n">
+        <v>95477</v>
+      </c>
+      <c r="P376" t="n">
+        <v>0.9987905203549293</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>0.9987133891213389</v>
+      </c>
+      <c r="R376" t="n">
+        <v>0.26548</v>
+      </c>
+      <c r="S376" t="n">
+        <v>0.1414474074074074</v>
+      </c>
+      <c r="T376" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D377" t="n">
+        <v>4801.708240584</v>
+      </c>
+      <c r="E377" t="n">
+        <v>29.077808834</v>
+      </c>
+      <c r="F377" t="n">
+        <v>4772.630431750001</v>
+      </c>
+      <c r="G377" t="n">
+        <v>29.14960474133333</v>
+      </c>
+      <c r="H377" t="n">
+        <v>4848.3798857</v>
+      </c>
+      <c r="I377" t="n">
+        <v>30.345574792</v>
+      </c>
+      <c r="J377" t="n">
+        <v>4818.034310908</v>
+      </c>
+      <c r="K377" t="n">
+        <v>30.858682708</v>
+      </c>
+      <c r="L377" t="n">
+        <v>179476</v>
+      </c>
+      <c r="M377" t="n">
+        <v>179247</v>
+      </c>
+      <c r="N377" t="n">
+        <v>95836</v>
+      </c>
+      <c r="O377" t="n">
+        <v>95713</v>
+      </c>
+      <c r="P377" t="n">
+        <v>0.9987240633845194</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>0.9987165574523144</v>
+      </c>
+      <c r="R377" t="n">
+        <v>0.2655511111111111</v>
+      </c>
+      <c r="S377" t="n">
+        <v>0.1417970370370371</v>
+      </c>
+      <c r="T377" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D378" t="n">
+        <v>4906.226675372</v>
+      </c>
+      <c r="E378" t="n">
+        <v>29.117059806</v>
+      </c>
+      <c r="F378" t="n">
+        <v>4877.109615568</v>
+      </c>
+      <c r="G378" t="n">
+        <v>29.07054682066667</v>
+      </c>
+      <c r="H378" t="n">
+        <v>4865.11941677</v>
+      </c>
+      <c r="I378" t="n">
+        <v>30.206486094</v>
+      </c>
+      <c r="J378" t="n">
+        <v>4834.912930676001</v>
+      </c>
+      <c r="K378" t="n">
+        <v>30.80182103333333</v>
+      </c>
+      <c r="L378" t="n">
+        <v>179410</v>
+      </c>
+      <c r="M378" t="n">
+        <v>179199</v>
+      </c>
+      <c r="N378" t="n">
+        <v>96482</v>
+      </c>
+      <c r="O378" t="n">
+        <v>96360</v>
+      </c>
+      <c r="P378" t="n">
+        <v>0.9988239228582576</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>0.9987355154329305</v>
+      </c>
+      <c r="R378" t="n">
+        <v>0.26548</v>
+      </c>
+      <c r="S378" t="n">
+        <v>0.1427555555555556</v>
+      </c>
+      <c r="T378" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D379" t="n">
+        <v>4819.490932822</v>
+      </c>
+      <c r="E379" t="n">
+        <v>28.87631694</v>
+      </c>
+      <c r="F379" t="n">
+        <v>4790.614615882</v>
+      </c>
+      <c r="G379" t="n">
+        <v>28.86662039466666</v>
+      </c>
+      <c r="H379" t="n">
+        <v>4829.274349864</v>
+      </c>
+      <c r="I379" t="n">
+        <v>30.00458314</v>
+      </c>
+      <c r="J379" t="n">
+        <v>4799.269766724</v>
+      </c>
+      <c r="K379" t="n">
+        <v>30.56610842866667</v>
+      </c>
+      <c r="L379" t="n">
+        <v>181036</v>
+      </c>
+      <c r="M379" t="n">
+        <v>180817</v>
+      </c>
+      <c r="N379" t="n">
+        <v>97216</v>
+      </c>
+      <c r="O379" t="n">
+        <v>97095</v>
+      </c>
+      <c r="P379" t="n">
+        <v>0.9987902958527586</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>0.9987553489137591</v>
+      </c>
+      <c r="R379" t="n">
+        <v>0.267877037037037</v>
+      </c>
+      <c r="S379" t="n">
+        <v>0.1438444444444444</v>
+      </c>
+      <c r="T379" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D380" t="n">
+        <v>4952.241447466</v>
+      </c>
+      <c r="E380" t="n">
+        <v>28.914017906</v>
+      </c>
+      <c r="F380" t="n">
+        <v>4923.327429561999</v>
+      </c>
+      <c r="G380" t="n">
+        <v>28.87021122866667</v>
+      </c>
+      <c r="H380" t="n">
+        <v>4897.735103426</v>
+      </c>
+      <c r="I380" t="n">
+        <v>29.993279818</v>
+      </c>
+      <c r="J380" t="n">
+        <v>4867.741823608</v>
+      </c>
+      <c r="K380" t="n">
+        <v>30.57892764666667</v>
+      </c>
+      <c r="L380" t="n">
+        <v>180834</v>
+      </c>
+      <c r="M380" t="n">
+        <v>180619</v>
+      </c>
+      <c r="N380" t="n">
+        <v>97294</v>
+      </c>
+      <c r="O380" t="n">
+        <v>97170</v>
+      </c>
+      <c r="P380" t="n">
+        <v>0.9988110642910072</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>0.9987255123645857</v>
+      </c>
+      <c r="R380" t="n">
+        <v>0.2675837037037037</v>
+      </c>
+      <c r="S380" t="n">
+        <v>0.1439555555555556</v>
+      </c>
+      <c r="T380" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D381" t="n">
+        <v>4998.420709424</v>
+      </c>
+      <c r="E381" t="n">
+        <v>28.804277486</v>
+      </c>
+      <c r="F381" t="n">
+        <v>4969.616431938</v>
+      </c>
+      <c r="G381" t="n">
+        <v>28.73150329</v>
+      </c>
+      <c r="H381" t="n">
+        <v>4907.065929236001</v>
+      </c>
+      <c r="I381" t="n">
+        <v>29.832483106</v>
+      </c>
+      <c r="J381" t="n">
+        <v>4877.233446128</v>
+      </c>
+      <c r="K381" t="n">
+        <v>30.43782281933333</v>
+      </c>
+      <c r="L381" t="n">
+        <v>181625</v>
+      </c>
+      <c r="M381" t="n">
+        <v>181415</v>
+      </c>
+      <c r="N381" t="n">
+        <v>97941</v>
+      </c>
+      <c r="O381" t="n">
+        <v>97817</v>
+      </c>
+      <c r="P381" t="n">
+        <v>0.9988437715072265</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>0.9987339316527297</v>
+      </c>
+      <c r="R381" t="n">
+        <v>0.2687629629629629</v>
+      </c>
+      <c r="S381" t="n">
+        <v>0.1449140740740741</v>
+      </c>
+      <c r="T381" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D382" t="n">
+        <v>5179.801856882001</v>
+      </c>
+      <c r="E382" t="n">
+        <v>28.983127322</v>
+      </c>
+      <c r="F382" t="n">
+        <v>5150.81872956</v>
+      </c>
+      <c r="G382" t="n">
+        <v>28.81744809066667</v>
+      </c>
+      <c r="H382" t="n">
+        <v>4981.630665547999</v>
+      </c>
+      <c r="I382" t="n">
+        <v>29.873404646</v>
+      </c>
+      <c r="J382" t="n">
+        <v>4951.757260902</v>
+      </c>
+      <c r="K382" t="n">
+        <v>30.54872465866667</v>
+      </c>
+      <c r="L382" t="n">
+        <v>180629</v>
+      </c>
+      <c r="M382" t="n">
+        <v>180410</v>
+      </c>
+      <c r="N382" t="n">
+        <v>97909</v>
+      </c>
+      <c r="O382" t="n">
+        <v>97784</v>
+      </c>
+      <c r="P382" t="n">
+        <v>0.9987875701022538</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>0.9987233042927617</v>
+      </c>
+      <c r="R382" t="n">
+        <v>0.2672740740740741</v>
+      </c>
+      <c r="S382" t="n">
+        <v>0.1448651851851852</v>
+      </c>
+      <c r="T382" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D383" t="n">
+        <v>5249.120881068</v>
+      </c>
+      <c r="E383" t="n">
+        <v>28.948431014</v>
+      </c>
+      <c r="F383" t="n">
+        <v>5220.172450051999</v>
+      </c>
+      <c r="G383" t="n">
+        <v>28.75638521066667</v>
+      </c>
+      <c r="H383" t="n">
+        <v>5009.830180796001</v>
+      </c>
+      <c r="I383" t="n">
+        <v>29.79579503</v>
+      </c>
+      <c r="J383" t="n">
+        <v>4980.034385764</v>
+      </c>
+      <c r="K383" t="n">
+        <v>30.49149480066667</v>
+      </c>
+      <c r="L383" t="n">
+        <v>180911</v>
+      </c>
+      <c r="M383" t="n">
+        <v>180690</v>
+      </c>
+      <c r="N383" t="n">
+        <v>98247</v>
+      </c>
+      <c r="O383" t="n">
+        <v>98122</v>
+      </c>
+      <c r="P383" t="n">
+        <v>0.9987784048510041</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>0.9987276965199955</v>
+      </c>
+      <c r="R383" t="n">
+        <v>0.2676888888888889</v>
+      </c>
+      <c r="S383" t="n">
+        <v>0.1453659259259259</v>
+      </c>
+      <c r="T383" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D384" t="n">
+        <v>5292.313721269999</v>
+      </c>
+      <c r="E384" t="n">
+        <v>28.880749386</v>
+      </c>
+      <c r="F384" t="n">
+        <v>5263.432971884</v>
+      </c>
+      <c r="G384" t="n">
+        <v>28.66393518733333</v>
+      </c>
+      <c r="H384" t="n">
+        <v>5028.680925524</v>
+      </c>
+      <c r="I384" t="n">
+        <v>29.68511493</v>
+      </c>
+      <c r="J384" t="n">
+        <v>4998.995810594</v>
+      </c>
+      <c r="K384" t="n">
+        <v>30.398593488</v>
+      </c>
+      <c r="L384" t="n">
+        <v>181428</v>
+      </c>
+      <c r="M384" t="n">
+        <v>181215</v>
+      </c>
+      <c r="N384" t="n">
+        <v>98704</v>
+      </c>
+      <c r="O384" t="n">
+        <v>98582</v>
+      </c>
+      <c r="P384" t="n">
+        <v>0.9988259805542694</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>0.9987639811963041</v>
+      </c>
+      <c r="R384" t="n">
+        <v>0.2684666666666666</v>
+      </c>
+      <c r="S384" t="n">
+        <v>0.1460474074074074</v>
+      </c>
+      <c r="T384" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D385" t="n">
+        <v>5322.773084354</v>
+      </c>
+      <c r="E385" t="n">
+        <v>28.831108346</v>
+      </c>
+      <c r="F385" t="n">
+        <v>5293.941976008</v>
+      </c>
+      <c r="G385" t="n">
+        <v>28.56157986866666</v>
+      </c>
+      <c r="H385" t="n">
+        <v>5028.892378263999</v>
+      </c>
+      <c r="I385" t="n">
+        <v>29.5468394</v>
+      </c>
+      <c r="J385" t="n">
+        <v>4999.345538864</v>
+      </c>
+      <c r="K385" t="n">
+        <v>30.30240085133333</v>
+      </c>
+      <c r="L385" t="n">
+        <v>181880</v>
+      </c>
+      <c r="M385" t="n">
+        <v>181649</v>
+      </c>
+      <c r="N385" t="n">
+        <v>99312</v>
+      </c>
+      <c r="O385" t="n">
+        <v>99190</v>
+      </c>
+      <c r="P385" t="n">
+        <v>0.9987299318231802</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>0.9987715482519736</v>
+      </c>
+      <c r="R385" t="n">
+        <v>0.2691096296296296</v>
+      </c>
+      <c r="S385" t="n">
+        <v>0.1469481481481482</v>
+      </c>
+      <c r="T385" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D386" t="n">
+        <v>5316.79569539</v>
+      </c>
+      <c r="E386" t="n">
+        <v>28.703641604</v>
+      </c>
+      <c r="F386" t="n">
+        <v>5288.092053786</v>
+      </c>
+      <c r="G386" t="n">
+        <v>28.461894194</v>
+      </c>
+      <c r="H386" t="n">
+        <v>5031.747128516</v>
+      </c>
+      <c r="I386" t="n">
+        <v>29.456824736</v>
+      </c>
+      <c r="J386" t="n">
+        <v>5002.29030378</v>
+      </c>
+      <c r="K386" t="n">
+        <v>30.18718100266667</v>
+      </c>
+      <c r="L386" t="n">
+        <v>182718</v>
+      </c>
+      <c r="M386" t="n">
+        <v>182502</v>
+      </c>
+      <c r="N386" t="n">
+        <v>99638</v>
+      </c>
+      <c r="O386" t="n">
+        <v>99513</v>
+      </c>
+      <c r="P386" t="n">
+        <v>0.9988178504580829</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>0.9987454585599872</v>
+      </c>
+      <c r="R386" t="n">
+        <v>0.2703733333333334</v>
+      </c>
+      <c r="S386" t="n">
+        <v>0.1474266666666667</v>
+      </c>
+      <c r="T386" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D387" t="n">
+        <v>5430.396849876</v>
+      </c>
+      <c r="E387" t="n">
+        <v>28.770062838</v>
+      </c>
+      <c r="F387" t="n">
+        <v>5401.626787038001</v>
+      </c>
+      <c r="G387" t="n">
+        <v>28.44312253133333</v>
+      </c>
+      <c r="H387" t="n">
+        <v>5067.19824644</v>
+      </c>
+      <c r="I387" t="n">
+        <v>29.385102742</v>
+      </c>
+      <c r="J387" t="n">
+        <v>5037.813143698</v>
+      </c>
+      <c r="K387" t="n">
+        <v>30.18840676</v>
+      </c>
+      <c r="L387" t="n">
+        <v>182443</v>
+      </c>
+      <c r="M387" t="n">
+        <v>182215</v>
+      </c>
+      <c r="N387" t="n">
+        <v>100035</v>
+      </c>
+      <c r="O387" t="n">
+        <v>99911</v>
+      </c>
+      <c r="P387" t="n">
+        <v>0.9987502946125639</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>0.9987604338481532</v>
+      </c>
+      <c r="R387" t="n">
+        <v>0.2699481481481482</v>
+      </c>
+      <c r="S387" t="n">
+        <v>0.1480162962962963</v>
+      </c>
+      <c r="T387" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D388" t="n">
+        <v>5456.061870613999</v>
+      </c>
+      <c r="E388" t="n">
+        <v>28.794269776</v>
+      </c>
+      <c r="F388" t="n">
+        <v>5427.267600838</v>
+      </c>
+      <c r="G388" t="n">
+        <v>28.419110928</v>
+      </c>
+      <c r="H388" t="n">
+        <v>5074.639535696</v>
+      </c>
+      <c r="I388" t="n">
+        <v>29.329973152</v>
+      </c>
+      <c r="J388" t="n">
+        <v>5045.309562544</v>
+      </c>
+      <c r="K388" t="n">
+        <v>30.178440406</v>
+      </c>
+      <c r="L388" t="n">
+        <v>182336</v>
+      </c>
+      <c r="M388" t="n">
+        <v>182122</v>
+      </c>
+      <c r="N388" t="n">
+        <v>100316</v>
+      </c>
+      <c r="O388" t="n">
+        <v>100193</v>
+      </c>
+      <c r="P388" t="n">
+        <v>0.9988263425763426</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>0.9987738745564018</v>
+      </c>
+      <c r="R388" t="n">
+        <v>0.2698103703703704</v>
+      </c>
+      <c r="S388" t="n">
+        <v>0.1484340740740741</v>
+      </c>
+      <c r="T388" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D389" t="n">
+        <v>5653.085718696</v>
+      </c>
+      <c r="E389" t="n">
+        <v>28.921998248</v>
+      </c>
+      <c r="F389" t="n">
+        <v>5624.163720448</v>
+      </c>
+      <c r="G389" t="n">
+        <v>28.470112622</v>
+      </c>
+      <c r="H389" t="n">
+        <v>5145.08600028</v>
+      </c>
+      <c r="I389" t="n">
+        <v>29.333981376</v>
+      </c>
+      <c r="J389" t="n">
+        <v>5115.752018902</v>
+      </c>
+      <c r="K389" t="n">
+        <v>30.25427544933333</v>
+      </c>
+      <c r="L389" t="n">
+        <v>181641</v>
+      </c>
+      <c r="M389" t="n">
+        <v>181419</v>
+      </c>
+      <c r="N389" t="n">
+        <v>100425</v>
+      </c>
+      <c r="O389" t="n">
+        <v>100302</v>
+      </c>
+      <c r="P389" t="n">
+        <v>0.998777808974846</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>0.9987752053771471</v>
+      </c>
+      <c r="R389" t="n">
+        <v>0.2687688888888889</v>
+      </c>
+      <c r="S389" t="n">
+        <v>0.1485955555555555</v>
+      </c>
+      <c r="T389" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D390" t="n">
+        <v>5525.399629806</v>
+      </c>
+      <c r="E390" t="n">
+        <v>28.661250252</v>
+      </c>
+      <c r="F390" t="n">
+        <v>5496.738379554</v>
+      </c>
+      <c r="G390" t="n">
+        <v>28.247907292</v>
+      </c>
+      <c r="H390" t="n">
+        <v>5092.117438744001</v>
+      </c>
+      <c r="I390" t="n">
+        <v>29.12284971</v>
+      </c>
+      <c r="J390" t="n">
+        <v>5062.994589034</v>
+      </c>
+      <c r="K390" t="n">
+        <v>30.00281911266667</v>
+      </c>
+      <c r="L390" t="n">
+        <v>183383</v>
+      </c>
+      <c r="M390" t="n">
+        <v>183147</v>
+      </c>
+      <c r="N390" t="n">
+        <v>101215</v>
+      </c>
+      <c r="O390" t="n">
+        <v>101091</v>
+      </c>
+      <c r="P390" t="n">
+        <v>0.998713075912162</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>0.9987748851454824</v>
+      </c>
+      <c r="R390" t="n">
+        <v>0.2713288888888889</v>
+      </c>
+      <c r="S390" t="n">
+        <v>0.1497644444444445</v>
+      </c>
+      <c r="T390" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D391" t="n">
+        <v>5615.552883196</v>
+      </c>
+      <c r="E391" t="n">
+        <v>28.69307093</v>
+      </c>
+      <c r="F391" t="n">
+        <v>5586.859812268</v>
+      </c>
+      <c r="G391" t="n">
+        <v>28.227832994</v>
+      </c>
+      <c r="H391" t="n">
+        <v>5123.77620419</v>
+      </c>
+      <c r="I391" t="n">
+        <v>29.06693558</v>
+      </c>
+      <c r="J391" t="n">
+        <v>5094.70926861</v>
+      </c>
+      <c r="K391" t="n">
+        <v>29.99830796466667</v>
+      </c>
+      <c r="L391" t="n">
+        <v>183251</v>
+      </c>
+      <c r="M391" t="n">
+        <v>183026</v>
+      </c>
+      <c r="N391" t="n">
+        <v>101519</v>
+      </c>
+      <c r="O391" t="n">
+        <v>101396</v>
+      </c>
+      <c r="P391" t="n">
+        <v>0.9987721758680717</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>0.9987884041410967</v>
+      </c>
+      <c r="R391" t="n">
+        <v>0.2711496296296296</v>
+      </c>
+      <c r="S391" t="n">
+        <v>0.1502162962962963</v>
+      </c>
+      <c r="T391" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D392" t="n">
+        <v>5599.274339504</v>
+      </c>
+      <c r="E392" t="n">
+        <v>28.542557468</v>
+      </c>
+      <c r="F392" t="n">
+        <v>5570.731782036</v>
+      </c>
+      <c r="G392" t="n">
+        <v>28.08472586933333</v>
+      </c>
+      <c r="H392" t="n">
+        <v>5112.829662246</v>
+      </c>
+      <c r="I392" t="n">
+        <v>28.924388044</v>
+      </c>
+      <c r="J392" t="n">
+        <v>5083.905274204</v>
+      </c>
+      <c r="K392" t="n">
+        <v>29.84769145866667</v>
+      </c>
+      <c r="L392" t="n">
+        <v>184334</v>
+      </c>
+      <c r="M392" t="n">
+        <v>184104</v>
+      </c>
+      <c r="N392" t="n">
+        <v>102094</v>
+      </c>
+      <c r="O392" t="n">
+        <v>101968</v>
+      </c>
+      <c r="P392" t="n">
+        <v>0.9987522649104343</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>0.9987658432425021</v>
+      </c>
+      <c r="R392" t="n">
+        <v>0.2727466666666667</v>
+      </c>
+      <c r="S392" t="n">
+        <v>0.1510637037037037</v>
+      </c>
+      <c r="T392" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D393" t="n">
+        <v>5823.248188</v>
+      </c>
+      <c r="E393" t="n">
+        <v>28.75178465</v>
+      </c>
+      <c r="F393" t="n">
+        <v>5794.49640335</v>
+      </c>
+      <c r="G393" t="n">
+        <v>28.199528914</v>
+      </c>
+      <c r="H393" t="n">
+        <v>5198.534827115999</v>
+      </c>
+      <c r="I393" t="n">
+        <v>28.980989116</v>
+      </c>
+      <c r="J393" t="n">
+        <v>5169.553838000001</v>
+      </c>
+      <c r="K393" t="n">
+        <v>30.00440845333334</v>
+      </c>
+      <c r="L393" t="n">
+        <v>183039</v>
+      </c>
+      <c r="M393" t="n">
+        <v>182809</v>
+      </c>
+      <c r="N393" t="n">
+        <v>102015</v>
+      </c>
+      <c r="O393" t="n">
+        <v>101889</v>
+      </c>
+      <c r="P393" t="n">
+        <v>0.9987434371909811</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>0.9987648875165417</v>
+      </c>
+      <c r="R393" t="n">
+        <v>0.2708281481481482</v>
+      </c>
+      <c r="S393" t="n">
+        <v>0.1509466666666667</v>
+      </c>
+      <c r="T393" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D394" t="n">
+        <v>5784.902699378</v>
+      </c>
+      <c r="E394" t="n">
+        <v>28.630742098</v>
+      </c>
+      <c r="F394" t="n">
+        <v>5756.27195728</v>
+      </c>
+      <c r="G394" t="n">
+        <v>28.071402636</v>
+      </c>
+      <c r="H394" t="n">
+        <v>5172.783728939999</v>
+      </c>
+      <c r="I394" t="n">
+        <v>28.835162584</v>
+      </c>
+      <c r="J394" t="n">
+        <v>5143.948566356</v>
+      </c>
+      <c r="K394" t="n">
+        <v>29.86582267066666</v>
+      </c>
+      <c r="L394" t="n">
+        <v>183936</v>
+      </c>
+      <c r="M394" t="n">
+        <v>183709</v>
+      </c>
+      <c r="N394" t="n">
+        <v>102628</v>
+      </c>
+      <c r="O394" t="n">
+        <v>102501</v>
+      </c>
+      <c r="P394" t="n">
+        <v>0.9987658750869868</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>0.9987625209494485</v>
+      </c>
+      <c r="R394" t="n">
+        <v>0.2721614814814814</v>
+      </c>
+      <c r="S394" t="n">
+        <v>0.1518533333333333</v>
+      </c>
+      <c r="T394" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D395" t="n">
+        <v>5678.06581822</v>
+      </c>
+      <c r="E395" t="n">
+        <v>28.313410106</v>
+      </c>
+      <c r="F395" t="n">
+        <v>5649.752408114</v>
+      </c>
+      <c r="G395" t="n">
+        <v>27.834136334</v>
+      </c>
+      <c r="H395" t="n">
+        <v>5135.290150972</v>
+      </c>
+      <c r="I395" t="n">
+        <v>28.641998876</v>
+      </c>
+      <c r="J395" t="n">
+        <v>5106.648152096</v>
+      </c>
+      <c r="K395" t="n">
+        <v>29.58314607333333</v>
+      </c>
+      <c r="L395" t="n">
+        <v>186048</v>
+      </c>
+      <c r="M395" t="n">
+        <v>185830</v>
+      </c>
+      <c r="N395" t="n">
+        <v>103324</v>
+      </c>
+      <c r="O395" t="n">
+        <v>103198</v>
+      </c>
+      <c r="P395" t="n">
+        <v>0.9988282593739251</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>0.998780535016066</v>
+      </c>
+      <c r="R395" t="n">
+        <v>0.2753037037037037</v>
+      </c>
+      <c r="S395" t="n">
+        <v>0.1528859259259259</v>
+      </c>
+      <c r="T395" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D396" t="n">
+        <v>5815.271473547999</v>
+      </c>
+      <c r="E396" t="n">
+        <v>28.520561826</v>
+      </c>
+      <c r="F396" t="n">
+        <v>5786.750911722</v>
+      </c>
+      <c r="G396" t="n">
+        <v>27.94176800933333</v>
+      </c>
+      <c r="H396" t="n">
+        <v>5181.757251258</v>
+      </c>
+      <c r="I396" t="n">
+        <v>28.683900416</v>
+      </c>
+      <c r="J396" t="n">
+        <v>5153.073350842</v>
+      </c>
+      <c r="K396" t="n">
+        <v>29.73332241</v>
+      </c>
+      <c r="L396" t="n">
+        <v>184765</v>
+      </c>
+      <c r="M396" t="n">
+        <v>184541</v>
+      </c>
+      <c r="N396" t="n">
+        <v>103313</v>
+      </c>
+      <c r="O396" t="n">
+        <v>103189</v>
+      </c>
+      <c r="P396" t="n">
+        <v>0.9987876491759803</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>0.9987997638244945</v>
+      </c>
+      <c r="R396" t="n">
+        <v>0.2733940740740741</v>
+      </c>
+      <c r="S396" t="n">
+        <v>0.1528725925925926</v>
+      </c>
+      <c r="T396" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D397" t="n">
+        <v>5951.842579843999</v>
+      </c>
+      <c r="E397" t="n">
+        <v>28.654331938</v>
+      </c>
+      <c r="F397" t="n">
+        <v>5923.188247906</v>
+      </c>
+      <c r="G397" t="n">
+        <v>27.98725395733333</v>
+      </c>
+      <c r="H397" t="n">
+        <v>5222.113692842</v>
+      </c>
+      <c r="I397" t="n">
+        <v>28.66206403</v>
+      </c>
+      <c r="J397" t="n">
+        <v>5193.451628809999</v>
+      </c>
+      <c r="K397" t="n">
+        <v>29.814868196</v>
+      </c>
+      <c r="L397" t="n">
+        <v>184000</v>
+      </c>
+      <c r="M397" t="n">
+        <v>183763</v>
+      </c>
+      <c r="N397" t="n">
+        <v>103548</v>
+      </c>
+      <c r="O397" t="n">
+        <v>103419</v>
+      </c>
+      <c r="P397" t="n">
+        <v>0.9987119565217392</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>0.9987542009502839</v>
+      </c>
+      <c r="R397" t="n">
+        <v>0.2722414814814815</v>
+      </c>
+      <c r="S397" t="n">
+        <v>0.1532133333333333</v>
+      </c>
+      <c r="T397" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D398" t="n">
+        <v>5843.952196437999</v>
+      </c>
+      <c r="E398" t="n">
+        <v>28.41104695</v>
+      </c>
+      <c r="F398" t="n">
+        <v>5815.541149488</v>
+      </c>
+      <c r="G398" t="n">
+        <v>27.79939359066666</v>
+      </c>
+      <c r="H398" t="n">
+        <v>5181.783926168</v>
+      </c>
+      <c r="I398" t="n">
+        <v>28.500634494</v>
+      </c>
+      <c r="J398" t="n">
+        <v>5153.283291674</v>
+      </c>
+      <c r="K398" t="n">
+        <v>29.58889482533333</v>
+      </c>
+      <c r="L398" t="n">
+        <v>185524</v>
+      </c>
+      <c r="M398" t="n">
+        <v>185300</v>
+      </c>
+      <c r="N398" t="n">
+        <v>104144</v>
+      </c>
+      <c r="O398" t="n">
+        <v>104020</v>
+      </c>
+      <c r="P398" t="n">
+        <v>0.9987926090424959</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>0.9988093409125826</v>
+      </c>
+      <c r="R398" t="n">
+        <v>0.2745185185185185</v>
+      </c>
+      <c r="S398" t="n">
+        <v>0.1541037037037037</v>
+      </c>
+      <c r="T398" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D399" t="n">
+        <v>5912.89832869</v>
+      </c>
+      <c r="E399" t="n">
+        <v>28.441676924</v>
+      </c>
+      <c r="F399" t="n">
+        <v>5884.456651768</v>
+      </c>
+      <c r="G399" t="n">
+        <v>27.773277298</v>
+      </c>
+      <c r="H399" t="n">
+        <v>5194.333958796</v>
+      </c>
+      <c r="I399" t="n">
+        <v>28.423489316</v>
+      </c>
+      <c r="J399" t="n">
+        <v>5165.910469480001</v>
+      </c>
+      <c r="K399" t="n">
+        <v>29.577814954</v>
+      </c>
+      <c r="L399" t="n">
+        <v>185467</v>
+      </c>
+      <c r="M399" t="n">
+        <v>185244</v>
+      </c>
+      <c r="N399" t="n">
+        <v>104583</v>
+      </c>
+      <c r="O399" t="n">
+        <v>104456</v>
+      </c>
+      <c r="P399" t="n">
+        <v>0.9987976297670206</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>0.9987856535000909</v>
+      </c>
+      <c r="R399" t="n">
+        <v>0.2744355555555555</v>
+      </c>
+      <c r="S399" t="n">
+        <v>0.1547496296296296</v>
+      </c>
+      <c r="T399" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D400" t="n">
+        <v>5851.127184944</v>
+      </c>
+      <c r="E400" t="n">
+        <v>28.250233096</v>
+      </c>
+      <c r="F400" t="n">
+        <v>5822.876951848</v>
+      </c>
+      <c r="G400" t="n">
+        <v>27.60343561266667</v>
+      </c>
+      <c r="H400" t="n">
+        <v>5166.535523024</v>
+      </c>
+      <c r="I400" t="n">
+        <v>28.258986578</v>
+      </c>
+      <c r="J400" t="n">
+        <v>5138.276536446</v>
+      </c>
+      <c r="K400" t="n">
+        <v>29.383180798</v>
+      </c>
+      <c r="L400" t="n">
+        <v>186849</v>
+      </c>
+      <c r="M400" t="n">
+        <v>186618</v>
+      </c>
+      <c r="N400" t="n">
+        <v>105257</v>
+      </c>
+      <c r="O400" t="n">
+        <v>105129</v>
+      </c>
+      <c r="P400" t="n">
+        <v>0.9987637075927621</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>0.9987839288598384</v>
+      </c>
+      <c r="R400" t="n">
+        <v>0.2764711111111111</v>
+      </c>
+      <c r="S400" t="n">
+        <v>0.1557466666666667</v>
+      </c>
+      <c r="T400" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>1</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>triba27_transpose</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D401" t="n">
+        <v>6010.53816695</v>
+      </c>
+      <c r="E401" t="n">
+        <v>28.437927464</v>
+      </c>
+      <c r="F401" t="n">
+        <v>5982.100239488</v>
+      </c>
+      <c r="G401" t="n">
+        <v>27.71324018</v>
+      </c>
+      <c r="H401" t="n">
+        <v>5223.710252260001</v>
+      </c>
+      <c r="I401" t="n">
+        <v>28.310585436</v>
+      </c>
+      <c r="J401" t="n">
+        <v>5195.399666826001</v>
+      </c>
+      <c r="K401" t="n">
+        <v>29.53588633866666</v>
+      </c>
+      <c r="L401" t="n">
+        <v>185619</v>
+      </c>
+      <c r="M401" t="n">
+        <v>185396</v>
+      </c>
+      <c r="N401" t="n">
+        <v>105175</v>
+      </c>
+      <c r="O401" t="n">
+        <v>105050</v>
+      </c>
+      <c r="P401" t="n">
+        <v>0.9987986143659863</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>0.9988115046351319</v>
+      </c>
+      <c r="R401" t="n">
+        <v>0.2746607407407408</v>
+      </c>
+      <c r="S401" t="n">
+        <v>0.1556296296296296</v>
+      </c>
+      <c r="T401" t="inlineStr">
+        <is>
+          <t>deterministic</t>
         </is>
       </c>
     </row>

--- a/m5out_stats_congestion_aware.xlsx
+++ b/m5out_stats_congestion_aware.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T401"/>
+  <dimension ref="A1:T501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26966,6 +26966,6606 @@
       <c r="T401" t="inlineStr">
         <is>
           <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D402" t="n">
+        <v>31.977256354</v>
+      </c>
+      <c r="E402" t="n">
+        <v>29.967994236</v>
+      </c>
+      <c r="F402" t="n">
+        <v>2.009262118</v>
+      </c>
+      <c r="G402" t="n">
+        <v>23.16653270666666</v>
+      </c>
+      <c r="H402" t="n">
+        <v>32.98887218</v>
+      </c>
+      <c r="I402" t="n">
+        <v>30.983458646</v>
+      </c>
+      <c r="J402" t="n">
+        <v>2.005413534</v>
+      </c>
+      <c r="K402" t="n">
+        <v>24.858197532</v>
+      </c>
+      <c r="L402" t="n">
+        <v>9728</v>
+      </c>
+      <c r="M402" t="n">
+        <v>9717</v>
+      </c>
+      <c r="N402" t="n">
+        <v>3328</v>
+      </c>
+      <c r="O402" t="n">
+        <v>3325</v>
+      </c>
+      <c r="P402" t="n">
+        <v>0.9988692434210527</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>0.9990985576923077</v>
+      </c>
+      <c r="R402" t="n">
+        <v>0.01439555555555556</v>
+      </c>
+      <c r="S402" t="n">
+        <v>0.004925925925925926</v>
+      </c>
+      <c r="T402" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D403" t="n">
+        <v>32.966148076</v>
+      </c>
+      <c r="E403" t="n">
+        <v>30.91891755</v>
+      </c>
+      <c r="F403" t="n">
+        <v>2.047230528</v>
+      </c>
+      <c r="G403" t="n">
+        <v>23.563974348</v>
+      </c>
+      <c r="H403" t="n">
+        <v>33.557552354</v>
+      </c>
+      <c r="I403" t="n">
+        <v>31.528442002</v>
+      </c>
+      <c r="J403" t="n">
+        <v>2.029110352</v>
+      </c>
+      <c r="K403" t="n">
+        <v>25.20996489666666</v>
+      </c>
+      <c r="L403" t="n">
+        <v>19754</v>
+      </c>
+      <c r="M403" t="n">
+        <v>19733</v>
+      </c>
+      <c r="N403" t="n">
+        <v>6738</v>
+      </c>
+      <c r="O403" t="n">
+        <v>6733</v>
+      </c>
+      <c r="P403" t="n">
+        <v>0.9989369241672572</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>0.9992579400415553</v>
+      </c>
+      <c r="R403" t="n">
+        <v>0.02923407407407408</v>
+      </c>
+      <c r="S403" t="n">
+        <v>0.009974814814814815</v>
+      </c>
+      <c r="T403" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D404" t="n">
+        <v>34.583874808</v>
+      </c>
+      <c r="E404" t="n">
+        <v>32.443816976</v>
+      </c>
+      <c r="F404" t="n">
+        <v>2.140057832</v>
+      </c>
+      <c r="G404" t="n">
+        <v>24.265467104</v>
+      </c>
+      <c r="H404" t="n">
+        <v>34.607445852</v>
+      </c>
+      <c r="I404" t="n">
+        <v>32.522706856</v>
+      </c>
+      <c r="J404" t="n">
+        <v>2.084738996</v>
+      </c>
+      <c r="K404" t="n">
+        <v>25.85618725666667</v>
+      </c>
+      <c r="L404" t="n">
+        <v>29448</v>
+      </c>
+      <c r="M404" t="n">
+        <v>29395</v>
+      </c>
+      <c r="N404" t="n">
+        <v>10036</v>
+      </c>
+      <c r="O404" t="n">
+        <v>10019</v>
+      </c>
+      <c r="P404" t="n">
+        <v>0.9982002173322466</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>0.9983060980470307</v>
+      </c>
+      <c r="R404" t="n">
+        <v>0.04354814814814815</v>
+      </c>
+      <c r="S404" t="n">
+        <v>0.01484296296296296</v>
+      </c>
+      <c r="T404" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D405" t="n">
+        <v>37.907238716</v>
+      </c>
+      <c r="E405" t="n">
+        <v>35.391881142</v>
+      </c>
+      <c r="F405" t="n">
+        <v>2.515357574</v>
+      </c>
+      <c r="G405" t="n">
+        <v>25.51480129533334</v>
+      </c>
+      <c r="H405" t="n">
+        <v>36.52927012799999</v>
+      </c>
+      <c r="I405" t="n">
+        <v>34.220617006</v>
+      </c>
+      <c r="J405" t="n">
+        <v>2.308653122</v>
+      </c>
+      <c r="K405" t="n">
+        <v>27.05302751066667</v>
+      </c>
+      <c r="L405" t="n">
+        <v>39054</v>
+      </c>
+      <c r="M405" t="n">
+        <v>38971</v>
+      </c>
+      <c r="N405" t="n">
+        <v>13318</v>
+      </c>
+      <c r="O405" t="n">
+        <v>13290</v>
+      </c>
+      <c r="P405" t="n">
+        <v>0.9978747375428894</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>0.9978975822195525</v>
+      </c>
+      <c r="R405" t="n">
+        <v>0.05773481481481482</v>
+      </c>
+      <c r="S405" t="n">
+        <v>0.01968888888888889</v>
+      </c>
+      <c r="T405" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D406" t="n">
+        <v>76.090083316</v>
+      </c>
+      <c r="E406" t="n">
+        <v>48.055415566</v>
+      </c>
+      <c r="F406" t="n">
+        <v>28.03466775</v>
+      </c>
+      <c r="G406" t="n">
+        <v>30.76017943533333</v>
+      </c>
+      <c r="H406" t="n">
+        <v>58.950661422</v>
+      </c>
+      <c r="I406" t="n">
+        <v>41.671791204</v>
+      </c>
+      <c r="J406" t="n">
+        <v>17.278870218</v>
+      </c>
+      <c r="K406" t="n">
+        <v>32.20649664933333</v>
+      </c>
+      <c r="L406" t="n">
+        <v>49326</v>
+      </c>
+      <c r="M406" t="n">
+        <v>49210</v>
+      </c>
+      <c r="N406" t="n">
+        <v>16818</v>
+      </c>
+      <c r="O406" t="n">
+        <v>16782</v>
+      </c>
+      <c r="P406" t="n">
+        <v>0.9976482990714836</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>0.9978594363182305</v>
+      </c>
+      <c r="R406" t="n">
+        <v>0.07290370370370371</v>
+      </c>
+      <c r="S406" t="n">
+        <v>0.02486222222222222</v>
+      </c>
+      <c r="T406" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D407" t="n">
+        <v>616.266291452</v>
+      </c>
+      <c r="E407" t="n">
+        <v>68.215729552</v>
+      </c>
+      <c r="F407" t="n">
+        <v>548.050561902</v>
+      </c>
+      <c r="G407" t="n">
+        <v>39.280795538</v>
+      </c>
+      <c r="H407" t="n">
+        <v>364.554865316</v>
+      </c>
+      <c r="I407" t="n">
+        <v>52.650553352</v>
+      </c>
+      <c r="J407" t="n">
+        <v>311.904311964</v>
+      </c>
+      <c r="K407" t="n">
+        <v>40.68194279133333</v>
+      </c>
+      <c r="L407" t="n">
+        <v>54517</v>
+      </c>
+      <c r="M407" t="n">
+        <v>54369</v>
+      </c>
+      <c r="N407" t="n">
+        <v>19201</v>
+      </c>
+      <c r="O407" t="n">
+        <v>19156</v>
+      </c>
+      <c r="P407" t="n">
+        <v>0.9972852504723297</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>0.997656372063955</v>
+      </c>
+      <c r="R407" t="n">
+        <v>0.08054666666666667</v>
+      </c>
+      <c r="S407" t="n">
+        <v>0.02837925925925926</v>
+      </c>
+      <c r="T407" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D408" t="n">
+        <v>1393.012187522</v>
+      </c>
+      <c r="E408" t="n">
+        <v>71.852953396</v>
+      </c>
+      <c r="F408" t="n">
+        <v>1321.159234126</v>
+      </c>
+      <c r="G408" t="n">
+        <v>41.34704942866667</v>
+      </c>
+      <c r="H408" t="n">
+        <v>774.0960505239999</v>
+      </c>
+      <c r="I408" t="n">
+        <v>53.809784146</v>
+      </c>
+      <c r="J408" t="n">
+        <v>720.2862663780001</v>
+      </c>
+      <c r="K408" t="n">
+        <v>42.74772318133333</v>
+      </c>
+      <c r="L408" t="n">
+        <v>57941</v>
+      </c>
+      <c r="M408" t="n">
+        <v>57764</v>
+      </c>
+      <c r="N408" t="n">
+        <v>21269</v>
+      </c>
+      <c r="O408" t="n">
+        <v>21218</v>
+      </c>
+      <c r="P408" t="n">
+        <v>0.9969451683609188</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>0.9976021439653956</v>
+      </c>
+      <c r="R408" t="n">
+        <v>0.0855762962962963</v>
+      </c>
+      <c r="S408" t="n">
+        <v>0.03143407407407407</v>
+      </c>
+      <c r="T408" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D409" t="n">
+        <v>1811.831044494</v>
+      </c>
+      <c r="E409" t="n">
+        <v>71.48429345</v>
+      </c>
+      <c r="F409" t="n">
+        <v>1740.346751044</v>
+      </c>
+      <c r="G409" t="n">
+        <v>41.77442756000001</v>
+      </c>
+      <c r="H409" t="n">
+        <v>968.313276764</v>
+      </c>
+      <c r="I409" t="n">
+        <v>53.026227822</v>
+      </c>
+      <c r="J409" t="n">
+        <v>915.2870489420001</v>
+      </c>
+      <c r="K409" t="n">
+        <v>43.16051861066666</v>
+      </c>
+      <c r="L409" t="n">
+        <v>61508</v>
+      </c>
+      <c r="M409" t="n">
+        <v>61312</v>
+      </c>
+      <c r="N409" t="n">
+        <v>23388</v>
+      </c>
+      <c r="O409" t="n">
+        <v>23334</v>
+      </c>
+      <c r="P409" t="n">
+        <v>0.9968134226442089</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>0.9976911236531555</v>
+      </c>
+      <c r="R409" t="n">
+        <v>0.09083259259259259</v>
+      </c>
+      <c r="S409" t="n">
+        <v>0.03456888888888889</v>
+      </c>
+      <c r="T409" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D410" t="n">
+        <v>2037.870835374</v>
+      </c>
+      <c r="E410" t="n">
+        <v>71.27359444</v>
+      </c>
+      <c r="F410" t="n">
+        <v>1966.597240936</v>
+      </c>
+      <c r="G410" t="n">
+        <v>42.35418230133333</v>
+      </c>
+      <c r="H410" t="n">
+        <v>1059.830396304</v>
+      </c>
+      <c r="I410" t="n">
+        <v>52.93154762</v>
+      </c>
+      <c r="J410" t="n">
+        <v>1006.898848684</v>
+      </c>
+      <c r="K410" t="n">
+        <v>43.72342797066667</v>
+      </c>
+      <c r="L410" t="n">
+        <v>65515</v>
+      </c>
+      <c r="M410" t="n">
+        <v>65312</v>
+      </c>
+      <c r="N410" t="n">
+        <v>25595</v>
+      </c>
+      <c r="O410" t="n">
+        <v>25536</v>
+      </c>
+      <c r="P410" t="n">
+        <v>0.9969014729451271</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>0.9976948622777886</v>
+      </c>
+      <c r="R410" t="n">
+        <v>0.09675851851851852</v>
+      </c>
+      <c r="S410" t="n">
+        <v>0.03783111111111111</v>
+      </c>
+      <c r="T410" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D411" t="n">
+        <v>2328.306420048</v>
+      </c>
+      <c r="E411" t="n">
+        <v>73.01846701599999</v>
+      </c>
+      <c r="F411" t="n">
+        <v>2255.28795303</v>
+      </c>
+      <c r="G411" t="n">
+        <v>44.17333039933333</v>
+      </c>
+      <c r="H411" t="n">
+        <v>1171.382881898</v>
+      </c>
+      <c r="I411" t="n">
+        <v>54.368246688</v>
+      </c>
+      <c r="J411" t="n">
+        <v>1117.014635212</v>
+      </c>
+      <c r="K411" t="n">
+        <v>45.57419358933333</v>
+      </c>
+      <c r="L411" t="n">
+        <v>68160</v>
+      </c>
+      <c r="M411" t="n">
+        <v>67959</v>
+      </c>
+      <c r="N411" t="n">
+        <v>27528</v>
+      </c>
+      <c r="O411" t="n">
+        <v>27468</v>
+      </c>
+      <c r="P411" t="n">
+        <v>0.9970510563380282</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>0.9978204010462075</v>
+      </c>
+      <c r="R411" t="n">
+        <v>0.10068</v>
+      </c>
+      <c r="S411" t="n">
+        <v>0.04069333333333334</v>
+      </c>
+      <c r="T411" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D412" t="n">
+        <v>2677.644549354</v>
+      </c>
+      <c r="E412" t="n">
+        <v>75.558366456</v>
+      </c>
+      <c r="F412" t="n">
+        <v>2602.086182898</v>
+      </c>
+      <c r="G412" t="n">
+        <v>47.810976788</v>
+      </c>
+      <c r="H412" t="n">
+        <v>1369.432069048</v>
+      </c>
+      <c r="I412" t="n">
+        <v>59.394106118</v>
+      </c>
+      <c r="J412" t="n">
+        <v>1310.037962932</v>
+      </c>
+      <c r="K412" t="n">
+        <v>49.15614194066666</v>
+      </c>
+      <c r="L412" t="n">
+        <v>69891</v>
+      </c>
+      <c r="M412" t="n">
+        <v>69689</v>
+      </c>
+      <c r="N412" t="n">
+        <v>29151</v>
+      </c>
+      <c r="O412" t="n">
+        <v>29081</v>
+      </c>
+      <c r="P412" t="n">
+        <v>0.9971097852370119</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>0.9975987101643168</v>
+      </c>
+      <c r="R412" t="n">
+        <v>0.103242962962963</v>
+      </c>
+      <c r="S412" t="n">
+        <v>0.04308296296296297</v>
+      </c>
+      <c r="T412" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D413" t="n">
+        <v>3103.236099096</v>
+      </c>
+      <c r="E413" t="n">
+        <v>77.20507111800001</v>
+      </c>
+      <c r="F413" t="n">
+        <v>3026.03102798</v>
+      </c>
+      <c r="G413" t="n">
+        <v>49.90477147533333</v>
+      </c>
+      <c r="H413" t="n">
+        <v>1716.23487937</v>
+      </c>
+      <c r="I413" t="n">
+        <v>62.421773708</v>
+      </c>
+      <c r="J413" t="n">
+        <v>1653.81310566</v>
+      </c>
+      <c r="K413" t="n">
+        <v>51.294560714</v>
+      </c>
+      <c r="L413" t="n">
+        <v>70728</v>
+      </c>
+      <c r="M413" t="n">
+        <v>70517</v>
+      </c>
+      <c r="N413" t="n">
+        <v>30000</v>
+      </c>
+      <c r="O413" t="n">
+        <v>29926</v>
+      </c>
+      <c r="P413" t="n">
+        <v>0.9970167401877615</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>0.9975333333333334</v>
+      </c>
+      <c r="R413" t="n">
+        <v>0.1044696296296296</v>
+      </c>
+      <c r="S413" t="n">
+        <v>0.04433481481481482</v>
+      </c>
+      <c r="T413" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D414" t="n">
+        <v>3541.561024342</v>
+      </c>
+      <c r="E414" t="n">
+        <v>78.905445336</v>
+      </c>
+      <c r="F414" t="n">
+        <v>3462.655579006</v>
+      </c>
+      <c r="G414" t="n">
+        <v>52.206124614</v>
+      </c>
+      <c r="H414" t="n">
+        <v>2066.971206506</v>
+      </c>
+      <c r="I414" t="n">
+        <v>66.132850162</v>
+      </c>
+      <c r="J414" t="n">
+        <v>2000.838356344</v>
+      </c>
+      <c r="K414" t="n">
+        <v>53.593996176</v>
+      </c>
+      <c r="L414" t="n">
+        <v>71294</v>
+      </c>
+      <c r="M414" t="n">
+        <v>71070</v>
+      </c>
+      <c r="N414" t="n">
+        <v>30574</v>
+      </c>
+      <c r="O414" t="n">
+        <v>30493</v>
+      </c>
+      <c r="P414" t="n">
+        <v>0.9968580806238955</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>0.9973506901288677</v>
+      </c>
+      <c r="R414" t="n">
+        <v>0.1052888888888889</v>
+      </c>
+      <c r="S414" t="n">
+        <v>0.04517481481481482</v>
+      </c>
+      <c r="T414" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D415" t="n">
+        <v>4016.492545532</v>
+      </c>
+      <c r="E415" t="n">
+        <v>80.726062402</v>
+      </c>
+      <c r="F415" t="n">
+        <v>3935.766483128</v>
+      </c>
+      <c r="G415" t="n">
+        <v>54.02314946266667</v>
+      </c>
+      <c r="H415" t="n">
+        <v>2408.981078892</v>
+      </c>
+      <c r="I415" t="n">
+        <v>68.47387008</v>
+      </c>
+      <c r="J415" t="n">
+        <v>2340.507208812</v>
+      </c>
+      <c r="K415" t="n">
+        <v>55.35979121</v>
+      </c>
+      <c r="L415" t="n">
+        <v>71060</v>
+      </c>
+      <c r="M415" t="n">
+        <v>70830</v>
+      </c>
+      <c r="N415" t="n">
+        <v>30952</v>
+      </c>
+      <c r="O415" t="n">
+        <v>30865</v>
+      </c>
+      <c r="P415" t="n">
+        <v>0.9967632986208838</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>0.9971891961747221</v>
+      </c>
+      <c r="R415" t="n">
+        <v>0.1049333333333333</v>
+      </c>
+      <c r="S415" t="n">
+        <v>0.04572592592592592</v>
+      </c>
+      <c r="T415" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D416" t="n">
+        <v>4393.850715374</v>
+      </c>
+      <c r="E416" t="n">
+        <v>80.30626145000001</v>
+      </c>
+      <c r="F416" t="n">
+        <v>4313.544453924001</v>
+      </c>
+      <c r="G416" t="n">
+        <v>53.917012362</v>
+      </c>
+      <c r="H416" t="n">
+        <v>2741.32276072</v>
+      </c>
+      <c r="I416" t="n">
+        <v>67.933138798</v>
+      </c>
+      <c r="J416" t="n">
+        <v>2673.389621924</v>
+      </c>
+      <c r="K416" t="n">
+        <v>55.25281395866666</v>
+      </c>
+      <c r="L416" t="n">
+        <v>71748</v>
+      </c>
+      <c r="M416" t="n">
+        <v>71501</v>
+      </c>
+      <c r="N416" t="n">
+        <v>31620</v>
+      </c>
+      <c r="O416" t="n">
+        <v>31528</v>
+      </c>
+      <c r="P416" t="n">
+        <v>0.9965573953280927</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>0.9970904490828589</v>
+      </c>
+      <c r="R416" t="n">
+        <v>0.1059274074074074</v>
+      </c>
+      <c r="S416" t="n">
+        <v>0.04670814814814814</v>
+      </c>
+      <c r="T416" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D417" t="n">
+        <v>4819.104921334</v>
+      </c>
+      <c r="E417" t="n">
+        <v>79.347485556</v>
+      </c>
+      <c r="F417" t="n">
+        <v>4739.757435778</v>
+      </c>
+      <c r="G417" t="n">
+        <v>53.52764320466667</v>
+      </c>
+      <c r="H417" t="n">
+        <v>3155.95765605</v>
+      </c>
+      <c r="I417" t="n">
+        <v>67.571361458</v>
+      </c>
+      <c r="J417" t="n">
+        <v>3088.386294592</v>
+      </c>
+      <c r="K417" t="n">
+        <v>54.91485013266666</v>
+      </c>
+      <c r="L417" t="n">
+        <v>72758</v>
+      </c>
+      <c r="M417" t="n">
+        <v>72521</v>
+      </c>
+      <c r="N417" t="n">
+        <v>32022</v>
+      </c>
+      <c r="O417" t="n">
+        <v>31929</v>
+      </c>
+      <c r="P417" t="n">
+        <v>0.9967426262404134</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>0.9970957466741616</v>
+      </c>
+      <c r="R417" t="n">
+        <v>0.1074385185185185</v>
+      </c>
+      <c r="S417" t="n">
+        <v>0.04730222222222222</v>
+      </c>
+      <c r="T417" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D418" t="n">
+        <v>5112.03194608</v>
+      </c>
+      <c r="E418" t="n">
+        <v>79.02354859</v>
+      </c>
+      <c r="F418" t="n">
+        <v>5033.008397490001</v>
+      </c>
+      <c r="G418" t="n">
+        <v>53.40982127066667</v>
+      </c>
+      <c r="H418" t="n">
+        <v>3388.264671398</v>
+      </c>
+      <c r="I418" t="n">
+        <v>67.044430732</v>
+      </c>
+      <c r="J418" t="n">
+        <v>3321.220240666</v>
+      </c>
+      <c r="K418" t="n">
+        <v>54.79894171333334</v>
+      </c>
+      <c r="L418" t="n">
+        <v>73233</v>
+      </c>
+      <c r="M418" t="n">
+        <v>72998</v>
+      </c>
+      <c r="N418" t="n">
+        <v>32501</v>
+      </c>
+      <c r="O418" t="n">
+        <v>32410</v>
+      </c>
+      <c r="P418" t="n">
+        <v>0.9967910641377521</v>
+      </c>
+      <c r="Q418" t="n">
+        <v>0.9972000861511954</v>
+      </c>
+      <c r="R418" t="n">
+        <v>0.1081451851851852</v>
+      </c>
+      <c r="S418" t="n">
+        <v>0.04801481481481482</v>
+      </c>
+      <c r="T418" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D419" t="n">
+        <v>5363.910543436</v>
+      </c>
+      <c r="E419" t="n">
+        <v>78.54072703</v>
+      </c>
+      <c r="F419" t="n">
+        <v>5285.369816406001</v>
+      </c>
+      <c r="G419" t="n">
+        <v>53.08159454066666</v>
+      </c>
+      <c r="H419" t="n">
+        <v>3579.792472334</v>
+      </c>
+      <c r="I419" t="n">
+        <v>66.14444241800001</v>
+      </c>
+      <c r="J419" t="n">
+        <v>3513.648029916</v>
+      </c>
+      <c r="K419" t="n">
+        <v>54.46968592733333</v>
+      </c>
+      <c r="L419" t="n">
+        <v>73715</v>
+      </c>
+      <c r="M419" t="n">
+        <v>73477</v>
+      </c>
+      <c r="N419" t="n">
+        <v>32983</v>
+      </c>
+      <c r="O419" t="n">
+        <v>32892</v>
+      </c>
+      <c r="P419" t="n">
+        <v>0.9967713491148341</v>
+      </c>
+      <c r="Q419" t="n">
+        <v>0.997241002940909</v>
+      </c>
+      <c r="R419" t="n">
+        <v>0.1088548148148148</v>
+      </c>
+      <c r="S419" t="n">
+        <v>0.04872888888888888</v>
+      </c>
+      <c r="T419" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D420" t="n">
+        <v>5571.12963714</v>
+      </c>
+      <c r="E420" t="n">
+        <v>78.030932296</v>
+      </c>
+      <c r="F420" t="n">
+        <v>5493.098704846</v>
+      </c>
+      <c r="G420" t="n">
+        <v>52.72506328</v>
+      </c>
+      <c r="H420" t="n">
+        <v>3723.599131216</v>
+      </c>
+      <c r="I420" t="n">
+        <v>65.185410426</v>
+      </c>
+      <c r="J420" t="n">
+        <v>3658.41372079</v>
+      </c>
+      <c r="K420" t="n">
+        <v>54.11418421266666</v>
+      </c>
+      <c r="L420" t="n">
+        <v>74199</v>
+      </c>
+      <c r="M420" t="n">
+        <v>73968</v>
+      </c>
+      <c r="N420" t="n">
+        <v>33467</v>
+      </c>
+      <c r="O420" t="n">
+        <v>33380</v>
+      </c>
+      <c r="P420" t="n">
+        <v>0.9968867504952897</v>
+      </c>
+      <c r="Q420" t="n">
+        <v>0.9974004242985628</v>
+      </c>
+      <c r="R420" t="n">
+        <v>0.1095822222222222</v>
+      </c>
+      <c r="S420" t="n">
+        <v>0.04945185185185185</v>
+      </c>
+      <c r="T420" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D421" t="n">
+        <v>5774.766950006</v>
+      </c>
+      <c r="E421" t="n">
+        <v>77.624018048</v>
+      </c>
+      <c r="F421" t="n">
+        <v>5697.142931958</v>
+      </c>
+      <c r="G421" t="n">
+        <v>52.50149867466666</v>
+      </c>
+      <c r="H421" t="n">
+        <v>3873.943921372</v>
+      </c>
+      <c r="I421" t="n">
+        <v>64.47932469600001</v>
+      </c>
+      <c r="J421" t="n">
+        <v>3809.464596676</v>
+      </c>
+      <c r="K421" t="n">
+        <v>53.89061971600001</v>
+      </c>
+      <c r="L421" t="n">
+        <v>74703</v>
+      </c>
+      <c r="M421" t="n">
+        <v>74469</v>
+      </c>
+      <c r="N421" t="n">
+        <v>33971</v>
+      </c>
+      <c r="O421" t="n">
+        <v>33881</v>
+      </c>
+      <c r="P421" t="n">
+        <v>0.9968675956788884</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>0.9973506814636013</v>
+      </c>
+      <c r="R421" t="n">
+        <v>0.1103244444444444</v>
+      </c>
+      <c r="S421" t="n">
+        <v>0.05019407407407408</v>
+      </c>
+      <c r="T421" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D422" t="n">
+        <v>5940.118989026</v>
+      </c>
+      <c r="E422" t="n">
+        <v>77.059155304</v>
+      </c>
+      <c r="F422" t="n">
+        <v>5863.059833722</v>
+      </c>
+      <c r="G422" t="n">
+        <v>52.22699132333333</v>
+      </c>
+      <c r="H422" t="n">
+        <v>4003.585080238</v>
+      </c>
+      <c r="I422" t="n">
+        <v>63.722336272</v>
+      </c>
+      <c r="J422" t="n">
+        <v>3939.862743964</v>
+      </c>
+      <c r="K422" t="n">
+        <v>53.61514943533334</v>
+      </c>
+      <c r="L422" t="n">
+        <v>75417</v>
+      </c>
+      <c r="M422" t="n">
+        <v>75175</v>
+      </c>
+      <c r="N422" t="n">
+        <v>34677</v>
+      </c>
+      <c r="O422" t="n">
+        <v>34585</v>
+      </c>
+      <c r="P422" t="n">
+        <v>0.9967911744036491</v>
+      </c>
+      <c r="Q422" t="n">
+        <v>0.9973469446607262</v>
+      </c>
+      <c r="R422" t="n">
+        <v>0.1113703703703704</v>
+      </c>
+      <c r="S422" t="n">
+        <v>0.05123703703703703</v>
+      </c>
+      <c r="T422" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D423" t="n">
+        <v>6103.817180006</v>
+      </c>
+      <c r="E423" t="n">
+        <v>76.722519522</v>
+      </c>
+      <c r="F423" t="n">
+        <v>6027.094660481999</v>
+      </c>
+      <c r="G423" t="n">
+        <v>52.07004911466667</v>
+      </c>
+      <c r="H423" t="n">
+        <v>4108.091486876</v>
+      </c>
+      <c r="I423" t="n">
+        <v>63.142103914</v>
+      </c>
+      <c r="J423" t="n">
+        <v>4044.949382962</v>
+      </c>
+      <c r="K423" t="n">
+        <v>53.458223022</v>
+      </c>
+      <c r="L423" t="n">
+        <v>75920</v>
+      </c>
+      <c r="M423" t="n">
+        <v>75681</v>
+      </c>
+      <c r="N423" t="n">
+        <v>35180</v>
+      </c>
+      <c r="O423" t="n">
+        <v>35087</v>
+      </c>
+      <c r="P423" t="n">
+        <v>0.9968519494204425</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>0.9973564525298465</v>
+      </c>
+      <c r="R423" t="n">
+        <v>0.11212</v>
+      </c>
+      <c r="S423" t="n">
+        <v>0.05198074074074074</v>
+      </c>
+      <c r="T423" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D424" t="n">
+        <v>6230.324553806</v>
+      </c>
+      <c r="E424" t="n">
+        <v>76.32871391</v>
+      </c>
+      <c r="F424" t="n">
+        <v>6153.995839896</v>
+      </c>
+      <c r="G424" t="n">
+        <v>51.88291754999999</v>
+      </c>
+      <c r="H424" t="n">
+        <v>4191.748497444</v>
+      </c>
+      <c r="I424" t="n">
+        <v>62.494242544</v>
+      </c>
+      <c r="J424" t="n">
+        <v>4129.2542549</v>
+      </c>
+      <c r="K424" t="n">
+        <v>53.27109156200001</v>
+      </c>
+      <c r="L424" t="n">
+        <v>76437</v>
+      </c>
+      <c r="M424" t="n">
+        <v>76200</v>
+      </c>
+      <c r="N424" t="n">
+        <v>35697</v>
+      </c>
+      <c r="O424" t="n">
+        <v>35606</v>
+      </c>
+      <c r="P424" t="n">
+        <v>0.9968994073550768</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>0.9974507661708267</v>
+      </c>
+      <c r="R424" t="n">
+        <v>0.1128888888888889</v>
+      </c>
+      <c r="S424" t="n">
+        <v>0.05274962962962963</v>
+      </c>
+      <c r="T424" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D425" t="n">
+        <v>6354.353488008</v>
+      </c>
+      <c r="E425" t="n">
+        <v>76.052382134</v>
+      </c>
+      <c r="F425" t="n">
+        <v>6278.301105874</v>
+      </c>
+      <c r="G425" t="n">
+        <v>51.77448350200001</v>
+      </c>
+      <c r="H425" t="n">
+        <v>4266.11956552</v>
+      </c>
+      <c r="I425" t="n">
+        <v>62.051448732</v>
+      </c>
+      <c r="J425" t="n">
+        <v>4204.068116788</v>
+      </c>
+      <c r="K425" t="n">
+        <v>53.16331472066667</v>
+      </c>
+      <c r="L425" t="n">
+        <v>76830</v>
+      </c>
+      <c r="M425" t="n">
+        <v>76591</v>
+      </c>
+      <c r="N425" t="n">
+        <v>36090</v>
+      </c>
+      <c r="O425" t="n">
+        <v>35997</v>
+      </c>
+      <c r="P425" t="n">
+        <v>0.9968892359755304</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>0.9974231088944306</v>
+      </c>
+      <c r="R425" t="n">
+        <v>0.1134681481481482</v>
+      </c>
+      <c r="S425" t="n">
+        <v>0.05332888888888888</v>
+      </c>
+      <c r="T425" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D426" t="n">
+        <v>6451.293865109999</v>
+      </c>
+      <c r="E426" t="n">
+        <v>75.69027237399999</v>
+      </c>
+      <c r="F426" t="n">
+        <v>6375.603592736</v>
+      </c>
+      <c r="G426" t="n">
+        <v>51.615409258</v>
+      </c>
+      <c r="H426" t="n">
+        <v>4298.703035117999</v>
+      </c>
+      <c r="I426" t="n">
+        <v>61.478661042</v>
+      </c>
+      <c r="J426" t="n">
+        <v>4237.224374076</v>
+      </c>
+      <c r="K426" t="n">
+        <v>53.00425373199999</v>
+      </c>
+      <c r="L426" t="n">
+        <v>77336</v>
+      </c>
+      <c r="M426" t="n">
+        <v>77100</v>
+      </c>
+      <c r="N426" t="n">
+        <v>36596</v>
+      </c>
+      <c r="O426" t="n">
+        <v>36506</v>
+      </c>
+      <c r="P426" t="n">
+        <v>0.9969483810903073</v>
+      </c>
+      <c r="Q426" t="n">
+        <v>0.9975407148322221</v>
+      </c>
+      <c r="R426" t="n">
+        <v>0.1142222222222222</v>
+      </c>
+      <c r="S426" t="n">
+        <v>0.05408296296296296</v>
+      </c>
+      <c r="T426" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D427" t="n">
+        <v>6539.501185598</v>
+      </c>
+      <c r="E427" t="n">
+        <v>75.35248331199999</v>
+      </c>
+      <c r="F427" t="n">
+        <v>6464.148702286</v>
+      </c>
+      <c r="G427" t="n">
+        <v>51.46448315933333</v>
+      </c>
+      <c r="H427" t="n">
+        <v>4319.714926624</v>
+      </c>
+      <c r="I427" t="n">
+        <v>60.9567309</v>
+      </c>
+      <c r="J427" t="n">
+        <v>4258.758195724</v>
+      </c>
+      <c r="K427" t="n">
+        <v>52.85260855333333</v>
+      </c>
+      <c r="L427" t="n">
+        <v>77830</v>
+      </c>
+      <c r="M427" t="n">
+        <v>77598</v>
+      </c>
+      <c r="N427" t="n">
+        <v>37090</v>
+      </c>
+      <c r="O427" t="n">
+        <v>37001</v>
+      </c>
+      <c r="P427" t="n">
+        <v>0.9970191442888346</v>
+      </c>
+      <c r="Q427" t="n">
+        <v>0.9976004313831222</v>
+      </c>
+      <c r="R427" t="n">
+        <v>0.11496</v>
+      </c>
+      <c r="S427" t="n">
+        <v>0.05481629629629629</v>
+      </c>
+      <c r="T427" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D428" t="n">
+        <v>6622.063458732</v>
+      </c>
+      <c r="E428" t="n">
+        <v>75.05280544999999</v>
+      </c>
+      <c r="F428" t="n">
+        <v>6547.010653282</v>
+      </c>
+      <c r="G428" t="n">
+        <v>51.37739003666667</v>
+      </c>
+      <c r="H428" t="n">
+        <v>4357.712727952</v>
+      </c>
+      <c r="I428" t="n">
+        <v>60.580489496</v>
+      </c>
+      <c r="J428" t="n">
+        <v>4297.132238456</v>
+      </c>
+      <c r="K428" t="n">
+        <v>52.76617908999999</v>
+      </c>
+      <c r="L428" t="n">
+        <v>78339</v>
+      </c>
+      <c r="M428" t="n">
+        <v>78098</v>
+      </c>
+      <c r="N428" t="n">
+        <v>37599</v>
+      </c>
+      <c r="O428" t="n">
+        <v>37508</v>
+      </c>
+      <c r="P428" t="n">
+        <v>0.9969236268014654</v>
+      </c>
+      <c r="Q428" t="n">
+        <v>0.9975797228649698</v>
+      </c>
+      <c r="R428" t="n">
+        <v>0.1157007407407407</v>
+      </c>
+      <c r="S428" t="n">
+        <v>0.05556740740740741</v>
+      </c>
+      <c r="T428" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D429" t="n">
+        <v>6700.562783834</v>
+      </c>
+      <c r="E429" t="n">
+        <v>74.773339608</v>
+      </c>
+      <c r="F429" t="n">
+        <v>6625.789444226</v>
+      </c>
+      <c r="G429" t="n">
+        <v>51.29821026333333</v>
+      </c>
+      <c r="H429" t="n">
+        <v>4401.868602388</v>
+      </c>
+      <c r="I429" t="n">
+        <v>60.20185682</v>
+      </c>
+      <c r="J429" t="n">
+        <v>4341.666745568</v>
+      </c>
+      <c r="K429" t="n">
+        <v>52.683333686</v>
+      </c>
+      <c r="L429" t="n">
+        <v>78848</v>
+      </c>
+      <c r="M429" t="n">
+        <v>78611</v>
+      </c>
+      <c r="N429" t="n">
+        <v>38112</v>
+      </c>
+      <c r="O429" t="n">
+        <v>38022</v>
+      </c>
+      <c r="P429" t="n">
+        <v>0.9969942167207793</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>0.9976385390428212</v>
+      </c>
+      <c r="R429" t="n">
+        <v>0.1164607407407407</v>
+      </c>
+      <c r="S429" t="n">
+        <v>0.05632888888888889</v>
+      </c>
+      <c r="T429" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D430" t="n">
+        <v>6785.220459602</v>
+      </c>
+      <c r="E430" t="n">
+        <v>74.618907372</v>
+      </c>
+      <c r="F430" t="n">
+        <v>6710.601552229999</v>
+      </c>
+      <c r="G430" t="n">
+        <v>51.32302186533334</v>
+      </c>
+      <c r="H430" t="n">
+        <v>4462.684629962</v>
+      </c>
+      <c r="I430" t="n">
+        <v>60.02665939800001</v>
+      </c>
+      <c r="J430" t="n">
+        <v>4402.657970564001</v>
+      </c>
+      <c r="K430" t="n">
+        <v>52.70814795799999</v>
+      </c>
+      <c r="L430" t="n">
+        <v>79353</v>
+      </c>
+      <c r="M430" t="n">
+        <v>79112</v>
+      </c>
+      <c r="N430" t="n">
+        <v>38617</v>
+      </c>
+      <c r="O430" t="n">
+        <v>38523</v>
+      </c>
+      <c r="P430" t="n">
+        <v>0.9969629377591269</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>0.9975658388792501</v>
+      </c>
+      <c r="R430" t="n">
+        <v>0.117202962962963</v>
+      </c>
+      <c r="S430" t="n">
+        <v>0.05707111111111111</v>
+      </c>
+      <c r="T430" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D431" t="n">
+        <v>6862.76521772</v>
+      </c>
+      <c r="E431" t="n">
+        <v>74.516251934</v>
+      </c>
+      <c r="F431" t="n">
+        <v>6788.248965786</v>
+      </c>
+      <c r="G431" t="n">
+        <v>51.394667956</v>
+      </c>
+      <c r="H431" t="n">
+        <v>4533.52984078</v>
+      </c>
+      <c r="I431" t="n">
+        <v>59.9701849</v>
+      </c>
+      <c r="J431" t="n">
+        <v>4473.559655880001</v>
+      </c>
+      <c r="K431" t="n">
+        <v>52.77979422333333</v>
+      </c>
+      <c r="L431" t="n">
+        <v>79772</v>
+      </c>
+      <c r="M431" t="n">
+        <v>79529</v>
+      </c>
+      <c r="N431" t="n">
+        <v>39036</v>
+      </c>
+      <c r="O431" t="n">
+        <v>38940</v>
+      </c>
+      <c r="P431" t="n">
+        <v>0.9969538183823898</v>
+      </c>
+      <c r="Q431" t="n">
+        <v>0.9975407316323394</v>
+      </c>
+      <c r="R431" t="n">
+        <v>0.1178207407407408</v>
+      </c>
+      <c r="S431" t="n">
+        <v>0.05768888888888889</v>
+      </c>
+      <c r="T431" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D432" t="n">
+        <v>6967.688138522</v>
+      </c>
+      <c r="E432" t="n">
+        <v>74.2266877</v>
+      </c>
+      <c r="F432" t="n">
+        <v>6893.461450822</v>
+      </c>
+      <c r="G432" t="n">
+        <v>51.25942753933333</v>
+      </c>
+      <c r="H432" t="n">
+        <v>4657.883155564</v>
+      </c>
+      <c r="I432" t="n">
+        <v>59.507522338</v>
+      </c>
+      <c r="J432" t="n">
+        <v>4598.375633226</v>
+      </c>
+      <c r="K432" t="n">
+        <v>52.64455385933334</v>
+      </c>
+      <c r="L432" t="n">
+        <v>80112</v>
+      </c>
+      <c r="M432" t="n">
+        <v>79872</v>
+      </c>
+      <c r="N432" t="n">
+        <v>39376</v>
+      </c>
+      <c r="O432" t="n">
+        <v>39283</v>
+      </c>
+      <c r="P432" t="n">
+        <v>0.9970041941282205</v>
+      </c>
+      <c r="Q432" t="n">
+        <v>0.9976381552214547</v>
+      </c>
+      <c r="R432" t="n">
+        <v>0.1183288888888889</v>
+      </c>
+      <c r="S432" t="n">
+        <v>0.05819703703703703</v>
+      </c>
+      <c r="T432" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D433" t="n">
+        <v>7072.817606688001</v>
+      </c>
+      <c r="E433" t="n">
+        <v>74.01219116600001</v>
+      </c>
+      <c r="F433" t="n">
+        <v>6998.805415522</v>
+      </c>
+      <c r="G433" t="n">
+        <v>51.19009495200001</v>
+      </c>
+      <c r="H433" t="n">
+        <v>4784.866880736</v>
+      </c>
+      <c r="I433" t="n">
+        <v>59.17263786</v>
+      </c>
+      <c r="J433" t="n">
+        <v>4725.694242875999</v>
+      </c>
+      <c r="K433" t="n">
+        <v>52.575221272</v>
+      </c>
+      <c r="L433" t="n">
+        <v>80380</v>
+      </c>
+      <c r="M433" t="n">
+        <v>80140</v>
+      </c>
+      <c r="N433" t="n">
+        <v>39644</v>
+      </c>
+      <c r="O433" t="n">
+        <v>39551</v>
+      </c>
+      <c r="P433" t="n">
+        <v>0.9970141826324956</v>
+      </c>
+      <c r="Q433" t="n">
+        <v>0.9976541216829785</v>
+      </c>
+      <c r="R433" t="n">
+        <v>0.1187259259259259</v>
+      </c>
+      <c r="S433" t="n">
+        <v>0.05859407407407408</v>
+      </c>
+      <c r="T433" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D434" t="n">
+        <v>7168.119012376</v>
+      </c>
+      <c r="E434" t="n">
+        <v>73.922719074</v>
+      </c>
+      <c r="F434" t="n">
+        <v>7094.196293302</v>
+      </c>
+      <c r="G434" t="n">
+        <v>51.22950161533333</v>
+      </c>
+      <c r="H434" t="n">
+        <v>4899.019320638</v>
+      </c>
+      <c r="I434" t="n">
+        <v>59.070373348</v>
+      </c>
+      <c r="J434" t="n">
+        <v>4839.94894729</v>
+      </c>
+      <c r="K434" t="n">
+        <v>52.61463676533334</v>
+      </c>
+      <c r="L434" t="n">
+        <v>80634</v>
+      </c>
+      <c r="M434" t="n">
+        <v>80395</v>
+      </c>
+      <c r="N434" t="n">
+        <v>39898</v>
+      </c>
+      <c r="O434" t="n">
+        <v>39802</v>
+      </c>
+      <c r="P434" t="n">
+        <v>0.9970359897809857</v>
+      </c>
+      <c r="Q434" t="n">
+        <v>0.9975938643541029</v>
+      </c>
+      <c r="R434" t="n">
+        <v>0.1191037037037037</v>
+      </c>
+      <c r="S434" t="n">
+        <v>0.05896592592592592</v>
+      </c>
+      <c r="T434" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D435" t="n">
+        <v>7275.288314652</v>
+      </c>
+      <c r="E435" t="n">
+        <v>73.777737824</v>
+      </c>
+      <c r="F435" t="n">
+        <v>7201.510576828</v>
+      </c>
+      <c r="G435" t="n">
+        <v>51.21317658066666</v>
+      </c>
+      <c r="H435" t="n">
+        <v>5025.203270504</v>
+      </c>
+      <c r="I435" t="n">
+        <v>58.872275622</v>
+      </c>
+      <c r="J435" t="n">
+        <v>4966.330994882</v>
+      </c>
+      <c r="K435" t="n">
+        <v>52.59831173066667</v>
+      </c>
+      <c r="L435" t="n">
+        <v>80886</v>
+      </c>
+      <c r="M435" t="n">
+        <v>80648</v>
+      </c>
+      <c r="N435" t="n">
+        <v>40150</v>
+      </c>
+      <c r="O435" t="n">
+        <v>40055</v>
+      </c>
+      <c r="P435" t="n">
+        <v>0.9970575872215216</v>
+      </c>
+      <c r="Q435" t="n">
+        <v>0.9976338729763388</v>
+      </c>
+      <c r="R435" t="n">
+        <v>0.1194785185185185</v>
+      </c>
+      <c r="S435" t="n">
+        <v>0.05934074074074074</v>
+      </c>
+      <c r="T435" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D436" t="n">
+        <v>7364.327481766</v>
+      </c>
+      <c r="E436" t="n">
+        <v>73.591902584</v>
+      </c>
+      <c r="F436" t="n">
+        <v>7290.735579182</v>
+      </c>
+      <c r="G436" t="n">
+        <v>51.14930322733333</v>
+      </c>
+      <c r="H436" t="n">
+        <v>5138.415043304</v>
+      </c>
+      <c r="I436" t="n">
+        <v>58.58557709</v>
+      </c>
+      <c r="J436" t="n">
+        <v>5079.829466214001</v>
+      </c>
+      <c r="K436" t="n">
+        <v>52.53443856333333</v>
+      </c>
+      <c r="L436" t="n">
+        <v>81128</v>
+      </c>
+      <c r="M436" t="n">
+        <v>80890</v>
+      </c>
+      <c r="N436" t="n">
+        <v>40392</v>
+      </c>
+      <c r="O436" t="n">
+        <v>40297</v>
+      </c>
+      <c r="P436" t="n">
+        <v>0.9970663642638793</v>
+      </c>
+      <c r="Q436" t="n">
+        <v>0.9976480491186374</v>
+      </c>
+      <c r="R436" t="n">
+        <v>0.119837037037037</v>
+      </c>
+      <c r="S436" t="n">
+        <v>0.05969925925925926</v>
+      </c>
+      <c r="T436" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D437" t="n">
+        <v>7450.758360142</v>
+      </c>
+      <c r="E437" t="n">
+        <v>73.51223360399999</v>
+      </c>
+      <c r="F437" t="n">
+        <v>7377.24612654</v>
+      </c>
+      <c r="G437" t="n">
+        <v>51.18748513399999</v>
+      </c>
+      <c r="H437" t="n">
+        <v>5245.227452142</v>
+      </c>
+      <c r="I437" t="n">
+        <v>58.514604302</v>
+      </c>
+      <c r="J437" t="n">
+        <v>5186.712847838</v>
+      </c>
+      <c r="K437" t="n">
+        <v>52.57262047</v>
+      </c>
+      <c r="L437" t="n">
+        <v>81368</v>
+      </c>
+      <c r="M437" t="n">
+        <v>81129</v>
+      </c>
+      <c r="N437" t="n">
+        <v>40632</v>
+      </c>
+      <c r="O437" t="n">
+        <v>40536</v>
+      </c>
+      <c r="P437" t="n">
+        <v>0.997062727362108</v>
+      </c>
+      <c r="Q437" t="n">
+        <v>0.997637330183107</v>
+      </c>
+      <c r="R437" t="n">
+        <v>0.1201911111111111</v>
+      </c>
+      <c r="S437" t="n">
+        <v>0.06005333333333333</v>
+      </c>
+      <c r="T437" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D438" t="n">
+        <v>7515.76244622</v>
+      </c>
+      <c r="E438" t="n">
+        <v>73.11843884400001</v>
+      </c>
+      <c r="F438" t="n">
+        <v>7442.644007376</v>
+      </c>
+      <c r="G438" t="n">
+        <v>50.91333407</v>
+      </c>
+      <c r="H438" t="n">
+        <v>5311.512524225999</v>
+      </c>
+      <c r="I438" t="n">
+        <v>57.865042566</v>
+      </c>
+      <c r="J438" t="n">
+        <v>5253.647481661999</v>
+      </c>
+      <c r="K438" t="n">
+        <v>52.29845827400001</v>
+      </c>
+      <c r="L438" t="n">
+        <v>81595</v>
+      </c>
+      <c r="M438" t="n">
+        <v>81350</v>
+      </c>
+      <c r="N438" t="n">
+        <v>40859</v>
+      </c>
+      <c r="O438" t="n">
+        <v>40761</v>
+      </c>
+      <c r="P438" t="n">
+        <v>0.9969973650346222</v>
+      </c>
+      <c r="Q438" t="n">
+        <v>0.9976015076237793</v>
+      </c>
+      <c r="R438" t="n">
+        <v>0.1205185185185185</v>
+      </c>
+      <c r="S438" t="n">
+        <v>0.06038666666666667</v>
+      </c>
+      <c r="T438" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D439" t="n">
+        <v>7575.901132158</v>
+      </c>
+      <c r="E439" t="n">
+        <v>72.917526404</v>
+      </c>
+      <c r="F439" t="n">
+        <v>7502.983605754001</v>
+      </c>
+      <c r="G439" t="n">
+        <v>50.85063816533333</v>
+      </c>
+      <c r="H439" t="n">
+        <v>5384.63609994</v>
+      </c>
+      <c r="I439" t="n">
+        <v>57.563510054</v>
+      </c>
+      <c r="J439" t="n">
+        <v>5327.072589884</v>
+      </c>
+      <c r="K439" t="n">
+        <v>52.23576236933334</v>
+      </c>
+      <c r="L439" t="n">
+        <v>81860</v>
+      </c>
+      <c r="M439" t="n">
+        <v>81614</v>
+      </c>
+      <c r="N439" t="n">
+        <v>41124</v>
+      </c>
+      <c r="O439" t="n">
+        <v>41025</v>
+      </c>
+      <c r="P439" t="n">
+        <v>0.99699486928903</v>
+      </c>
+      <c r="Q439" t="n">
+        <v>0.9975926466297053</v>
+      </c>
+      <c r="R439" t="n">
+        <v>0.1209096296296296</v>
+      </c>
+      <c r="S439" t="n">
+        <v>0.06077777777777777</v>
+      </c>
+      <c r="T439" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D440" t="n">
+        <v>7639.531713752</v>
+      </c>
+      <c r="E440" t="n">
+        <v>72.72165427</v>
+      </c>
+      <c r="F440" t="n">
+        <v>7566.810059482</v>
+      </c>
+      <c r="G440" t="n">
+        <v>50.78173045</v>
+      </c>
+      <c r="H440" t="n">
+        <v>5457.794617770001</v>
+      </c>
+      <c r="I440" t="n">
+        <v>57.271388432</v>
+      </c>
+      <c r="J440" t="n">
+        <v>5400.523229338</v>
+      </c>
+      <c r="K440" t="n">
+        <v>52.16685465400001</v>
+      </c>
+      <c r="L440" t="n">
+        <v>82119</v>
+      </c>
+      <c r="M440" t="n">
+        <v>81873</v>
+      </c>
+      <c r="N440" t="n">
+        <v>41383</v>
+      </c>
+      <c r="O440" t="n">
+        <v>41284</v>
+      </c>
+      <c r="P440" t="n">
+        <v>0.9970043473495781</v>
+      </c>
+      <c r="Q440" t="n">
+        <v>0.9976077133122296</v>
+      </c>
+      <c r="R440" t="n">
+        <v>0.1212933333333333</v>
+      </c>
+      <c r="S440" t="n">
+        <v>0.06116148148148148</v>
+      </c>
+      <c r="T440" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D441" t="n">
+        <v>7718.195640526001</v>
+      </c>
+      <c r="E441" t="n">
+        <v>72.729712616</v>
+      </c>
+      <c r="F441" t="n">
+        <v>7645.46592791</v>
+      </c>
+      <c r="G441" t="n">
+        <v>50.92092089800001</v>
+      </c>
+      <c r="H441" t="n">
+        <v>5557.682285522</v>
+      </c>
+      <c r="I441" t="n">
+        <v>57.37921071</v>
+      </c>
+      <c r="J441" t="n">
+        <v>5500.303074812</v>
+      </c>
+      <c r="K441" t="n">
+        <v>52.30604510200001</v>
+      </c>
+      <c r="L441" t="n">
+        <v>82367</v>
+      </c>
+      <c r="M441" t="n">
+        <v>82120</v>
+      </c>
+      <c r="N441" t="n">
+        <v>41631</v>
+      </c>
+      <c r="O441" t="n">
+        <v>41531</v>
+      </c>
+      <c r="P441" t="n">
+        <v>0.9970012262192383</v>
+      </c>
+      <c r="Q441" t="n">
+        <v>0.9975979438399269</v>
+      </c>
+      <c r="R441" t="n">
+        <v>0.1216592592592593</v>
+      </c>
+      <c r="S441" t="n">
+        <v>0.06152740740740741</v>
+      </c>
+      <c r="T441" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D442" t="n">
+        <v>7756.536048557999</v>
+      </c>
+      <c r="E442" t="n">
+        <v>72.392704098</v>
+      </c>
+      <c r="F442" t="n">
+        <v>7684.143344462</v>
+      </c>
+      <c r="G442" t="n">
+        <v>50.69930059999999</v>
+      </c>
+      <c r="H442" t="n">
+        <v>5586.459771216</v>
+      </c>
+      <c r="I442" t="n">
+        <v>56.807950032</v>
+      </c>
+      <c r="J442" t="n">
+        <v>5529.651821184</v>
+      </c>
+      <c r="K442" t="n">
+        <v>52.08442483933333</v>
+      </c>
+      <c r="L442" t="n">
+        <v>82624</v>
+      </c>
+      <c r="M442" t="n">
+        <v>82375</v>
+      </c>
+      <c r="N442" t="n">
+        <v>41888</v>
+      </c>
+      <c r="O442" t="n">
+        <v>41786</v>
+      </c>
+      <c r="P442" t="n">
+        <v>0.996986347792409</v>
+      </c>
+      <c r="Q442" t="n">
+        <v>0.997564935064935</v>
+      </c>
+      <c r="R442" t="n">
+        <v>0.122037037037037</v>
+      </c>
+      <c r="S442" t="n">
+        <v>0.06190518518518518</v>
+      </c>
+      <c r="T442" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D443" t="n">
+        <v>7819.858273719999</v>
+      </c>
+      <c r="E443" t="n">
+        <v>72.287350062</v>
+      </c>
+      <c r="F443" t="n">
+        <v>7747.57092366</v>
+      </c>
+      <c r="G443" t="n">
+        <v>50.70818709133334</v>
+      </c>
+      <c r="H443" t="n">
+        <v>5665.04763491</v>
+      </c>
+      <c r="I443" t="n">
+        <v>56.690587228</v>
+      </c>
+      <c r="J443" t="n">
+        <v>5608.357047682</v>
+      </c>
+      <c r="K443" t="n">
+        <v>52.09331133066667</v>
+      </c>
+      <c r="L443" t="n">
+        <v>82862</v>
+      </c>
+      <c r="M443" t="n">
+        <v>82617</v>
+      </c>
+      <c r="N443" t="n">
+        <v>42126</v>
+      </c>
+      <c r="O443" t="n">
+        <v>42028</v>
+      </c>
+      <c r="P443" t="n">
+        <v>0.9970432767734305</v>
+      </c>
+      <c r="Q443" t="n">
+        <v>0.9976736457294783</v>
+      </c>
+      <c r="R443" t="n">
+        <v>0.1223955555555555</v>
+      </c>
+      <c r="S443" t="n">
+        <v>0.0622637037037037</v>
+      </c>
+      <c r="T443" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D444" t="n">
+        <v>7862.882794992</v>
+      </c>
+      <c r="E444" t="n">
+        <v>73.01970671399999</v>
+      </c>
+      <c r="F444" t="n">
+        <v>7789.863088278</v>
+      </c>
+      <c r="G444" t="n">
+        <v>51.27838527266667</v>
+      </c>
+      <c r="H444" t="n">
+        <v>5718.847990696</v>
+      </c>
+      <c r="I444" t="n">
+        <v>56.79102281</v>
+      </c>
+      <c r="J444" t="n">
+        <v>5662.056967884</v>
+      </c>
+      <c r="K444" t="n">
+        <v>52.60972266466668</v>
+      </c>
+      <c r="L444" t="n">
+        <v>82346</v>
+      </c>
+      <c r="M444" t="n">
+        <v>82104</v>
+      </c>
+      <c r="N444" t="n">
+        <v>42226</v>
+      </c>
+      <c r="O444" t="n">
+        <v>42129</v>
+      </c>
+      <c r="P444" t="n">
+        <v>0.9970611808709591</v>
+      </c>
+      <c r="Q444" t="n">
+        <v>0.997702837114574</v>
+      </c>
+      <c r="R444" t="n">
+        <v>0.1216355555555556</v>
+      </c>
+      <c r="S444" t="n">
+        <v>0.06241333333333333</v>
+      </c>
+      <c r="T444" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D445" t="n">
+        <v>7910.202787694</v>
+      </c>
+      <c r="E445" t="n">
+        <v>72.632548992</v>
+      </c>
+      <c r="F445" t="n">
+        <v>7837.570238702</v>
+      </c>
+      <c r="G445" t="n">
+        <v>51.01095805866667</v>
+      </c>
+      <c r="H445" t="n">
+        <v>5772.683700191999</v>
+      </c>
+      <c r="I445" t="n">
+        <v>56.13676363</v>
+      </c>
+      <c r="J445" t="n">
+        <v>5716.54693656</v>
+      </c>
+      <c r="K445" t="n">
+        <v>52.34229548733333</v>
+      </c>
+      <c r="L445" t="n">
+        <v>82603</v>
+      </c>
+      <c r="M445" t="n">
+        <v>82362</v>
+      </c>
+      <c r="N445" t="n">
+        <v>42483</v>
+      </c>
+      <c r="O445" t="n">
+        <v>42387</v>
+      </c>
+      <c r="P445" t="n">
+        <v>0.9970824304202026</v>
+      </c>
+      <c r="Q445" t="n">
+        <v>0.9977402725796201</v>
+      </c>
+      <c r="R445" t="n">
+        <v>0.1220177777777778</v>
+      </c>
+      <c r="S445" t="n">
+        <v>0.06279555555555556</v>
+      </c>
+      <c r="T445" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D446" t="n">
+        <v>7948.000193654</v>
+      </c>
+      <c r="E446" t="n">
+        <v>72.43870881799999</v>
+      </c>
+      <c r="F446" t="n">
+        <v>7875.561484833999</v>
+      </c>
+      <c r="G446" t="n">
+        <v>50.94556310999999</v>
+      </c>
+      <c r="H446" t="n">
+        <v>5811.278073486001</v>
+      </c>
+      <c r="I446" t="n">
+        <v>55.861795672</v>
+      </c>
+      <c r="J446" t="n">
+        <v>5755.416277816001</v>
+      </c>
+      <c r="K446" t="n">
+        <v>52.27690053866667</v>
+      </c>
+      <c r="L446" t="n">
+        <v>82864</v>
+      </c>
+      <c r="M446" t="n">
+        <v>82622</v>
+      </c>
+      <c r="N446" t="n">
+        <v>42744</v>
+      </c>
+      <c r="O446" t="n">
+        <v>42647</v>
+      </c>
+      <c r="P446" t="n">
+        <v>0.9970795520370728</v>
+      </c>
+      <c r="Q446" t="n">
+        <v>0.9977306756503836</v>
+      </c>
+      <c r="R446" t="n">
+        <v>0.1224029629629629</v>
+      </c>
+      <c r="S446" t="n">
+        <v>0.06318074074074075</v>
+      </c>
+      <c r="T446" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D447" t="n">
+        <v>7985.721516848</v>
+      </c>
+      <c r="E447" t="n">
+        <v>72.265219176</v>
+      </c>
+      <c r="F447" t="n">
+        <v>7913.456297674</v>
+      </c>
+      <c r="G447" t="n">
+        <v>50.88460671</v>
+      </c>
+      <c r="H447" t="n">
+        <v>5850.42111891</v>
+      </c>
+      <c r="I447" t="n">
+        <v>55.617033184</v>
+      </c>
+      <c r="J447" t="n">
+        <v>5794.804085726</v>
+      </c>
+      <c r="K447" t="n">
+        <v>52.21594413866667</v>
+      </c>
+      <c r="L447" t="n">
+        <v>83098</v>
+      </c>
+      <c r="M447" t="n">
+        <v>82856</v>
+      </c>
+      <c r="N447" t="n">
+        <v>42978</v>
+      </c>
+      <c r="O447" t="n">
+        <v>42881</v>
+      </c>
+      <c r="P447" t="n">
+        <v>0.9970877758790825</v>
+      </c>
+      <c r="Q447" t="n">
+        <v>0.997743031318349</v>
+      </c>
+      <c r="R447" t="n">
+        <v>0.1227496296296296</v>
+      </c>
+      <c r="S447" t="n">
+        <v>0.06352740740740741</v>
+      </c>
+      <c r="T447" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D448" t="n">
+        <v>8023.417712834</v>
+      </c>
+      <c r="E448" t="n">
+        <v>72.09471479600001</v>
+      </c>
+      <c r="F448" t="n">
+        <v>7951.322998038</v>
+      </c>
+      <c r="G448" t="n">
+        <v>50.83156191733333</v>
+      </c>
+      <c r="H448" t="n">
+        <v>5886.099591704</v>
+      </c>
+      <c r="I448" t="n">
+        <v>55.375307382</v>
+      </c>
+      <c r="J448" t="n">
+        <v>5830.724284322</v>
+      </c>
+      <c r="K448" t="n">
+        <v>52.162899346</v>
+      </c>
+      <c r="L448" t="n">
+        <v>83323</v>
+      </c>
+      <c r="M448" t="n">
+        <v>83081</v>
+      </c>
+      <c r="N448" t="n">
+        <v>43203</v>
+      </c>
+      <c r="O448" t="n">
+        <v>43106</v>
+      </c>
+      <c r="P448" t="n">
+        <v>0.9970956398593426</v>
+      </c>
+      <c r="Q448" t="n">
+        <v>0.9977547855472999</v>
+      </c>
+      <c r="R448" t="n">
+        <v>0.123082962962963</v>
+      </c>
+      <c r="S448" t="n">
+        <v>0.06386074074074075</v>
+      </c>
+      <c r="T448" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D449" t="n">
+        <v>8052.923931830001</v>
+      </c>
+      <c r="E449" t="n">
+        <v>72.060321652</v>
+      </c>
+      <c r="F449" t="n">
+        <v>7980.863610178</v>
+      </c>
+      <c r="G449" t="n">
+        <v>50.92279153266666</v>
+      </c>
+      <c r="H449" t="n">
+        <v>5911.470988579999</v>
+      </c>
+      <c r="I449" t="n">
+        <v>55.401384242</v>
+      </c>
+      <c r="J449" t="n">
+        <v>5856.069604337999</v>
+      </c>
+      <c r="K449" t="n">
+        <v>52.25412896133334</v>
+      </c>
+      <c r="L449" t="n">
+        <v>83562</v>
+      </c>
+      <c r="M449" t="n">
+        <v>83320</v>
+      </c>
+      <c r="N449" t="n">
+        <v>43442</v>
+      </c>
+      <c r="O449" t="n">
+        <v>43345</v>
+      </c>
+      <c r="P449" t="n">
+        <v>0.997103946770063</v>
+      </c>
+      <c r="Q449" t="n">
+        <v>0.9977671377929193</v>
+      </c>
+      <c r="R449" t="n">
+        <v>0.123437037037037</v>
+      </c>
+      <c r="S449" t="n">
+        <v>0.06421481481481482</v>
+      </c>
+      <c r="T449" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D450" t="n">
+        <v>8088.84000383</v>
+      </c>
+      <c r="E450" t="n">
+        <v>71.89900900000001</v>
+      </c>
+      <c r="F450" t="n">
+        <v>8016.94099483</v>
+      </c>
+      <c r="G450" t="n">
+        <v>50.87831121866667</v>
+      </c>
+      <c r="H450" t="n">
+        <v>5951.113064232</v>
+      </c>
+      <c r="I450" t="n">
+        <v>55.168299792</v>
+      </c>
+      <c r="J450" t="n">
+        <v>5895.94476444</v>
+      </c>
+      <c r="K450" t="n">
+        <v>52.20964928266667</v>
+      </c>
+      <c r="L450" t="n">
+        <v>83795</v>
+      </c>
+      <c r="M450" t="n">
+        <v>83552</v>
+      </c>
+      <c r="N450" t="n">
+        <v>43675</v>
+      </c>
+      <c r="O450" t="n">
+        <v>43577</v>
+      </c>
+      <c r="P450" t="n">
+        <v>0.9971000656363744</v>
+      </c>
+      <c r="Q450" t="n">
+        <v>0.9977561534058386</v>
+      </c>
+      <c r="R450" t="n">
+        <v>0.1237807407407407</v>
+      </c>
+      <c r="S450" t="n">
+        <v>0.06455851851851852</v>
+      </c>
+      <c r="T450" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D451" t="n">
+        <v>8132.243223556</v>
+      </c>
+      <c r="E451" t="n">
+        <v>71.61463234</v>
+      </c>
+      <c r="F451" t="n">
+        <v>8060.628591216</v>
+      </c>
+      <c r="G451" t="n">
+        <v>50.68387666666667</v>
+      </c>
+      <c r="H451" t="n">
+        <v>6008.107582646</v>
+      </c>
+      <c r="I451" t="n">
+        <v>54.69836193</v>
+      </c>
+      <c r="J451" t="n">
+        <v>5953.409220715999</v>
+      </c>
+      <c r="K451" t="n">
+        <v>52.01521473066666</v>
+      </c>
+      <c r="L451" t="n">
+        <v>83988</v>
+      </c>
+      <c r="M451" t="n">
+        <v>83746</v>
+      </c>
+      <c r="N451" t="n">
+        <v>43868</v>
+      </c>
+      <c r="O451" t="n">
+        <v>43771</v>
+      </c>
+      <c r="P451" t="n">
+        <v>0.9971186359956185</v>
+      </c>
+      <c r="Q451" t="n">
+        <v>0.99778882100848</v>
+      </c>
+      <c r="R451" t="n">
+        <v>0.1240681481481481</v>
+      </c>
+      <c r="S451" t="n">
+        <v>0.06484592592592592</v>
+      </c>
+      <c r="T451" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D452" t="n">
+        <v>8193.278925522</v>
+      </c>
+      <c r="E452" t="n">
+        <v>71.86371009999999</v>
+      </c>
+      <c r="F452" t="n">
+        <v>8121.41521542</v>
+      </c>
+      <c r="G452" t="n">
+        <v>50.95830323133333</v>
+      </c>
+      <c r="H452" t="n">
+        <v>6088.225485056</v>
+      </c>
+      <c r="I452" t="n">
+        <v>55.192927658</v>
+      </c>
+      <c r="J452" t="n">
+        <v>6033.032557398</v>
+      </c>
+      <c r="K452" t="n">
+        <v>52.289642128</v>
+      </c>
+      <c r="L452" t="n">
+        <v>84081</v>
+      </c>
+      <c r="M452" t="n">
+        <v>83836</v>
+      </c>
+      <c r="N452" t="n">
+        <v>43961</v>
+      </c>
+      <c r="O452" t="n">
+        <v>43861</v>
+      </c>
+      <c r="P452" t="n">
+        <v>0.9970861431238924</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>0.9977252564773322</v>
+      </c>
+      <c r="R452" t="n">
+        <v>0.1242014814814815</v>
+      </c>
+      <c r="S452" t="n">
+        <v>0.06497925925925926</v>
+      </c>
+      <c r="T452" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D453" t="n">
+        <v>8277.587974336</v>
+      </c>
+      <c r="E453" t="n">
+        <v>71.850645168</v>
+      </c>
+      <c r="F453" t="n">
+        <v>8205.737329168</v>
+      </c>
+      <c r="G453" t="n">
+        <v>50.95016200799999</v>
+      </c>
+      <c r="H453" t="n">
+        <v>6208.7801454</v>
+      </c>
+      <c r="I453" t="n">
+        <v>55.174798878</v>
+      </c>
+      <c r="J453" t="n">
+        <v>6153.605346521999</v>
+      </c>
+      <c r="K453" t="n">
+        <v>52.28150090466666</v>
+      </c>
+      <c r="L453" t="n">
+        <v>84100</v>
+      </c>
+      <c r="M453" t="n">
+        <v>83854</v>
+      </c>
+      <c r="N453" t="n">
+        <v>43980</v>
+      </c>
+      <c r="O453" t="n">
+        <v>43879</v>
+      </c>
+      <c r="P453" t="n">
+        <v>0.9970749108204519</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>0.9977035015916326</v>
+      </c>
+      <c r="R453" t="n">
+        <v>0.1242281481481481</v>
+      </c>
+      <c r="S453" t="n">
+        <v>0.06500592592592593</v>
+      </c>
+      <c r="T453" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D454" t="n">
+        <v>8354.453231576001</v>
+      </c>
+      <c r="E454" t="n">
+        <v>71.867159552</v>
+      </c>
+      <c r="F454" t="n">
+        <v>8282.586072024</v>
+      </c>
+      <c r="G454" t="n">
+        <v>50.97634509666666</v>
+      </c>
+      <c r="H454" t="n">
+        <v>6321.480995352</v>
+      </c>
+      <c r="I454" t="n">
+        <v>55.236373166</v>
+      </c>
+      <c r="J454" t="n">
+        <v>6266.244622186</v>
+      </c>
+      <c r="K454" t="n">
+        <v>52.30760994866667</v>
+      </c>
+      <c r="L454" t="n">
+        <v>84104</v>
+      </c>
+      <c r="M454" t="n">
+        <v>83860</v>
+      </c>
+      <c r="N454" t="n">
+        <v>43984</v>
+      </c>
+      <c r="O454" t="n">
+        <v>43884</v>
+      </c>
+      <c r="P454" t="n">
+        <v>0.9970988300199752</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>0.9977264459803565</v>
+      </c>
+      <c r="R454" t="n">
+        <v>0.124237037037037</v>
+      </c>
+      <c r="S454" t="n">
+        <v>0.06501333333333333</v>
+      </c>
+      <c r="T454" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D455" t="n">
+        <v>8397.343524922</v>
+      </c>
+      <c r="E455" t="n">
+        <v>71.575471024</v>
+      </c>
+      <c r="F455" t="n">
+        <v>8325.768053899999</v>
+      </c>
+      <c r="G455" t="n">
+        <v>50.68148860133333</v>
+      </c>
+      <c r="H455" t="n">
+        <v>6372.102770942</v>
+      </c>
+      <c r="I455" t="n">
+        <v>54.678971834</v>
+      </c>
+      <c r="J455" t="n">
+        <v>6317.423799106</v>
+      </c>
+      <c r="K455" t="n">
+        <v>52.01275345333334</v>
+      </c>
+      <c r="L455" t="n">
+        <v>84103</v>
+      </c>
+      <c r="M455" t="n">
+        <v>83860</v>
+      </c>
+      <c r="N455" t="n">
+        <v>43983</v>
+      </c>
+      <c r="O455" t="n">
+        <v>43884</v>
+      </c>
+      <c r="P455" t="n">
+        <v>0.9971106857068119</v>
+      </c>
+      <c r="Q455" t="n">
+        <v>0.9977491303458155</v>
+      </c>
+      <c r="R455" t="n">
+        <v>0.124237037037037</v>
+      </c>
+      <c r="S455" t="n">
+        <v>0.06501333333333333</v>
+      </c>
+      <c r="T455" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D456" t="n">
+        <v>8469.10350214</v>
+      </c>
+      <c r="E456" t="n">
+        <v>71.57330408</v>
+      </c>
+      <c r="F456" t="n">
+        <v>8397.530198062001</v>
+      </c>
+      <c r="G456" t="n">
+        <v>50.68101944066667</v>
+      </c>
+      <c r="H456" t="n">
+        <v>6475.405906076</v>
+      </c>
+      <c r="I456" t="n">
+        <v>54.675986056</v>
+      </c>
+      <c r="J456" t="n">
+        <v>6420.729920022</v>
+      </c>
+      <c r="K456" t="n">
+        <v>52.01228429266667</v>
+      </c>
+      <c r="L456" t="n">
+        <v>84106</v>
+      </c>
+      <c r="M456" t="n">
+        <v>83863</v>
+      </c>
+      <c r="N456" t="n">
+        <v>43986</v>
+      </c>
+      <c r="O456" t="n">
+        <v>43887</v>
+      </c>
+      <c r="P456" t="n">
+        <v>0.9971107887665565</v>
+      </c>
+      <c r="Q456" t="n">
+        <v>0.9977492838630473</v>
+      </c>
+      <c r="R456" t="n">
+        <v>0.1242414814814815</v>
+      </c>
+      <c r="S456" t="n">
+        <v>0.06501777777777777</v>
+      </c>
+      <c r="T456" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D457" t="n">
+        <v>8541.230847194</v>
+      </c>
+      <c r="E457" t="n">
+        <v>71.57193108</v>
+      </c>
+      <c r="F457" t="n">
+        <v>8469.658916115999</v>
+      </c>
+      <c r="G457" t="n">
+        <v>50.680622634</v>
+      </c>
+      <c r="H457" t="n">
+        <v>6579.554808722</v>
+      </c>
+      <c r="I457" t="n">
+        <v>54.67413247</v>
+      </c>
+      <c r="J457" t="n">
+        <v>6524.880676252</v>
+      </c>
+      <c r="K457" t="n">
+        <v>52.011887486</v>
+      </c>
+      <c r="L457" t="n">
+        <v>84107</v>
+      </c>
+      <c r="M457" t="n">
+        <v>83865</v>
+      </c>
+      <c r="N457" t="n">
+        <v>43987</v>
+      </c>
+      <c r="O457" t="n">
+        <v>43889</v>
+      </c>
+      <c r="P457" t="n">
+        <v>0.9971227127349686</v>
+      </c>
+      <c r="Q457" t="n">
+        <v>0.9977720690203924</v>
+      </c>
+      <c r="R457" t="n">
+        <v>0.1242444444444444</v>
+      </c>
+      <c r="S457" t="n">
+        <v>0.06502074074074074</v>
+      </c>
+      <c r="T457" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D458" t="n">
+        <v>8652.61872511</v>
+      </c>
+      <c r="E458" t="n">
+        <v>71.46124770399999</v>
+      </c>
+      <c r="F458" t="n">
+        <v>8581.157477404</v>
+      </c>
+      <c r="G458" t="n">
+        <v>50.567029128</v>
+      </c>
+      <c r="H458" t="n">
+        <v>6767.805646062</v>
+      </c>
+      <c r="I458" t="n">
+        <v>54.453074802</v>
+      </c>
+      <c r="J458" t="n">
+        <v>6713.352571259999</v>
+      </c>
+      <c r="K458" t="n">
+        <v>51.89717762066666</v>
+      </c>
+      <c r="L458" t="n">
+        <v>84103</v>
+      </c>
+      <c r="M458" t="n">
+        <v>83866</v>
+      </c>
+      <c r="N458" t="n">
+        <v>43987</v>
+      </c>
+      <c r="O458" t="n">
+        <v>43889</v>
+      </c>
+      <c r="P458" t="n">
+        <v>0.9971820268004709</v>
+      </c>
+      <c r="Q458" t="n">
+        <v>0.9977720690203924</v>
+      </c>
+      <c r="R458" t="n">
+        <v>0.1242459259259259</v>
+      </c>
+      <c r="S458" t="n">
+        <v>0.06502074074074074</v>
+      </c>
+      <c r="T458" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D459" t="n">
+        <v>8716.923712543999</v>
+      </c>
+      <c r="E459" t="n">
+        <v>71.460526786</v>
+      </c>
+      <c r="F459" t="n">
+        <v>8645.463185758001</v>
+      </c>
+      <c r="G459" t="n">
+        <v>50.567029128</v>
+      </c>
+      <c r="H459" t="n">
+        <v>6865.789086352</v>
+      </c>
+      <c r="I459" t="n">
+        <v>54.452084758</v>
+      </c>
+      <c r="J459" t="n">
+        <v>6811.337001594</v>
+      </c>
+      <c r="K459" t="n">
+        <v>51.89717762066666</v>
+      </c>
+      <c r="L459" t="n">
+        <v>84103</v>
+      </c>
+      <c r="M459" t="n">
+        <v>83867</v>
+      </c>
+      <c r="N459" t="n">
+        <v>43987</v>
+      </c>
+      <c r="O459" t="n">
+        <v>43890</v>
+      </c>
+      <c r="P459" t="n">
+        <v>0.9971939169827474</v>
+      </c>
+      <c r="Q459" t="n">
+        <v>0.9977948030099802</v>
+      </c>
+      <c r="R459" t="n">
+        <v>0.1242474074074074</v>
+      </c>
+      <c r="S459" t="n">
+        <v>0.06502222222222223</v>
+      </c>
+      <c r="T459" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D460" t="n">
+        <v>8787.452341776001</v>
+      </c>
+      <c r="E460" t="n">
+        <v>71.50214622999999</v>
+      </c>
+      <c r="F460" t="n">
+        <v>8715.950195546</v>
+      </c>
+      <c r="G460" t="n">
+        <v>50.60914860733334</v>
+      </c>
+      <c r="H460" t="n">
+        <v>6970.101364744</v>
+      </c>
+      <c r="I460" t="n">
+        <v>54.531270648</v>
+      </c>
+      <c r="J460" t="n">
+        <v>6915.570094096001</v>
+      </c>
+      <c r="K460" t="n">
+        <v>51.93929716933333</v>
+      </c>
+      <c r="L460" t="n">
+        <v>84103</v>
+      </c>
+      <c r="M460" t="n">
+        <v>83868</v>
+      </c>
+      <c r="N460" t="n">
+        <v>43987</v>
+      </c>
+      <c r="O460" t="n">
+        <v>43891</v>
+      </c>
+      <c r="P460" t="n">
+        <v>0.9972058071650238</v>
+      </c>
+      <c r="Q460" t="n">
+        <v>0.9978175369995681</v>
+      </c>
+      <c r="R460" t="n">
+        <v>0.1242488888888889</v>
+      </c>
+      <c r="S460" t="n">
+        <v>0.06502370370370371</v>
+      </c>
+      <c r="T460" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D461" t="n">
+        <v>8850.157326816001</v>
+      </c>
+      <c r="E461" t="n">
+        <v>71.500751162</v>
+      </c>
+      <c r="F461" t="n">
+        <v>8778.656575651999</v>
+      </c>
+      <c r="G461" t="n">
+        <v>50.60919681933333</v>
+      </c>
+      <c r="H461" t="n">
+        <v>7065.95427517</v>
+      </c>
+      <c r="I461" t="n">
+        <v>54.52937825999999</v>
+      </c>
+      <c r="J461" t="n">
+        <v>7011.424896908</v>
+      </c>
+      <c r="K461" t="n">
+        <v>51.93934538133334</v>
+      </c>
+      <c r="L461" t="n">
+        <v>84105</v>
+      </c>
+      <c r="M461" t="n">
+        <v>83870</v>
+      </c>
+      <c r="N461" t="n">
+        <v>43989</v>
+      </c>
+      <c r="O461" t="n">
+        <v>43893</v>
+      </c>
+      <c r="P461" t="n">
+        <v>0.9972058736103679</v>
+      </c>
+      <c r="Q461" t="n">
+        <v>0.9978176362272386</v>
+      </c>
+      <c r="R461" t="n">
+        <v>0.1242518518518518</v>
+      </c>
+      <c r="S461" t="n">
+        <v>0.06502666666666666</v>
+      </c>
+      <c r="T461" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D462" t="n">
+        <v>8912.517527126</v>
+      </c>
+      <c r="E462" t="n">
+        <v>71.500751162</v>
+      </c>
+      <c r="F462" t="n">
+        <v>8841.016775962</v>
+      </c>
+      <c r="G462" t="n">
+        <v>50.60919681933333</v>
+      </c>
+      <c r="H462" t="n">
+        <v>7158.458729182</v>
+      </c>
+      <c r="I462" t="n">
+        <v>54.52937825999999</v>
+      </c>
+      <c r="J462" t="n">
+        <v>7103.929350922</v>
+      </c>
+      <c r="K462" t="n">
+        <v>51.93934538133334</v>
+      </c>
+      <c r="L462" t="n">
+        <v>84105</v>
+      </c>
+      <c r="M462" t="n">
+        <v>83870</v>
+      </c>
+      <c r="N462" t="n">
+        <v>43989</v>
+      </c>
+      <c r="O462" t="n">
+        <v>43893</v>
+      </c>
+      <c r="P462" t="n">
+        <v>0.9972058736103679</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>0.9978176362272386</v>
+      </c>
+      <c r="R462" t="n">
+        <v>0.1242518518518518</v>
+      </c>
+      <c r="S462" t="n">
+        <v>0.06502666666666666</v>
+      </c>
+      <c r="T462" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D463" t="n">
+        <v>8974.064492668</v>
+      </c>
+      <c r="E463" t="n">
+        <v>71.500751162</v>
+      </c>
+      <c r="F463" t="n">
+        <v>8902.563741504</v>
+      </c>
+      <c r="G463" t="n">
+        <v>50.60919681933333</v>
+      </c>
+      <c r="H463" t="n">
+        <v>7252.404187456</v>
+      </c>
+      <c r="I463" t="n">
+        <v>54.52937825999999</v>
+      </c>
+      <c r="J463" t="n">
+        <v>7197.874809196</v>
+      </c>
+      <c r="K463" t="n">
+        <v>51.93934538133334</v>
+      </c>
+      <c r="L463" t="n">
+        <v>84105</v>
+      </c>
+      <c r="M463" t="n">
+        <v>83870</v>
+      </c>
+      <c r="N463" t="n">
+        <v>43989</v>
+      </c>
+      <c r="O463" t="n">
+        <v>43893</v>
+      </c>
+      <c r="P463" t="n">
+        <v>0.9972058736103679</v>
+      </c>
+      <c r="Q463" t="n">
+        <v>0.9978176362272386</v>
+      </c>
+      <c r="R463" t="n">
+        <v>0.1242518518518518</v>
+      </c>
+      <c r="S463" t="n">
+        <v>0.06502666666666666</v>
+      </c>
+      <c r="T463" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D464" t="n">
+        <v>8990.431765070001</v>
+      </c>
+      <c r="E464" t="n">
+        <v>71.64683088599999</v>
+      </c>
+      <c r="F464" t="n">
+        <v>8918.784934186</v>
+      </c>
+      <c r="G464" t="n">
+        <v>50.71161918066667</v>
+      </c>
+      <c r="H464" t="n">
+        <v>7264.560977831999</v>
+      </c>
+      <c r="I464" t="n">
+        <v>54.660720388</v>
+      </c>
+      <c r="J464" t="n">
+        <v>7209.900257444</v>
+      </c>
+      <c r="K464" t="n">
+        <v>52.04610184266667</v>
+      </c>
+      <c r="L464" t="n">
+        <v>84115</v>
+      </c>
+      <c r="M464" t="n">
+        <v>83872</v>
+      </c>
+      <c r="N464" t="n">
+        <v>43991</v>
+      </c>
+      <c r="O464" t="n">
+        <v>43893</v>
+      </c>
+      <c r="P464" t="n">
+        <v>0.9971110979016822</v>
+      </c>
+      <c r="Q464" t="n">
+        <v>0.9977722716010093</v>
+      </c>
+      <c r="R464" t="n">
+        <v>0.1242548148148148</v>
+      </c>
+      <c r="S464" t="n">
+        <v>0.06502666666666666</v>
+      </c>
+      <c r="T464" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D465" t="n">
+        <v>9044.399861697999</v>
+      </c>
+      <c r="E465" t="n">
+        <v>71.649438444</v>
+      </c>
+      <c r="F465" t="n">
+        <v>8972.750423254</v>
+      </c>
+      <c r="G465" t="n">
+        <v>50.71478080666667</v>
+      </c>
+      <c r="H465" t="n">
+        <v>7347.975122452001</v>
+      </c>
+      <c r="I465" t="n">
+        <v>54.66647682000001</v>
+      </c>
+      <c r="J465" t="n">
+        <v>7293.308645632</v>
+      </c>
+      <c r="K465" t="n">
+        <v>52.04926346866667</v>
+      </c>
+      <c r="L465" t="n">
+        <v>84115</v>
+      </c>
+      <c r="M465" t="n">
+        <v>83874</v>
+      </c>
+      <c r="N465" t="n">
+        <v>43991</v>
+      </c>
+      <c r="O465" t="n">
+        <v>43895</v>
+      </c>
+      <c r="P465" t="n">
+        <v>0.9971348748736848</v>
+      </c>
+      <c r="Q465" t="n">
+        <v>0.9978177354458867</v>
+      </c>
+      <c r="R465" t="n">
+        <v>0.1242577777777778</v>
+      </c>
+      <c r="S465" t="n">
+        <v>0.06502962962962963</v>
+      </c>
+      <c r="T465" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D466" t="n">
+        <v>9097.652311802</v>
+      </c>
+      <c r="E466" t="n">
+        <v>71.649438444</v>
+      </c>
+      <c r="F466" t="n">
+        <v>9026.002873358</v>
+      </c>
+      <c r="G466" t="n">
+        <v>50.71478080666667</v>
+      </c>
+      <c r="H466" t="n">
+        <v>7430.335619091999</v>
+      </c>
+      <c r="I466" t="n">
+        <v>54.66647682000001</v>
+      </c>
+      <c r="J466" t="n">
+        <v>7375.669142272</v>
+      </c>
+      <c r="K466" t="n">
+        <v>52.04926346866667</v>
+      </c>
+      <c r="L466" t="n">
+        <v>84115</v>
+      </c>
+      <c r="M466" t="n">
+        <v>83874</v>
+      </c>
+      <c r="N466" t="n">
+        <v>43991</v>
+      </c>
+      <c r="O466" t="n">
+        <v>43895</v>
+      </c>
+      <c r="P466" t="n">
+        <v>0.9971348748736848</v>
+      </c>
+      <c r="Q466" t="n">
+        <v>0.9978177354458867</v>
+      </c>
+      <c r="R466" t="n">
+        <v>0.1242577777777778</v>
+      </c>
+      <c r="S466" t="n">
+        <v>0.06502962962962963</v>
+      </c>
+      <c r="T466" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D467" t="n">
+        <v>9152.782983999999</v>
+      </c>
+      <c r="E467" t="n">
+        <v>71.649438444</v>
+      </c>
+      <c r="F467" t="n">
+        <v>9081.133545556</v>
+      </c>
+      <c r="G467" t="n">
+        <v>50.71478080666667</v>
+      </c>
+      <c r="H467" t="n">
+        <v>7515.094065384</v>
+      </c>
+      <c r="I467" t="n">
+        <v>54.66647682000001</v>
+      </c>
+      <c r="J467" t="n">
+        <v>7460.427588564</v>
+      </c>
+      <c r="K467" t="n">
+        <v>52.04926346866667</v>
+      </c>
+      <c r="L467" t="n">
+        <v>84115</v>
+      </c>
+      <c r="M467" t="n">
+        <v>83874</v>
+      </c>
+      <c r="N467" t="n">
+        <v>43991</v>
+      </c>
+      <c r="O467" t="n">
+        <v>43895</v>
+      </c>
+      <c r="P467" t="n">
+        <v>0.9971348748736848</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>0.9978177354458867</v>
+      </c>
+      <c r="R467" t="n">
+        <v>0.1242577777777778</v>
+      </c>
+      <c r="S467" t="n">
+        <v>0.06502962962962963</v>
+      </c>
+      <c r="T467" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D468" t="n">
+        <v>9202.623697450001</v>
+      </c>
+      <c r="E468" t="n">
+        <v>71.649438444</v>
+      </c>
+      <c r="F468" t="n">
+        <v>9130.974259008</v>
+      </c>
+      <c r="G468" t="n">
+        <v>50.71478080666667</v>
+      </c>
+      <c r="H468" t="n">
+        <v>7588.161658504</v>
+      </c>
+      <c r="I468" t="n">
+        <v>54.66647682000001</v>
+      </c>
+      <c r="J468" t="n">
+        <v>7533.495181684</v>
+      </c>
+      <c r="K468" t="n">
+        <v>52.04926346866667</v>
+      </c>
+      <c r="L468" t="n">
+        <v>84115</v>
+      </c>
+      <c r="M468" t="n">
+        <v>83874</v>
+      </c>
+      <c r="N468" t="n">
+        <v>43991</v>
+      </c>
+      <c r="O468" t="n">
+        <v>43895</v>
+      </c>
+      <c r="P468" t="n">
+        <v>0.9971348748736848</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>0.9978177354458867</v>
+      </c>
+      <c r="R468" t="n">
+        <v>0.1242577777777778</v>
+      </c>
+      <c r="S468" t="n">
+        <v>0.06502962962962963</v>
+      </c>
+      <c r="T468" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D469" t="n">
+        <v>9255.005412882001</v>
+      </c>
+      <c r="E469" t="n">
+        <v>71.64955766999999</v>
+      </c>
+      <c r="F469" t="n">
+        <v>9183.355855211999</v>
+      </c>
+      <c r="G469" t="n">
+        <v>50.71490133066667</v>
+      </c>
+      <c r="H469" t="n">
+        <v>7668.881330448</v>
+      </c>
+      <c r="I469" t="n">
+        <v>54.66670463600001</v>
+      </c>
+      <c r="J469" t="n">
+        <v>7614.214625811999</v>
+      </c>
+      <c r="K469" t="n">
+        <v>52.04938399266667</v>
+      </c>
+      <c r="L469" t="n">
+        <v>84115</v>
+      </c>
+      <c r="M469" t="n">
+        <v>83874</v>
+      </c>
+      <c r="N469" t="n">
+        <v>43991</v>
+      </c>
+      <c r="O469" t="n">
+        <v>43895</v>
+      </c>
+      <c r="P469" t="n">
+        <v>0.9971348748736848</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>0.9978177354458867</v>
+      </c>
+      <c r="R469" t="n">
+        <v>0.1242577777777778</v>
+      </c>
+      <c r="S469" t="n">
+        <v>0.06502962962962963</v>
+      </c>
+      <c r="T469" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D470" t="n">
+        <v>9301.282849478001</v>
+      </c>
+      <c r="E470" t="n">
+        <v>71.64885842000001</v>
+      </c>
+      <c r="F470" t="n">
+        <v>9229.633991057999</v>
+      </c>
+      <c r="G470" t="n">
+        <v>50.71492543533333</v>
+      </c>
+      <c r="H470" t="n">
+        <v>7736.031688536001</v>
+      </c>
+      <c r="I470" t="n">
+        <v>54.665755422</v>
+      </c>
+      <c r="J470" t="n">
+        <v>7681.365933114</v>
+      </c>
+      <c r="K470" t="n">
+        <v>52.04940809733333</v>
+      </c>
+      <c r="L470" t="n">
+        <v>84116</v>
+      </c>
+      <c r="M470" t="n">
+        <v>83875</v>
+      </c>
+      <c r="N470" t="n">
+        <v>43992</v>
+      </c>
+      <c r="O470" t="n">
+        <v>43896</v>
+      </c>
+      <c r="P470" t="n">
+        <v>0.9971349089352799</v>
+      </c>
+      <c r="Q470" t="n">
+        <v>0.9978177850518276</v>
+      </c>
+      <c r="R470" t="n">
+        <v>0.1242592592592593</v>
+      </c>
+      <c r="S470" t="n">
+        <v>0.06503111111111111</v>
+      </c>
+      <c r="T470" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D471" t="n">
+        <v>9351.838656603999</v>
+      </c>
+      <c r="E471" t="n">
+        <v>71.77438391999999</v>
+      </c>
+      <c r="F471" t="n">
+        <v>9280.064272686001</v>
+      </c>
+      <c r="G471" t="n">
+        <v>50.83145593999999</v>
+      </c>
+      <c r="H471" t="n">
+        <v>7816.347655716</v>
+      </c>
+      <c r="I471" t="n">
+        <v>54.875928372</v>
+      </c>
+      <c r="J471" t="n">
+        <v>7761.471727344</v>
+      </c>
+      <c r="K471" t="n">
+        <v>52.16775538333333</v>
+      </c>
+      <c r="L471" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M471" t="n">
+        <v>83877</v>
+      </c>
+      <c r="N471" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O471" t="n">
+        <v>43894</v>
+      </c>
+      <c r="P471" t="n">
+        <v>0.9970875633009201</v>
+      </c>
+      <c r="Q471" t="n">
+        <v>0.9977269627676502</v>
+      </c>
+      <c r="R471" t="n">
+        <v>0.1242622222222222</v>
+      </c>
+      <c r="S471" t="n">
+        <v>0.06502814814814815</v>
+      </c>
+      <c r="T471" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D472" t="n">
+        <v>9392.628289041999</v>
+      </c>
+      <c r="E472" t="n">
+        <v>71.77438391999999</v>
+      </c>
+      <c r="F472" t="n">
+        <v>9320.853905122001</v>
+      </c>
+      <c r="G472" t="n">
+        <v>50.83145593999999</v>
+      </c>
+      <c r="H472" t="n">
+        <v>7877.345423064</v>
+      </c>
+      <c r="I472" t="n">
+        <v>54.875928372</v>
+      </c>
+      <c r="J472" t="n">
+        <v>7822.469494692</v>
+      </c>
+      <c r="K472" t="n">
+        <v>52.16775538333333</v>
+      </c>
+      <c r="L472" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M472" t="n">
+        <v>83877</v>
+      </c>
+      <c r="N472" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O472" t="n">
+        <v>43894</v>
+      </c>
+      <c r="P472" t="n">
+        <v>0.9970875633009201</v>
+      </c>
+      <c r="Q472" t="n">
+        <v>0.9977269627676502</v>
+      </c>
+      <c r="R472" t="n">
+        <v>0.1242622222222222</v>
+      </c>
+      <c r="S472" t="n">
+        <v>0.06502814814814815</v>
+      </c>
+      <c r="T472" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D473" t="n">
+        <v>9435.014783552</v>
+      </c>
+      <c r="E473" t="n">
+        <v>71.774944264</v>
+      </c>
+      <c r="F473" t="n">
+        <v>9363.239839288</v>
+      </c>
+      <c r="G473" t="n">
+        <v>50.83186094866667</v>
+      </c>
+      <c r="H473" t="n">
+        <v>7940.884858977999</v>
+      </c>
+      <c r="I473" t="n">
+        <v>54.876452362</v>
+      </c>
+      <c r="J473" t="n">
+        <v>7886.008406616001</v>
+      </c>
+      <c r="K473" t="n">
+        <v>52.16816043666667</v>
+      </c>
+      <c r="L473" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M473" t="n">
+        <v>83877</v>
+      </c>
+      <c r="N473" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O473" t="n">
+        <v>43894</v>
+      </c>
+      <c r="P473" t="n">
+        <v>0.9970875633009201</v>
+      </c>
+      <c r="Q473" t="n">
+        <v>0.9977269627676502</v>
+      </c>
+      <c r="R473" t="n">
+        <v>0.1242622222222222</v>
+      </c>
+      <c r="S473" t="n">
+        <v>0.06502814814814815</v>
+      </c>
+      <c r="T473" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D474" t="n">
+        <v>9477.781382262001</v>
+      </c>
+      <c r="E474" t="n">
+        <v>71.790431226</v>
+      </c>
+      <c r="F474" t="n">
+        <v>9405.990951036001</v>
+      </c>
+      <c r="G474" t="n">
+        <v>50.84054664333333</v>
+      </c>
+      <c r="H474" t="n">
+        <v>8003.569872876</v>
+      </c>
+      <c r="I474" t="n">
+        <v>54.88244407</v>
+      </c>
+      <c r="J474" t="n">
+        <v>7948.687428806001</v>
+      </c>
+      <c r="K474" t="n">
+        <v>52.17684803266667</v>
+      </c>
+      <c r="L474" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M474" t="n">
+        <v>83877</v>
+      </c>
+      <c r="N474" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O474" t="n">
+        <v>43894</v>
+      </c>
+      <c r="P474" t="n">
+        <v>0.9970875633009201</v>
+      </c>
+      <c r="Q474" t="n">
+        <v>0.9977269627676502</v>
+      </c>
+      <c r="R474" t="n">
+        <v>0.1242622222222222</v>
+      </c>
+      <c r="S474" t="n">
+        <v>0.06502814814814815</v>
+      </c>
+      <c r="T474" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D475" t="n">
+        <v>9521.117076193999</v>
+      </c>
+      <c r="E475" t="n">
+        <v>71.790431226</v>
+      </c>
+      <c r="F475" t="n">
+        <v>9449.326644968</v>
+      </c>
+      <c r="G475" t="n">
+        <v>50.84054664333333</v>
+      </c>
+      <c r="H475" t="n">
+        <v>8070.18895521</v>
+      </c>
+      <c r="I475" t="n">
+        <v>54.88244407</v>
+      </c>
+      <c r="J475" t="n">
+        <v>8015.30651114</v>
+      </c>
+      <c r="K475" t="n">
+        <v>52.17684803266667</v>
+      </c>
+      <c r="L475" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M475" t="n">
+        <v>83877</v>
+      </c>
+      <c r="N475" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O475" t="n">
+        <v>43894</v>
+      </c>
+      <c r="P475" t="n">
+        <v>0.9970875633009201</v>
+      </c>
+      <c r="Q475" t="n">
+        <v>0.9977269627676502</v>
+      </c>
+      <c r="R475" t="n">
+        <v>0.1242622222222222</v>
+      </c>
+      <c r="S475" t="n">
+        <v>0.06502814814814815</v>
+      </c>
+      <c r="T475" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D476" t="n">
+        <v>9567.64864446</v>
+      </c>
+      <c r="E476" t="n">
+        <v>71.79448723199999</v>
+      </c>
+      <c r="F476" t="n">
+        <v>9495.854157228001</v>
+      </c>
+      <c r="G476" t="n">
+        <v>50.84261996333333</v>
+      </c>
+      <c r="H476" t="n">
+        <v>8138.691149334</v>
+      </c>
+      <c r="I476" t="n">
+        <v>54.882834036</v>
+      </c>
+      <c r="J476" t="n">
+        <v>8083.808315298001</v>
+      </c>
+      <c r="K476" t="n">
+        <v>52.17892197666666</v>
+      </c>
+      <c r="L476" t="n">
+        <v>84123</v>
+      </c>
+      <c r="M476" t="n">
+        <v>83878</v>
+      </c>
+      <c r="N476" t="n">
+        <v>43995</v>
+      </c>
+      <c r="O476" t="n">
+        <v>43895</v>
+      </c>
+      <c r="P476" t="n">
+        <v>0.9970875979220902</v>
+      </c>
+      <c r="Q476" t="n">
+        <v>0.9977270144334583</v>
+      </c>
+      <c r="R476" t="n">
+        <v>0.1242637037037037</v>
+      </c>
+      <c r="S476" t="n">
+        <v>0.06502962962962963</v>
+      </c>
+      <c r="T476" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D477" t="n">
+        <v>9608.485168935998</v>
+      </c>
+      <c r="E477" t="n">
+        <v>71.79448723199999</v>
+      </c>
+      <c r="F477" t="n">
+        <v>9536.690681704</v>
+      </c>
+      <c r="G477" t="n">
+        <v>50.84261996333333</v>
+      </c>
+      <c r="H477" t="n">
+        <v>8199.467775374</v>
+      </c>
+      <c r="I477" t="n">
+        <v>54.882834036</v>
+      </c>
+      <c r="J477" t="n">
+        <v>8144.584941338</v>
+      </c>
+      <c r="K477" t="n">
+        <v>52.17892197666666</v>
+      </c>
+      <c r="L477" t="n">
+        <v>84123</v>
+      </c>
+      <c r="M477" t="n">
+        <v>83878</v>
+      </c>
+      <c r="N477" t="n">
+        <v>43995</v>
+      </c>
+      <c r="O477" t="n">
+        <v>43895</v>
+      </c>
+      <c r="P477" t="n">
+        <v>0.9970875979220902</v>
+      </c>
+      <c r="Q477" t="n">
+        <v>0.9977270144334583</v>
+      </c>
+      <c r="R477" t="n">
+        <v>0.1242637037037037</v>
+      </c>
+      <c r="S477" t="n">
+        <v>0.06502962962962963</v>
+      </c>
+      <c r="T477" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D478" t="n">
+        <v>9647.141574668</v>
+      </c>
+      <c r="E478" t="n">
+        <v>71.79460645200001</v>
+      </c>
+      <c r="F478" t="n">
+        <v>9575.346968215999</v>
+      </c>
+      <c r="G478" t="n">
+        <v>50.842686662</v>
+      </c>
+      <c r="H478" t="n">
+        <v>8257.58733341</v>
+      </c>
+      <c r="I478" t="n">
+        <v>54.8828796</v>
+      </c>
+      <c r="J478" t="n">
+        <v>8202.70445381</v>
+      </c>
+      <c r="K478" t="n">
+        <v>52.17898869</v>
+      </c>
+      <c r="L478" t="n">
+        <v>84123</v>
+      </c>
+      <c r="M478" t="n">
+        <v>83878</v>
+      </c>
+      <c r="N478" t="n">
+        <v>43995</v>
+      </c>
+      <c r="O478" t="n">
+        <v>43895</v>
+      </c>
+      <c r="P478" t="n">
+        <v>0.9970875979220902</v>
+      </c>
+      <c r="Q478" t="n">
+        <v>0.9977270144334583</v>
+      </c>
+      <c r="R478" t="n">
+        <v>0.1242637037037037</v>
+      </c>
+      <c r="S478" t="n">
+        <v>0.06502962962962963</v>
+      </c>
+      <c r="T478" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D479" t="n">
+        <v>9672.723462088001</v>
+      </c>
+      <c r="E479" t="n">
+        <v>71.65065569800001</v>
+      </c>
+      <c r="F479" t="n">
+        <v>9601.072806390001</v>
+      </c>
+      <c r="G479" t="n">
+        <v>50.69768021133333</v>
+      </c>
+      <c r="H479" t="n">
+        <v>8292.134063832</v>
+      </c>
+      <c r="I479" t="n">
+        <v>54.60858373</v>
+      </c>
+      <c r="J479" t="n">
+        <v>8237.525480102</v>
+      </c>
+      <c r="K479" t="n">
+        <v>52.03398223933333</v>
+      </c>
+      <c r="L479" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M479" t="n">
+        <v>83880</v>
+      </c>
+      <c r="N479" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O479" t="n">
+        <v>43897</v>
+      </c>
+      <c r="P479" t="n">
+        <v>0.9971232257911129</v>
+      </c>
+      <c r="Q479" t="n">
+        <v>0.9977951538846206</v>
+      </c>
+      <c r="R479" t="n">
+        <v>0.1242666666666667</v>
+      </c>
+      <c r="S479" t="n">
+        <v>0.06503259259259259</v>
+      </c>
+      <c r="T479" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D480" t="n">
+        <v>9710.843967572</v>
+      </c>
+      <c r="E480" t="n">
+        <v>71.65101335199999</v>
+      </c>
+      <c r="F480" t="n">
+        <v>9639.192954220001</v>
+      </c>
+      <c r="G480" t="n">
+        <v>50.69788030733334</v>
+      </c>
+      <c r="H480" t="n">
+        <v>8348.626625966001</v>
+      </c>
+      <c r="I480" t="n">
+        <v>54.608720414</v>
+      </c>
+      <c r="J480" t="n">
+        <v>8294.017905552</v>
+      </c>
+      <c r="K480" t="n">
+        <v>52.03418237933333</v>
+      </c>
+      <c r="L480" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M480" t="n">
+        <v>83880</v>
+      </c>
+      <c r="N480" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O480" t="n">
+        <v>43897</v>
+      </c>
+      <c r="P480" t="n">
+        <v>0.9971232257911129</v>
+      </c>
+      <c r="Q480" t="n">
+        <v>0.9977951538846206</v>
+      </c>
+      <c r="R480" t="n">
+        <v>0.1242666666666667</v>
+      </c>
+      <c r="S480" t="n">
+        <v>0.06503259259259259</v>
+      </c>
+      <c r="T480" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D481" t="n">
+        <v>9741.712994754</v>
+      </c>
+      <c r="E481" t="n">
+        <v>71.65101335199999</v>
+      </c>
+      <c r="F481" t="n">
+        <v>9670.061981402001</v>
+      </c>
+      <c r="G481" t="n">
+        <v>50.69788030733334</v>
+      </c>
+      <c r="H481" t="n">
+        <v>8395.284575255999</v>
+      </c>
+      <c r="I481" t="n">
+        <v>54.608720414</v>
+      </c>
+      <c r="J481" t="n">
+        <v>8340.675854842</v>
+      </c>
+      <c r="K481" t="n">
+        <v>52.03418237933333</v>
+      </c>
+      <c r="L481" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M481" t="n">
+        <v>83880</v>
+      </c>
+      <c r="N481" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O481" t="n">
+        <v>43897</v>
+      </c>
+      <c r="P481" t="n">
+        <v>0.9971232257911129</v>
+      </c>
+      <c r="Q481" t="n">
+        <v>0.9977951538846206</v>
+      </c>
+      <c r="R481" t="n">
+        <v>0.1242666666666667</v>
+      </c>
+      <c r="S481" t="n">
+        <v>0.06503259259259259</v>
+      </c>
+      <c r="T481" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D482" t="n">
+        <v>9775.335503100001</v>
+      </c>
+      <c r="E482" t="n">
+        <v>71.65101335199999</v>
+      </c>
+      <c r="F482" t="n">
+        <v>9703.684489747999</v>
+      </c>
+      <c r="G482" t="n">
+        <v>50.69788030733334</v>
+      </c>
+      <c r="H482" t="n">
+        <v>8443.357154247999</v>
+      </c>
+      <c r="I482" t="n">
+        <v>54.608720414</v>
+      </c>
+      <c r="J482" t="n">
+        <v>8388.748433834</v>
+      </c>
+      <c r="K482" t="n">
+        <v>52.03418237933333</v>
+      </c>
+      <c r="L482" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M482" t="n">
+        <v>83880</v>
+      </c>
+      <c r="N482" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O482" t="n">
+        <v>43897</v>
+      </c>
+      <c r="P482" t="n">
+        <v>0.9971232257911129</v>
+      </c>
+      <c r="Q482" t="n">
+        <v>0.9977951538846206</v>
+      </c>
+      <c r="R482" t="n">
+        <v>0.1242666666666667</v>
+      </c>
+      <c r="S482" t="n">
+        <v>0.06503259259259259</v>
+      </c>
+      <c r="T482" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D483" t="n">
+        <v>9808.999928470001</v>
+      </c>
+      <c r="E483" t="n">
+        <v>71.65101335199999</v>
+      </c>
+      <c r="F483" t="n">
+        <v>9737.348915116001</v>
+      </c>
+      <c r="G483" t="n">
+        <v>50.69788030733334</v>
+      </c>
+      <c r="H483" t="n">
+        <v>8493.876460805999</v>
+      </c>
+      <c r="I483" t="n">
+        <v>54.608720414</v>
+      </c>
+      <c r="J483" t="n">
+        <v>8439.267740391999</v>
+      </c>
+      <c r="K483" t="n">
+        <v>52.03418237933333</v>
+      </c>
+      <c r="L483" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M483" t="n">
+        <v>83880</v>
+      </c>
+      <c r="N483" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O483" t="n">
+        <v>43897</v>
+      </c>
+      <c r="P483" t="n">
+        <v>0.9971232257911129</v>
+      </c>
+      <c r="Q483" t="n">
+        <v>0.9977951538846206</v>
+      </c>
+      <c r="R483" t="n">
+        <v>0.1242666666666667</v>
+      </c>
+      <c r="S483" t="n">
+        <v>0.06503259259259259</v>
+      </c>
+      <c r="T483" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D484" t="n">
+        <v>9844.881735814</v>
+      </c>
+      <c r="E484" t="n">
+        <v>71.65101335199999</v>
+      </c>
+      <c r="F484" t="n">
+        <v>9773.230722459999</v>
+      </c>
+      <c r="G484" t="n">
+        <v>50.69788030733334</v>
+      </c>
+      <c r="H484" t="n">
+        <v>8548.922318154</v>
+      </c>
+      <c r="I484" t="n">
+        <v>54.608720414</v>
+      </c>
+      <c r="J484" t="n">
+        <v>8494.31359774</v>
+      </c>
+      <c r="K484" t="n">
+        <v>52.03418237933333</v>
+      </c>
+      <c r="L484" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M484" t="n">
+        <v>83880</v>
+      </c>
+      <c r="N484" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O484" t="n">
+        <v>43897</v>
+      </c>
+      <c r="P484" t="n">
+        <v>0.9971232257911129</v>
+      </c>
+      <c r="Q484" t="n">
+        <v>0.9977951538846206</v>
+      </c>
+      <c r="R484" t="n">
+        <v>0.1242666666666667</v>
+      </c>
+      <c r="S484" t="n">
+        <v>0.06503259259259259</v>
+      </c>
+      <c r="T484" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D485" t="n">
+        <v>9877.809895087999</v>
+      </c>
+      <c r="E485" t="n">
+        <v>71.65106104</v>
+      </c>
+      <c r="F485" t="n">
+        <v>9806.158834047999</v>
+      </c>
+      <c r="G485" t="n">
+        <v>50.69792851666666</v>
+      </c>
+      <c r="H485" t="n">
+        <v>8596.0668155</v>
+      </c>
+      <c r="I485" t="n">
+        <v>54.608811536</v>
+      </c>
+      <c r="J485" t="n">
+        <v>8541.458003963999</v>
+      </c>
+      <c r="K485" t="n">
+        <v>52.03423058866667</v>
+      </c>
+      <c r="L485" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M485" t="n">
+        <v>83880</v>
+      </c>
+      <c r="N485" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O485" t="n">
+        <v>43897</v>
+      </c>
+      <c r="P485" t="n">
+        <v>0.9971232257911129</v>
+      </c>
+      <c r="Q485" t="n">
+        <v>0.9977951538846206</v>
+      </c>
+      <c r="R485" t="n">
+        <v>0.1242666666666667</v>
+      </c>
+      <c r="S485" t="n">
+        <v>0.06503259259259259</v>
+      </c>
+      <c r="T485" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D486" t="n">
+        <v>9908.862994753999</v>
+      </c>
+      <c r="E486" t="n">
+        <v>71.65106104</v>
+      </c>
+      <c r="F486" t="n">
+        <v>9837.211933714001</v>
+      </c>
+      <c r="G486" t="n">
+        <v>50.69792851666666</v>
+      </c>
+      <c r="H486" t="n">
+        <v>8641.790031209999</v>
+      </c>
+      <c r="I486" t="n">
+        <v>54.608811536</v>
+      </c>
+      <c r="J486" t="n">
+        <v>8587.181219674001</v>
+      </c>
+      <c r="K486" t="n">
+        <v>52.03423058866667</v>
+      </c>
+      <c r="L486" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M486" t="n">
+        <v>83880</v>
+      </c>
+      <c r="N486" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O486" t="n">
+        <v>43897</v>
+      </c>
+      <c r="P486" t="n">
+        <v>0.9971232257911129</v>
+      </c>
+      <c r="Q486" t="n">
+        <v>0.9977951538846206</v>
+      </c>
+      <c r="R486" t="n">
+        <v>0.1242666666666667</v>
+      </c>
+      <c r="S486" t="n">
+        <v>0.06503259259259259</v>
+      </c>
+      <c r="T486" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D487" t="n">
+        <v>9929.458023366</v>
+      </c>
+      <c r="E487" t="n">
+        <v>71.958404864</v>
+      </c>
+      <c r="F487" t="n">
+        <v>9857.499618502001</v>
+      </c>
+      <c r="G487" t="n">
+        <v>51.00863948799999</v>
+      </c>
+      <c r="H487" t="n">
+        <v>8666.592887896</v>
+      </c>
+      <c r="I487" t="n">
+        <v>55.196095406</v>
+      </c>
+      <c r="J487" t="n">
+        <v>8611.396792492</v>
+      </c>
+      <c r="K487" t="n">
+        <v>52.34494156000001</v>
+      </c>
+      <c r="L487" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M487" t="n">
+        <v>83880</v>
+      </c>
+      <c r="N487" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O487" t="n">
+        <v>43897</v>
+      </c>
+      <c r="P487" t="n">
+        <v>0.9971232257911129</v>
+      </c>
+      <c r="Q487" t="n">
+        <v>0.9977951538846206</v>
+      </c>
+      <c r="R487" t="n">
+        <v>0.1242666666666667</v>
+      </c>
+      <c r="S487" t="n">
+        <v>0.06503259259259259</v>
+      </c>
+      <c r="T487" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D488" t="n">
+        <v>9957.590307582001</v>
+      </c>
+      <c r="E488" t="n">
+        <v>71.958404864</v>
+      </c>
+      <c r="F488" t="n">
+        <v>9885.631902718</v>
+      </c>
+      <c r="G488" t="n">
+        <v>51.00863948799999</v>
+      </c>
+      <c r="H488" t="n">
+        <v>8708.55502654</v>
+      </c>
+      <c r="I488" t="n">
+        <v>55.196095406</v>
+      </c>
+      <c r="J488" t="n">
+        <v>8653.358931134</v>
+      </c>
+      <c r="K488" t="n">
+        <v>52.34494156000001</v>
+      </c>
+      <c r="L488" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M488" t="n">
+        <v>83880</v>
+      </c>
+      <c r="N488" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O488" t="n">
+        <v>43897</v>
+      </c>
+      <c r="P488" t="n">
+        <v>0.9971232257911129</v>
+      </c>
+      <c r="Q488" t="n">
+        <v>0.9977951538846206</v>
+      </c>
+      <c r="R488" t="n">
+        <v>0.1242666666666667</v>
+      </c>
+      <c r="S488" t="n">
+        <v>0.06503259259259259</v>
+      </c>
+      <c r="T488" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D489" t="n">
+        <v>9987.127861230001</v>
+      </c>
+      <c r="E489" t="n">
+        <v>71.958404864</v>
+      </c>
+      <c r="F489" t="n">
+        <v>9915.169456366</v>
+      </c>
+      <c r="G489" t="n">
+        <v>51.00863948799999</v>
+      </c>
+      <c r="H489" t="n">
+        <v>8750.347404149999</v>
+      </c>
+      <c r="I489" t="n">
+        <v>55.196095406</v>
+      </c>
+      <c r="J489" t="n">
+        <v>8695.151308746001</v>
+      </c>
+      <c r="K489" t="n">
+        <v>52.34494156000001</v>
+      </c>
+      <c r="L489" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M489" t="n">
+        <v>83880</v>
+      </c>
+      <c r="N489" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O489" t="n">
+        <v>43897</v>
+      </c>
+      <c r="P489" t="n">
+        <v>0.9971232257911129</v>
+      </c>
+      <c r="Q489" t="n">
+        <v>0.9977951538846206</v>
+      </c>
+      <c r="R489" t="n">
+        <v>0.1242666666666667</v>
+      </c>
+      <c r="S489" t="n">
+        <v>0.06503259259259259</v>
+      </c>
+      <c r="T489" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D490" t="n">
+        <v>10015.529840248</v>
+      </c>
+      <c r="E490" t="n">
+        <v>71.958404864</v>
+      </c>
+      <c r="F490" t="n">
+        <v>9943.571435383999</v>
+      </c>
+      <c r="G490" t="n">
+        <v>51.00863948799999</v>
+      </c>
+      <c r="H490" t="n">
+        <v>8791.658017632</v>
+      </c>
+      <c r="I490" t="n">
+        <v>55.196095406</v>
+      </c>
+      <c r="J490" t="n">
+        <v>8736.461922228</v>
+      </c>
+      <c r="K490" t="n">
+        <v>52.34494156000001</v>
+      </c>
+      <c r="L490" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M490" t="n">
+        <v>83880</v>
+      </c>
+      <c r="N490" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O490" t="n">
+        <v>43897</v>
+      </c>
+      <c r="P490" t="n">
+        <v>0.9971232257911129</v>
+      </c>
+      <c r="Q490" t="n">
+        <v>0.9977951538846206</v>
+      </c>
+      <c r="R490" t="n">
+        <v>0.1242666666666667</v>
+      </c>
+      <c r="S490" t="n">
+        <v>0.06503259259259259</v>
+      </c>
+      <c r="T490" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D491" t="n">
+        <v>10044.989616118</v>
+      </c>
+      <c r="E491" t="n">
+        <v>71.958404864</v>
+      </c>
+      <c r="F491" t="n">
+        <v>9973.031211254001</v>
+      </c>
+      <c r="G491" t="n">
+        <v>51.00863948799999</v>
+      </c>
+      <c r="H491" t="n">
+        <v>8834.82347313</v>
+      </c>
+      <c r="I491" t="n">
+        <v>55.196095406</v>
+      </c>
+      <c r="J491" t="n">
+        <v>8779.627377725999</v>
+      </c>
+      <c r="K491" t="n">
+        <v>52.34494156000001</v>
+      </c>
+      <c r="L491" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M491" t="n">
+        <v>83880</v>
+      </c>
+      <c r="N491" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O491" t="n">
+        <v>43897</v>
+      </c>
+      <c r="P491" t="n">
+        <v>0.9971232257911129</v>
+      </c>
+      <c r="Q491" t="n">
+        <v>0.9977951538846206</v>
+      </c>
+      <c r="R491" t="n">
+        <v>0.1242666666666667</v>
+      </c>
+      <c r="S491" t="n">
+        <v>0.06503259259259259</v>
+      </c>
+      <c r="T491" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D492" t="n">
+        <v>10070.09161898</v>
+      </c>
+      <c r="E492" t="n">
+        <v>71.958524082</v>
+      </c>
+      <c r="F492" t="n">
+        <v>9998.133094898001</v>
+      </c>
+      <c r="G492" t="n">
+        <v>51.00870618666667</v>
+      </c>
+      <c r="H492" t="n">
+        <v>8872.146297014</v>
+      </c>
+      <c r="I492" t="n">
+        <v>55.196140966</v>
+      </c>
+      <c r="J492" t="n">
+        <v>8816.950156048</v>
+      </c>
+      <c r="K492" t="n">
+        <v>52.34500827333333</v>
+      </c>
+      <c r="L492" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M492" t="n">
+        <v>83880</v>
+      </c>
+      <c r="N492" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O492" t="n">
+        <v>43897</v>
+      </c>
+      <c r="P492" t="n">
+        <v>0.9971232257911129</v>
+      </c>
+      <c r="Q492" t="n">
+        <v>0.9977951538846206</v>
+      </c>
+      <c r="R492" t="n">
+        <v>0.1242666666666667</v>
+      </c>
+      <c r="S492" t="n">
+        <v>0.06503259259259259</v>
+      </c>
+      <c r="T492" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D493" t="n">
+        <v>10094.65850431</v>
+      </c>
+      <c r="E493" t="n">
+        <v>71.862245324</v>
+      </c>
+      <c r="F493" t="n">
+        <v>10022.796258986</v>
+      </c>
+      <c r="G493" t="n">
+        <v>50.91163165333334</v>
+      </c>
+      <c r="H493" t="n">
+        <v>8908.97172992</v>
+      </c>
+      <c r="I493" t="n">
+        <v>55.012551824</v>
+      </c>
+      <c r="J493" t="n">
+        <v>8853.959178093999</v>
+      </c>
+      <c r="K493" t="n">
+        <v>52.24793374</v>
+      </c>
+      <c r="L493" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M493" t="n">
+        <v>83881</v>
+      </c>
+      <c r="N493" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O493" t="n">
+        <v>43898</v>
+      </c>
+      <c r="P493" t="n">
+        <v>0.9971351132878439</v>
+      </c>
+      <c r="Q493" t="n">
+        <v>0.9978178842569442</v>
+      </c>
+      <c r="R493" t="n">
+        <v>0.1242681481481481</v>
+      </c>
+      <c r="S493" t="n">
+        <v>0.06503407407407408</v>
+      </c>
+      <c r="T493" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D494" t="n">
+        <v>10122.136932082</v>
+      </c>
+      <c r="E494" t="n">
+        <v>71.86236454</v>
+      </c>
+      <c r="F494" t="n">
+        <v>10050.274567542</v>
+      </c>
+      <c r="G494" t="n">
+        <v>50.911698352</v>
+      </c>
+      <c r="H494" t="n">
+        <v>8947.898651419999</v>
+      </c>
+      <c r="I494" t="n">
+        <v>55.012597384</v>
+      </c>
+      <c r="J494" t="n">
+        <v>8892.886054034001</v>
+      </c>
+      <c r="K494" t="n">
+        <v>52.24800045333333</v>
+      </c>
+      <c r="L494" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M494" t="n">
+        <v>83881</v>
+      </c>
+      <c r="N494" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O494" t="n">
+        <v>43898</v>
+      </c>
+      <c r="P494" t="n">
+        <v>0.9971351132878439</v>
+      </c>
+      <c r="Q494" t="n">
+        <v>0.9978178842569442</v>
+      </c>
+      <c r="R494" t="n">
+        <v>0.1242681481481481</v>
+      </c>
+      <c r="S494" t="n">
+        <v>0.06503407407407408</v>
+      </c>
+      <c r="T494" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D495" t="n">
+        <v>10147.385295836</v>
+      </c>
+      <c r="E495" t="n">
+        <v>71.86236454</v>
+      </c>
+      <c r="F495" t="n">
+        <v>10075.522931296</v>
+      </c>
+      <c r="G495" t="n">
+        <v>50.911698352</v>
+      </c>
+      <c r="H495" t="n">
+        <v>8985.035195226001</v>
+      </c>
+      <c r="I495" t="n">
+        <v>55.012597384</v>
+      </c>
+      <c r="J495" t="n">
+        <v>8930.022597839999</v>
+      </c>
+      <c r="K495" t="n">
+        <v>52.24800045333333</v>
+      </c>
+      <c r="L495" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M495" t="n">
+        <v>83881</v>
+      </c>
+      <c r="N495" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O495" t="n">
+        <v>43898</v>
+      </c>
+      <c r="P495" t="n">
+        <v>0.9971351132878439</v>
+      </c>
+      <c r="Q495" t="n">
+        <v>0.9978178842569442</v>
+      </c>
+      <c r="R495" t="n">
+        <v>0.1242681481481481</v>
+      </c>
+      <c r="S495" t="n">
+        <v>0.06503407407407408</v>
+      </c>
+      <c r="T495" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D496" t="n">
+        <v>10169.361321396</v>
+      </c>
+      <c r="E496" t="n">
+        <v>71.847224044</v>
+      </c>
+      <c r="F496" t="n">
+        <v>10097.514097352</v>
+      </c>
+      <c r="G496" t="n">
+        <v>50.90322761933333</v>
+      </c>
+      <c r="H496" t="n">
+        <v>9018.598022688</v>
+      </c>
+      <c r="I496" t="n">
+        <v>55.006811244</v>
+      </c>
+      <c r="J496" t="n">
+        <v>8963.591211444</v>
+      </c>
+      <c r="K496" t="n">
+        <v>52.239527856</v>
+      </c>
+      <c r="L496" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M496" t="n">
+        <v>83881</v>
+      </c>
+      <c r="N496" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O496" t="n">
+        <v>43898</v>
+      </c>
+      <c r="P496" t="n">
+        <v>0.9971351132878439</v>
+      </c>
+      <c r="Q496" t="n">
+        <v>0.9978178842569442</v>
+      </c>
+      <c r="R496" t="n">
+        <v>0.1242681481481481</v>
+      </c>
+      <c r="S496" t="n">
+        <v>0.06503407407407408</v>
+      </c>
+      <c r="T496" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D497" t="n">
+        <v>10192.376211538</v>
+      </c>
+      <c r="E497" t="n">
+        <v>71.84727172999999</v>
+      </c>
+      <c r="F497" t="n">
+        <v>10120.528939808</v>
+      </c>
+      <c r="G497" t="n">
+        <v>50.90327582666666</v>
+      </c>
+      <c r="H497" t="n">
+        <v>9053.10118912</v>
+      </c>
+      <c r="I497" t="n">
+        <v>55.006902364</v>
+      </c>
+      <c r="J497" t="n">
+        <v>8998.094286755999</v>
+      </c>
+      <c r="K497" t="n">
+        <v>52.23957606333333</v>
+      </c>
+      <c r="L497" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M497" t="n">
+        <v>83881</v>
+      </c>
+      <c r="N497" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O497" t="n">
+        <v>43898</v>
+      </c>
+      <c r="P497" t="n">
+        <v>0.9971351132878439</v>
+      </c>
+      <c r="Q497" t="n">
+        <v>0.9978178842569442</v>
+      </c>
+      <c r="R497" t="n">
+        <v>0.1242681481481481</v>
+      </c>
+      <c r="S497" t="n">
+        <v>0.06503407407407408</v>
+      </c>
+      <c r="T497" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D498" t="n">
+        <v>10215.208342772</v>
+      </c>
+      <c r="E498" t="n">
+        <v>71.847319416</v>
+      </c>
+      <c r="F498" t="n">
+        <v>10143.361023354</v>
+      </c>
+      <c r="G498" t="n">
+        <v>50.90332403466667</v>
+      </c>
+      <c r="H498" t="n">
+        <v>9087.116907376001</v>
+      </c>
+      <c r="I498" t="n">
+        <v>55.006993484</v>
+      </c>
+      <c r="J498" t="n">
+        <v>9032.109913892002</v>
+      </c>
+      <c r="K498" t="n">
+        <v>52.23962427133333</v>
+      </c>
+      <c r="L498" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M498" t="n">
+        <v>83881</v>
+      </c>
+      <c r="N498" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O498" t="n">
+        <v>43898</v>
+      </c>
+      <c r="P498" t="n">
+        <v>0.9971351132878439</v>
+      </c>
+      <c r="Q498" t="n">
+        <v>0.9978178842569442</v>
+      </c>
+      <c r="R498" t="n">
+        <v>0.1242681481481481</v>
+      </c>
+      <c r="S498" t="n">
+        <v>0.06503407407407408</v>
+      </c>
+      <c r="T498" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D499" t="n">
+        <v>10238.408948392</v>
+      </c>
+      <c r="E499" t="n">
+        <v>71.847319416</v>
+      </c>
+      <c r="F499" t="n">
+        <v>10166.561628974</v>
+      </c>
+      <c r="G499" t="n">
+        <v>50.90332403466667</v>
+      </c>
+      <c r="H499" t="n">
+        <v>9122.060868376</v>
+      </c>
+      <c r="I499" t="n">
+        <v>55.006993484</v>
+      </c>
+      <c r="J499" t="n">
+        <v>9067.053874892001</v>
+      </c>
+      <c r="K499" t="n">
+        <v>52.23962427133333</v>
+      </c>
+      <c r="L499" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M499" t="n">
+        <v>83881</v>
+      </c>
+      <c r="N499" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O499" t="n">
+        <v>43898</v>
+      </c>
+      <c r="P499" t="n">
+        <v>0.9971351132878439</v>
+      </c>
+      <c r="Q499" t="n">
+        <v>0.9978178842569442</v>
+      </c>
+      <c r="R499" t="n">
+        <v>0.1242681481481481</v>
+      </c>
+      <c r="S499" t="n">
+        <v>0.06503407407407408</v>
+      </c>
+      <c r="T499" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D500" t="n">
+        <v>10262.783693566</v>
+      </c>
+      <c r="E500" t="n">
+        <v>71.847438634</v>
+      </c>
+      <c r="F500" t="n">
+        <v>10190.936254932</v>
+      </c>
+      <c r="G500" t="n">
+        <v>50.90339073333333</v>
+      </c>
+      <c r="H500" t="n">
+        <v>9156.991981411998</v>
+      </c>
+      <c r="I500" t="n">
+        <v>55.007039046</v>
+      </c>
+      <c r="J500" t="n">
+        <v>9101.984942366</v>
+      </c>
+      <c r="K500" t="n">
+        <v>52.23969098466667</v>
+      </c>
+      <c r="L500" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M500" t="n">
+        <v>83881</v>
+      </c>
+      <c r="N500" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O500" t="n">
+        <v>43898</v>
+      </c>
+      <c r="P500" t="n">
+        <v>0.9971351132878439</v>
+      </c>
+      <c r="Q500" t="n">
+        <v>0.9978178842569442</v>
+      </c>
+      <c r="R500" t="n">
+        <v>0.1242681481481481</v>
+      </c>
+      <c r="S500" t="n">
+        <v>0.06503407407407408</v>
+      </c>
+      <c r="T500" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>1</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D501" t="n">
+        <v>10287.505072662</v>
+      </c>
+      <c r="E501" t="n">
+        <v>71.847438634</v>
+      </c>
+      <c r="F501" t="n">
+        <v>10215.65763403</v>
+      </c>
+      <c r="G501" t="n">
+        <v>50.90339073333333</v>
+      </c>
+      <c r="H501" t="n">
+        <v>9193.659620028</v>
+      </c>
+      <c r="I501" t="n">
+        <v>55.007039046</v>
+      </c>
+      <c r="J501" t="n">
+        <v>9138.652580984</v>
+      </c>
+      <c r="K501" t="n">
+        <v>52.23969098466667</v>
+      </c>
+      <c r="L501" t="n">
+        <v>84122</v>
+      </c>
+      <c r="M501" t="n">
+        <v>83881</v>
+      </c>
+      <c r="N501" t="n">
+        <v>43994</v>
+      </c>
+      <c r="O501" t="n">
+        <v>43898</v>
+      </c>
+      <c r="P501" t="n">
+        <v>0.9971351132878439</v>
+      </c>
+      <c r="Q501" t="n">
+        <v>0.9978178842569442</v>
+      </c>
+      <c r="R501" t="n">
+        <v>0.1242681481481481</v>
+      </c>
+      <c r="S501" t="n">
+        <v>0.06503407407407408</v>
+      </c>
+      <c r="T501" t="inlineStr">
+        <is>
+          <t>adaptive</t>
         </is>
       </c>
     </row>

--- a/m5out_stats_congestion_aware.xlsx
+++ b/m5out_stats_congestion_aware.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T501"/>
+  <dimension ref="A1:T601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33566,6 +33566,6606 @@
       <c r="T501" t="inlineStr">
         <is>
           <t>adaptive</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D502" t="n">
+        <v>29.968093866</v>
+      </c>
+      <c r="E502" t="n">
+        <v>27.958830794</v>
+      </c>
+      <c r="F502" t="n">
+        <v>2.009263072</v>
+      </c>
+      <c r="G502" t="n">
+        <v>21.75852163666667</v>
+      </c>
+      <c r="H502" t="n">
+        <v>30.93231047</v>
+      </c>
+      <c r="I502" t="n">
+        <v>28.926895306</v>
+      </c>
+      <c r="J502" t="n">
+        <v>2.005415162</v>
+      </c>
+      <c r="K502" t="n">
+        <v>23.43332028</v>
+      </c>
+      <c r="L502" t="n">
+        <v>9728</v>
+      </c>
+      <c r="M502" t="n">
+        <v>9716</v>
+      </c>
+      <c r="N502" t="n">
+        <v>3328</v>
+      </c>
+      <c r="O502" t="n">
+        <v>3324</v>
+      </c>
+      <c r="P502" t="n">
+        <v>0.998766447368421</v>
+      </c>
+      <c r="Q502" t="n">
+        <v>0.9987980769230769</v>
+      </c>
+      <c r="R502" t="n">
+        <v>0.01439407407407407</v>
+      </c>
+      <c r="S502" t="n">
+        <v>0.004924444444444445</v>
+      </c>
+      <c r="T502" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D503" t="n">
+        <v>32.264433068</v>
+      </c>
+      <c r="E503" t="n">
+        <v>30.190075524</v>
+      </c>
+      <c r="F503" t="n">
+        <v>2.074357544</v>
+      </c>
+      <c r="G503" t="n">
+        <v>22.70233407066666</v>
+      </c>
+      <c r="H503" t="n">
+        <v>32.26218063</v>
+      </c>
+      <c r="I503" t="n">
+        <v>30.217171718</v>
+      </c>
+      <c r="J503" t="n">
+        <v>2.045008912</v>
+      </c>
+      <c r="K503" t="n">
+        <v>24.30107941533333</v>
+      </c>
+      <c r="L503" t="n">
+        <v>19754</v>
+      </c>
+      <c r="M503" t="n">
+        <v>19729</v>
+      </c>
+      <c r="N503" t="n">
+        <v>6738</v>
+      </c>
+      <c r="O503" t="n">
+        <v>6732</v>
+      </c>
+      <c r="P503" t="n">
+        <v>0.9987344335324492</v>
+      </c>
+      <c r="Q503" t="n">
+        <v>0.9991095280498664</v>
+      </c>
+      <c r="R503" t="n">
+        <v>0.02922814814814815</v>
+      </c>
+      <c r="S503" t="n">
+        <v>0.009973333333333334</v>
+      </c>
+      <c r="T503" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D504" t="n">
+        <v>41.22118104</v>
+      </c>
+      <c r="E504" t="n">
+        <v>38.125089446</v>
+      </c>
+      <c r="F504" t="n">
+        <v>3.096091594</v>
+      </c>
+      <c r="G504" t="n">
+        <v>26.04056855933333</v>
+      </c>
+      <c r="H504" t="n">
+        <v>37.629907102</v>
+      </c>
+      <c r="I504" t="n">
+        <v>34.984716812</v>
+      </c>
+      <c r="J504" t="n">
+        <v>2.64519029</v>
+      </c>
+      <c r="K504" t="n">
+        <v>27.56079655933334</v>
+      </c>
+      <c r="L504" t="n">
+        <v>29408</v>
+      </c>
+      <c r="M504" t="n">
+        <v>29347</v>
+      </c>
+      <c r="N504" t="n">
+        <v>10028</v>
+      </c>
+      <c r="O504" t="n">
+        <v>10011</v>
+      </c>
+      <c r="P504" t="n">
+        <v>0.9979257344940152</v>
+      </c>
+      <c r="Q504" t="n">
+        <v>0.9983047467092142</v>
+      </c>
+      <c r="R504" t="n">
+        <v>0.04347703703703704</v>
+      </c>
+      <c r="S504" t="n">
+        <v>0.01483111111111111</v>
+      </c>
+      <c r="T504" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D505" t="n">
+        <v>782.608297234</v>
+      </c>
+      <c r="E505" t="n">
+        <v>73.67944018600001</v>
+      </c>
+      <c r="F505" t="n">
+        <v>708.9288570479999</v>
+      </c>
+      <c r="G505" t="n">
+        <v>40.942407842</v>
+      </c>
+      <c r="H505" t="n">
+        <v>457.755728798</v>
+      </c>
+      <c r="I505" t="n">
+        <v>54.912827782</v>
+      </c>
+      <c r="J505" t="n">
+        <v>402.842901016</v>
+      </c>
+      <c r="K505" t="n">
+        <v>42.39654112</v>
+      </c>
+      <c r="L505" t="n">
+        <v>36109</v>
+      </c>
+      <c r="M505" t="n">
+        <v>36012</v>
+      </c>
+      <c r="N505" t="n">
+        <v>12729</v>
+      </c>
+      <c r="O505" t="n">
+        <v>12699</v>
+      </c>
+      <c r="P505" t="n">
+        <v>0.9973136891079786</v>
+      </c>
+      <c r="Q505" t="n">
+        <v>0.9976431769974075</v>
+      </c>
+      <c r="R505" t="n">
+        <v>0.05335111111111111</v>
+      </c>
+      <c r="S505" t="n">
+        <v>0.01881333333333333</v>
+      </c>
+      <c r="T505" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C506" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D506" t="n">
+        <v>1256.18089679</v>
+      </c>
+      <c r="E506" t="n">
+        <v>72.792995652</v>
+      </c>
+      <c r="F506" t="n">
+        <v>1183.387901138</v>
+      </c>
+      <c r="G506" t="n">
+        <v>41.38532063</v>
+      </c>
+      <c r="H506" t="n">
+        <v>694.969068076</v>
+      </c>
+      <c r="I506" t="n">
+        <v>53.521546596</v>
+      </c>
+      <c r="J506" t="n">
+        <v>641.44752148</v>
+      </c>
+      <c r="K506" t="n">
+        <v>42.83271451866667</v>
+      </c>
+      <c r="L506" t="n">
+        <v>41061</v>
+      </c>
+      <c r="M506" t="n">
+        <v>40946</v>
+      </c>
+      <c r="N506" t="n">
+        <v>15165</v>
+      </c>
+      <c r="O506" t="n">
+        <v>15130</v>
+      </c>
+      <c r="P506" t="n">
+        <v>0.9971992888629113</v>
+      </c>
+      <c r="Q506" t="n">
+        <v>0.997692054071876</v>
+      </c>
+      <c r="R506" t="n">
+        <v>0.06066074074074074</v>
+      </c>
+      <c r="S506" t="n">
+        <v>0.02241481481481481</v>
+      </c>
+      <c r="T506" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C507" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D507" t="n">
+        <v>1377.724160546</v>
+      </c>
+      <c r="E507" t="n">
+        <v>73.138400664</v>
+      </c>
+      <c r="F507" t="n">
+        <v>1304.585759882</v>
+      </c>
+      <c r="G507" t="n">
+        <v>42.48602615466667</v>
+      </c>
+      <c r="H507" t="n">
+        <v>738.952383684</v>
+      </c>
+      <c r="I507" t="n">
+        <v>53.8670759</v>
+      </c>
+      <c r="J507" t="n">
+        <v>685.085307784</v>
+      </c>
+      <c r="K507" t="n">
+        <v>43.90394705533333</v>
+      </c>
+      <c r="L507" t="n">
+        <v>45877</v>
+      </c>
+      <c r="M507" t="n">
+        <v>45744</v>
+      </c>
+      <c r="N507" t="n">
+        <v>17473</v>
+      </c>
+      <c r="O507" t="n">
+        <v>17431</v>
+      </c>
+      <c r="P507" t="n">
+        <v>0.997100943828062</v>
+      </c>
+      <c r="Q507" t="n">
+        <v>0.9975962914210497</v>
+      </c>
+      <c r="R507" t="n">
+        <v>0.06776888888888889</v>
+      </c>
+      <c r="S507" t="n">
+        <v>0.0258237037037037</v>
+      </c>
+      <c r="T507" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C508" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D508" t="n">
+        <v>1706.368110042</v>
+      </c>
+      <c r="E508" t="n">
+        <v>77.33670626</v>
+      </c>
+      <c r="F508" t="n">
+        <v>1629.031403782</v>
+      </c>
+      <c r="G508" t="n">
+        <v>47.53326143733334</v>
+      </c>
+      <c r="H508" t="n">
+        <v>899.448241002</v>
+      </c>
+      <c r="I508" t="n">
+        <v>60.91786292</v>
+      </c>
+      <c r="J508" t="n">
+        <v>838.5303780839999</v>
+      </c>
+      <c r="K508" t="n">
+        <v>48.96273334266667</v>
+      </c>
+      <c r="L508" t="n">
+        <v>50751</v>
+      </c>
+      <c r="M508" t="n">
+        <v>50599</v>
+      </c>
+      <c r="N508" t="n">
+        <v>19831</v>
+      </c>
+      <c r="O508" t="n">
+        <v>19784</v>
+      </c>
+      <c r="P508" t="n">
+        <v>0.9970049851234458</v>
+      </c>
+      <c r="Q508" t="n">
+        <v>0.9976299732741667</v>
+      </c>
+      <c r="R508" t="n">
+        <v>0.07496148148148149</v>
+      </c>
+      <c r="S508" t="n">
+        <v>0.02930962962962963</v>
+      </c>
+      <c r="T508" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D509" t="n">
+        <v>2263.466433526</v>
+      </c>
+      <c r="E509" t="n">
+        <v>82.856332052</v>
+      </c>
+      <c r="F509" t="n">
+        <v>2180.610101474</v>
+      </c>
+      <c r="G509" t="n">
+        <v>54.72428346466667</v>
+      </c>
+      <c r="H509" t="n">
+        <v>1433.348027732</v>
+      </c>
+      <c r="I509" t="n">
+        <v>72.08735357399999</v>
+      </c>
+      <c r="J509" t="n">
+        <v>1361.260674158</v>
+      </c>
+      <c r="K509" t="n">
+        <v>56.14609153</v>
+      </c>
+      <c r="L509" t="n">
+        <v>52503</v>
+      </c>
+      <c r="M509" t="n">
+        <v>52329</v>
+      </c>
+      <c r="N509" t="n">
+        <v>20975</v>
+      </c>
+      <c r="O509" t="n">
+        <v>20915</v>
+      </c>
+      <c r="P509" t="n">
+        <v>0.9966859036626479</v>
+      </c>
+      <c r="Q509" t="n">
+        <v>0.9971394517282479</v>
+      </c>
+      <c r="R509" t="n">
+        <v>0.07752444444444445</v>
+      </c>
+      <c r="S509" t="n">
+        <v>0.03098518518518519</v>
+      </c>
+      <c r="T509" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D510" t="n">
+        <v>2686.477858128</v>
+      </c>
+      <c r="E510" t="n">
+        <v>85.187609498</v>
+      </c>
+      <c r="F510" t="n">
+        <v>2601.29024863</v>
+      </c>
+      <c r="G510" t="n">
+        <v>56.72648920933334</v>
+      </c>
+      <c r="H510" t="n">
+        <v>1863.012348512</v>
+      </c>
+      <c r="I510" t="n">
+        <v>74.60319500599999</v>
+      </c>
+      <c r="J510" t="n">
+        <v>1788.409153508</v>
+      </c>
+      <c r="K510" t="n">
+        <v>58.19473973733333</v>
+      </c>
+      <c r="L510" t="n">
+        <v>53848</v>
+      </c>
+      <c r="M510" t="n">
+        <v>53654</v>
+      </c>
+      <c r="N510" t="n">
+        <v>21856</v>
+      </c>
+      <c r="O510" t="n">
+        <v>21784</v>
+      </c>
+      <c r="P510" t="n">
+        <v>0.9963972663794384</v>
+      </c>
+      <c r="Q510" t="n">
+        <v>0.996705710102489</v>
+      </c>
+      <c r="R510" t="n">
+        <v>0.07948740740740741</v>
+      </c>
+      <c r="S510" t="n">
+        <v>0.03227259259259259</v>
+      </c>
+      <c r="T510" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D511" t="n">
+        <v>3020.271541312</v>
+      </c>
+      <c r="E511" t="n">
+        <v>82.99285982800001</v>
+      </c>
+      <c r="F511" t="n">
+        <v>2937.278681484</v>
+      </c>
+      <c r="G511" t="n">
+        <v>55.69135815333333</v>
+      </c>
+      <c r="H511" t="n">
+        <v>2140.733114468</v>
+      </c>
+      <c r="I511" t="n">
+        <v>73.079185818</v>
+      </c>
+      <c r="J511" t="n">
+        <v>2067.65392865</v>
+      </c>
+      <c r="K511" t="n">
+        <v>57.23123965800001</v>
+      </c>
+      <c r="L511" t="n">
+        <v>56066</v>
+      </c>
+      <c r="M511" t="n">
+        <v>55881</v>
+      </c>
+      <c r="N511" t="n">
+        <v>22914</v>
+      </c>
+      <c r="O511" t="n">
+        <v>22845</v>
+      </c>
+      <c r="P511" t="n">
+        <v>0.9967003174829665</v>
+      </c>
+      <c r="Q511" t="n">
+        <v>0.9969887405079864</v>
+      </c>
+      <c r="R511" t="n">
+        <v>0.08278666666666668</v>
+      </c>
+      <c r="S511" t="n">
+        <v>0.03384444444444444</v>
+      </c>
+      <c r="T511" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D512" t="n">
+        <v>3384.145866108</v>
+      </c>
+      <c r="E512" t="n">
+        <v>82.049938822</v>
+      </c>
+      <c r="F512" t="n">
+        <v>3302.095927286</v>
+      </c>
+      <c r="G512" t="n">
+        <v>55.372482488</v>
+      </c>
+      <c r="H512" t="n">
+        <v>2351.393547026</v>
+      </c>
+      <c r="I512" t="n">
+        <v>72.301855758</v>
+      </c>
+      <c r="J512" t="n">
+        <v>2279.09169127</v>
+      </c>
+      <c r="K512" t="n">
+        <v>56.91551588933333</v>
+      </c>
+      <c r="L512" t="n">
+        <v>57398</v>
+      </c>
+      <c r="M512" t="n">
+        <v>57210</v>
+      </c>
+      <c r="N512" t="n">
+        <v>23782</v>
+      </c>
+      <c r="O512" t="n">
+        <v>23710</v>
+      </c>
+      <c r="P512" t="n">
+        <v>0.9967246245513781</v>
+      </c>
+      <c r="Q512" t="n">
+        <v>0.9969725002102431</v>
+      </c>
+      <c r="R512" t="n">
+        <v>0.08475555555555557</v>
+      </c>
+      <c r="S512" t="n">
+        <v>0.03512592592592593</v>
+      </c>
+      <c r="T512" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D513" t="n">
+        <v>3745.240522318</v>
+      </c>
+      <c r="E513" t="n">
+        <v>81.08063497400001</v>
+      </c>
+      <c r="F513" t="n">
+        <v>3664.159887344</v>
+      </c>
+      <c r="G513" t="n">
+        <v>55.051706878</v>
+      </c>
+      <c r="H513" t="n">
+        <v>2560.789876302</v>
+      </c>
+      <c r="I513" t="n">
+        <v>71.59285481800001</v>
+      </c>
+      <c r="J513" t="n">
+        <v>2489.197021484</v>
+      </c>
+      <c r="K513" t="n">
+        <v>56.587670828</v>
+      </c>
+      <c r="L513" t="n">
+        <v>58776</v>
+      </c>
+      <c r="M513" t="n">
+        <v>58585</v>
+      </c>
+      <c r="N513" t="n">
+        <v>24648</v>
+      </c>
+      <c r="O513" t="n">
+        <v>24576</v>
+      </c>
+      <c r="P513" t="n">
+        <v>0.9967503743024364</v>
+      </c>
+      <c r="Q513" t="n">
+        <v>0.9970788704965921</v>
+      </c>
+      <c r="R513" t="n">
+        <v>0.08679259259259259</v>
+      </c>
+      <c r="S513" t="n">
+        <v>0.03640888888888889</v>
+      </c>
+      <c r="T513" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D514" t="n">
+        <v>4061.686134086</v>
+      </c>
+      <c r="E514" t="n">
+        <v>80.59695044</v>
+      </c>
+      <c r="F514" t="n">
+        <v>3981.089183646</v>
+      </c>
+      <c r="G514" t="n">
+        <v>54.92693686</v>
+      </c>
+      <c r="H514" t="n">
+        <v>2778.096920648</v>
+      </c>
+      <c r="I514" t="n">
+        <v>71.00284248000001</v>
+      </c>
+      <c r="J514" t="n">
+        <v>2707.094078168</v>
+      </c>
+      <c r="K514" t="n">
+        <v>56.46526176133333</v>
+      </c>
+      <c r="L514" t="n">
+        <v>59680</v>
+      </c>
+      <c r="M514" t="n">
+        <v>59484</v>
+      </c>
+      <c r="N514" t="n">
+        <v>25404</v>
+      </c>
+      <c r="O514" t="n">
+        <v>25330</v>
+      </c>
+      <c r="P514" t="n">
+        <v>0.99671581769437</v>
+      </c>
+      <c r="Q514" t="n">
+        <v>0.9970870729019052</v>
+      </c>
+      <c r="R514" t="n">
+        <v>0.08812444444444445</v>
+      </c>
+      <c r="S514" t="n">
+        <v>0.03752592592592593</v>
+      </c>
+      <c r="T514" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D515" t="n">
+        <v>4258.876877772</v>
+      </c>
+      <c r="E515" t="n">
+        <v>80.826235854</v>
+      </c>
+      <c r="F515" t="n">
+        <v>4178.050641916</v>
+      </c>
+      <c r="G515" t="n">
+        <v>55.51749979933334</v>
+      </c>
+      <c r="H515" t="n">
+        <v>2914.672504982</v>
+      </c>
+      <c r="I515" t="n">
+        <v>71.58960601</v>
+      </c>
+      <c r="J515" t="n">
+        <v>2843.082898972</v>
+      </c>
+      <c r="K515" t="n">
+        <v>56.983875538</v>
+      </c>
+      <c r="L515" t="n">
+        <v>60638</v>
+      </c>
+      <c r="M515" t="n">
+        <v>60444</v>
+      </c>
+      <c r="N515" t="n">
+        <v>26170</v>
+      </c>
+      <c r="O515" t="n">
+        <v>26092</v>
+      </c>
+      <c r="P515" t="n">
+        <v>0.9968006860384577</v>
+      </c>
+      <c r="Q515" t="n">
+        <v>0.9970194879633167</v>
+      </c>
+      <c r="R515" t="n">
+        <v>0.08954666666666666</v>
+      </c>
+      <c r="S515" t="n">
+        <v>0.03865481481481482</v>
+      </c>
+      <c r="T515" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C516" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D516" t="n">
+        <v>4492.312841264</v>
+      </c>
+      <c r="E516" t="n">
+        <v>80.53758775399999</v>
+      </c>
+      <c r="F516" t="n">
+        <v>4411.77525351</v>
+      </c>
+      <c r="G516" t="n">
+        <v>55.92228589133333</v>
+      </c>
+      <c r="H516" t="n">
+        <v>3166.74836124</v>
+      </c>
+      <c r="I516" t="n">
+        <v>72.34629359199999</v>
+      </c>
+      <c r="J516" t="n">
+        <v>3094.402067648</v>
+      </c>
+      <c r="K516" t="n">
+        <v>57.39220727999999</v>
+      </c>
+      <c r="L516" t="n">
+        <v>61732</v>
+      </c>
+      <c r="M516" t="n">
+        <v>61536</v>
+      </c>
+      <c r="N516" t="n">
+        <v>26776</v>
+      </c>
+      <c r="O516" t="n">
+        <v>26697</v>
+      </c>
+      <c r="P516" t="n">
+        <v>0.9968249854208514</v>
+      </c>
+      <c r="Q516" t="n">
+        <v>0.9970495966537197</v>
+      </c>
+      <c r="R516" t="n">
+        <v>0.09116444444444445</v>
+      </c>
+      <c r="S516" t="n">
+        <v>0.03955111111111111</v>
+      </c>
+      <c r="T516" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D517" t="n">
+        <v>4722.316589192</v>
+      </c>
+      <c r="E517" t="n">
+        <v>78.564984346</v>
+      </c>
+      <c r="F517" t="n">
+        <v>4643.751604844</v>
+      </c>
+      <c r="G517" t="n">
+        <v>55.05313890533333</v>
+      </c>
+      <c r="H517" t="n">
+        <v>3450.882894786</v>
+      </c>
+      <c r="I517" t="n">
+        <v>71.55535983</v>
+      </c>
+      <c r="J517" t="n">
+        <v>3379.327534956</v>
+      </c>
+      <c r="K517" t="n">
+        <v>56.59296647733333</v>
+      </c>
+      <c r="L517" t="n">
+        <v>63440</v>
+      </c>
+      <c r="M517" t="n">
+        <v>63246</v>
+      </c>
+      <c r="N517" t="n">
+        <v>27328</v>
+      </c>
+      <c r="O517" t="n">
+        <v>27249</v>
+      </c>
+      <c r="P517" t="n">
+        <v>0.9969419924337957</v>
+      </c>
+      <c r="Q517" t="n">
+        <v>0.9971091920374707</v>
+      </c>
+      <c r="R517" t="n">
+        <v>0.09369777777777778</v>
+      </c>
+      <c r="S517" t="n">
+        <v>0.04036888888888888</v>
+      </c>
+      <c r="T517" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D518" t="n">
+        <v>4898.208129346</v>
+      </c>
+      <c r="E518" t="n">
+        <v>77.912189342</v>
+      </c>
+      <c r="F518" t="n">
+        <v>4820.295940004001</v>
+      </c>
+      <c r="G518" t="n">
+        <v>54.91799605733333</v>
+      </c>
+      <c r="H518" t="n">
+        <v>3657.547909502</v>
+      </c>
+      <c r="I518" t="n">
+        <v>71.35884162799999</v>
+      </c>
+      <c r="J518" t="n">
+        <v>3586.189067874</v>
+      </c>
+      <c r="K518" t="n">
+        <v>56.45952181933333</v>
+      </c>
+      <c r="L518" t="n">
+        <v>64333</v>
+      </c>
+      <c r="M518" t="n">
+        <v>64138</v>
+      </c>
+      <c r="N518" t="n">
+        <v>27705</v>
+      </c>
+      <c r="O518" t="n">
+        <v>27625</v>
+      </c>
+      <c r="P518" t="n">
+        <v>0.9969688962118974</v>
+      </c>
+      <c r="Q518" t="n">
+        <v>0.9971124345785959</v>
+      </c>
+      <c r="R518" t="n">
+        <v>0.09501925925925925</v>
+      </c>
+      <c r="S518" t="n">
+        <v>0.04092592592592593</v>
+      </c>
+      <c r="T518" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C519" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D519" t="n">
+        <v>5028.422950264</v>
+      </c>
+      <c r="E519" t="n">
+        <v>77.35864212800001</v>
+      </c>
+      <c r="F519" t="n">
+        <v>4951.064308137999</v>
+      </c>
+      <c r="G519" t="n">
+        <v>54.84668152733333</v>
+      </c>
+      <c r="H519" t="n">
+        <v>3797.419837782</v>
+      </c>
+      <c r="I519" t="n">
+        <v>71.276664166</v>
+      </c>
+      <c r="J519" t="n">
+        <v>3726.143173616</v>
+      </c>
+      <c r="K519" t="n">
+        <v>56.38852665400001</v>
+      </c>
+      <c r="L519" t="n">
+        <v>65180</v>
+      </c>
+      <c r="M519" t="n">
+        <v>64984</v>
+      </c>
+      <c r="N519" t="n">
+        <v>28068</v>
+      </c>
+      <c r="O519" t="n">
+        <v>27987</v>
+      </c>
+      <c r="P519" t="n">
+        <v>0.9969929426204357</v>
+      </c>
+      <c r="Q519" t="n">
+        <v>0.9971141513467293</v>
+      </c>
+      <c r="R519" t="n">
+        <v>0.09627259259259259</v>
+      </c>
+      <c r="S519" t="n">
+        <v>0.04146222222222223</v>
+      </c>
+      <c r="T519" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D520" t="n">
+        <v>5112.747890488</v>
+      </c>
+      <c r="E520" t="n">
+        <v>76.89924421800001</v>
+      </c>
+      <c r="F520" t="n">
+        <v>5035.84864627</v>
+      </c>
+      <c r="G520" t="n">
+        <v>54.934348692</v>
+      </c>
+      <c r="H520" t="n">
+        <v>3894.198089598</v>
+      </c>
+      <c r="I520" t="n">
+        <v>71.47682492600001</v>
+      </c>
+      <c r="J520" t="n">
+        <v>3822.721264672</v>
+      </c>
+      <c r="K520" t="n">
+        <v>56.47687491400001</v>
+      </c>
+      <c r="L520" t="n">
+        <v>66092</v>
+      </c>
+      <c r="M520" t="n">
+        <v>65892</v>
+      </c>
+      <c r="N520" t="n">
+        <v>28452</v>
+      </c>
+      <c r="O520" t="n">
+        <v>28371</v>
+      </c>
+      <c r="P520" t="n">
+        <v>0.9969739151485808</v>
+      </c>
+      <c r="Q520" t="n">
+        <v>0.9971530999578238</v>
+      </c>
+      <c r="R520" t="n">
+        <v>0.09761777777777778</v>
+      </c>
+      <c r="S520" t="n">
+        <v>0.04203111111111112</v>
+      </c>
+      <c r="T520" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C521" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D521" t="n">
+        <v>5246.192343449999</v>
+      </c>
+      <c r="E521" t="n">
+        <v>76.39072996599999</v>
+      </c>
+      <c r="F521" t="n">
+        <v>5169.801613484</v>
+      </c>
+      <c r="G521" t="n">
+        <v>54.85553485666667</v>
+      </c>
+      <c r="H521" t="n">
+        <v>4069.756603446</v>
+      </c>
+      <c r="I521" t="n">
+        <v>71.328345224</v>
+      </c>
+      <c r="J521" t="n">
+        <v>3998.428258222</v>
+      </c>
+      <c r="K521" t="n">
+        <v>56.399256188</v>
+      </c>
+      <c r="L521" t="n">
+        <v>66891</v>
+      </c>
+      <c r="M521" t="n">
+        <v>66688</v>
+      </c>
+      <c r="N521" t="n">
+        <v>28819</v>
+      </c>
+      <c r="O521" t="n">
+        <v>28735</v>
+      </c>
+      <c r="P521" t="n">
+        <v>0.9969652120614133</v>
+      </c>
+      <c r="Q521" t="n">
+        <v>0.9970852562545542</v>
+      </c>
+      <c r="R521" t="n">
+        <v>0.09879703703703704</v>
+      </c>
+      <c r="S521" t="n">
+        <v>0.04257037037037038</v>
+      </c>
+      <c r="T521" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D522" t="n">
+        <v>5371.676529826001</v>
+      </c>
+      <c r="E522" t="n">
+        <v>75.62376340199999</v>
+      </c>
+      <c r="F522" t="n">
+        <v>5296.052766424</v>
+      </c>
+      <c r="G522" t="n">
+        <v>54.45814677200001</v>
+      </c>
+      <c r="H522" t="n">
+        <v>4278.753705423999</v>
+      </c>
+      <c r="I522" t="n">
+        <v>70.696585164</v>
+      </c>
+      <c r="J522" t="n">
+        <v>4208.057120257999</v>
+      </c>
+      <c r="K522" t="n">
+        <v>56.00173268933334</v>
+      </c>
+      <c r="L522" t="n">
+        <v>67726</v>
+      </c>
+      <c r="M522" t="n">
+        <v>67524</v>
+      </c>
+      <c r="N522" t="n">
+        <v>29162</v>
+      </c>
+      <c r="O522" t="n">
+        <v>29079</v>
+      </c>
+      <c r="P522" t="n">
+        <v>0.9970173936154505</v>
+      </c>
+      <c r="Q522" t="n">
+        <v>0.997153830327138</v>
+      </c>
+      <c r="R522" t="n">
+        <v>0.1000355555555555</v>
+      </c>
+      <c r="S522" t="n">
+        <v>0.04308</v>
+      </c>
+      <c r="T522" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D523" t="n">
+        <v>5474.032495356</v>
+      </c>
+      <c r="E523" t="n">
+        <v>74.847745652</v>
+      </c>
+      <c r="F523" t="n">
+        <v>5399.184749704</v>
+      </c>
+      <c r="G523" t="n">
+        <v>54.03640650333333</v>
+      </c>
+      <c r="H523" t="n">
+        <v>4435.288585591999</v>
+      </c>
+      <c r="I523" t="n">
+        <v>69.97480817600001</v>
+      </c>
+      <c r="J523" t="n">
+        <v>4365.313777416</v>
+      </c>
+      <c r="K523" t="n">
+        <v>55.579690476</v>
+      </c>
+      <c r="L523" t="n">
+        <v>68581</v>
+      </c>
+      <c r="M523" t="n">
+        <v>68379</v>
+      </c>
+      <c r="N523" t="n">
+        <v>29537</v>
+      </c>
+      <c r="O523" t="n">
+        <v>29454</v>
+      </c>
+      <c r="P523" t="n">
+        <v>0.9970545777985156</v>
+      </c>
+      <c r="Q523" t="n">
+        <v>0.9971899651284829</v>
+      </c>
+      <c r="R523" t="n">
+        <v>0.1013022222222222</v>
+      </c>
+      <c r="S523" t="n">
+        <v>0.04363555555555556</v>
+      </c>
+      <c r="T523" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D524" t="n">
+        <v>5561.236663826</v>
+      </c>
+      <c r="E524" t="n">
+        <v>74.09272125800001</v>
+      </c>
+      <c r="F524" t="n">
+        <v>5487.143942568</v>
+      </c>
+      <c r="G524" t="n">
+        <v>53.62127325133333</v>
+      </c>
+      <c r="H524" t="n">
+        <v>4577.003784834001</v>
+      </c>
+      <c r="I524" t="n">
+        <v>69.214730708</v>
+      </c>
+      <c r="J524" t="n">
+        <v>4507.789054126</v>
+      </c>
+      <c r="K524" t="n">
+        <v>55.16441913133333</v>
+      </c>
+      <c r="L524" t="n">
+        <v>69429</v>
+      </c>
+      <c r="M524" t="n">
+        <v>69229</v>
+      </c>
+      <c r="N524" t="n">
+        <v>29937</v>
+      </c>
+      <c r="O524" t="n">
+        <v>29856</v>
+      </c>
+      <c r="P524" t="n">
+        <v>0.9971193593455184</v>
+      </c>
+      <c r="Q524" t="n">
+        <v>0.9972943180679427</v>
+      </c>
+      <c r="R524" t="n">
+        <v>0.1025614814814815</v>
+      </c>
+      <c r="S524" t="n">
+        <v>0.04423111111111111</v>
+      </c>
+      <c r="T524" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D525" t="n">
+        <v>5634.247746848</v>
+      </c>
+      <c r="E525" t="n">
+        <v>73.32046089800001</v>
+      </c>
+      <c r="F525" t="n">
+        <v>5560.927285950001</v>
+      </c>
+      <c r="G525" t="n">
+        <v>53.19220021399999</v>
+      </c>
+      <c r="H525" t="n">
+        <v>4707.231229544</v>
+      </c>
+      <c r="I525" t="n">
+        <v>68.499553674</v>
+      </c>
+      <c r="J525" t="n">
+        <v>4638.731675868</v>
+      </c>
+      <c r="K525" t="n">
+        <v>54.73444206933334</v>
+      </c>
+      <c r="L525" t="n">
+        <v>70326</v>
+      </c>
+      <c r="M525" t="n">
+        <v>70124</v>
+      </c>
+      <c r="N525" t="n">
+        <v>30330</v>
+      </c>
+      <c r="O525" t="n">
+        <v>30247</v>
+      </c>
+      <c r="P525" t="n">
+        <v>0.9971276625998919</v>
+      </c>
+      <c r="Q525" t="n">
+        <v>0.9972634355423673</v>
+      </c>
+      <c r="R525" t="n">
+        <v>0.1038874074074074</v>
+      </c>
+      <c r="S525" t="n">
+        <v>0.04481037037037038</v>
+      </c>
+      <c r="T525" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D526" t="n">
+        <v>5717.800619762</v>
+      </c>
+      <c r="E526" t="n">
+        <v>72.670540178</v>
+      </c>
+      <c r="F526" t="n">
+        <v>5645.130079584</v>
+      </c>
+      <c r="G526" t="n">
+        <v>52.83356612066666</v>
+      </c>
+      <c r="H526" t="n">
+        <v>4814.196566132</v>
+      </c>
+      <c r="I526" t="n">
+        <v>67.805000652</v>
+      </c>
+      <c r="J526" t="n">
+        <v>4746.391565478</v>
+      </c>
+      <c r="K526" t="n">
+        <v>54.33647682266667</v>
+      </c>
+      <c r="L526" t="n">
+        <v>71203</v>
+      </c>
+      <c r="M526" t="n">
+        <v>70995</v>
+      </c>
+      <c r="N526" t="n">
+        <v>30719</v>
+      </c>
+      <c r="O526" t="n">
+        <v>30636</v>
+      </c>
+      <c r="P526" t="n">
+        <v>0.9970787747707259</v>
+      </c>
+      <c r="Q526" t="n">
+        <v>0.9972980891305055</v>
+      </c>
+      <c r="R526" t="n">
+        <v>0.1051777777777778</v>
+      </c>
+      <c r="S526" t="n">
+        <v>0.04538666666666667</v>
+      </c>
+      <c r="T526" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D527" t="n">
+        <v>5925.089689622</v>
+      </c>
+      <c r="E527" t="n">
+        <v>72.357537744</v>
+      </c>
+      <c r="F527" t="n">
+        <v>5852.732151878</v>
+      </c>
+      <c r="G527" t="n">
+        <v>52.64009691333334</v>
+      </c>
+      <c r="H527" t="n">
+        <v>4973.177889284</v>
+      </c>
+      <c r="I527" t="n">
+        <v>67.34412431200001</v>
+      </c>
+      <c r="J527" t="n">
+        <v>4905.833764972001</v>
+      </c>
+      <c r="K527" t="n">
+        <v>54.18027710533334</v>
+      </c>
+      <c r="L527" t="n">
+        <v>71477</v>
+      </c>
+      <c r="M527" t="n">
+        <v>71268</v>
+      </c>
+      <c r="N527" t="n">
+        <v>30973</v>
+      </c>
+      <c r="O527" t="n">
+        <v>30890</v>
+      </c>
+      <c r="P527" t="n">
+        <v>0.997075982483876</v>
+      </c>
+      <c r="Q527" t="n">
+        <v>0.9973202466664515</v>
+      </c>
+      <c r="R527" t="n">
+        <v>0.1055822222222222</v>
+      </c>
+      <c r="S527" t="n">
+        <v>0.04576296296296296</v>
+      </c>
+      <c r="T527" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D528" t="n">
+        <v>6101.37053509</v>
+      </c>
+      <c r="E528" t="n">
+        <v>72.15817739399999</v>
+      </c>
+      <c r="F528" t="n">
+        <v>6029.212357695999</v>
+      </c>
+      <c r="G528" t="n">
+        <v>52.508117502</v>
+      </c>
+      <c r="H528" t="n">
+        <v>5104.831866084</v>
+      </c>
+      <c r="I528" t="n">
+        <v>66.92202159200001</v>
+      </c>
+      <c r="J528" t="n">
+        <v>5037.909844492</v>
+      </c>
+      <c r="K528" t="n">
+        <v>54.04829778600001</v>
+      </c>
+      <c r="L528" t="n">
+        <v>71711</v>
+      </c>
+      <c r="M528" t="n">
+        <v>71502</v>
+      </c>
+      <c r="N528" t="n">
+        <v>31207</v>
+      </c>
+      <c r="O528" t="n">
+        <v>31124</v>
+      </c>
+      <c r="P528" t="n">
+        <v>0.9970855238387416</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>0.9973403403082641</v>
+      </c>
+      <c r="R528" t="n">
+        <v>0.1059288888888889</v>
+      </c>
+      <c r="S528" t="n">
+        <v>0.04610962962962963</v>
+      </c>
+      <c r="T528" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D529" t="n">
+        <v>6276.600107112</v>
+      </c>
+      <c r="E529" t="n">
+        <v>72.94208924</v>
+      </c>
+      <c r="F529" t="n">
+        <v>6203.65801787</v>
+      </c>
+      <c r="G529" t="n">
+        <v>52.88353040200001</v>
+      </c>
+      <c r="H529" t="n">
+        <v>5226.863283754001</v>
+      </c>
+      <c r="I529" t="n">
+        <v>66.862610592</v>
+      </c>
+      <c r="J529" t="n">
+        <v>5160.000673164</v>
+      </c>
+      <c r="K529" t="n">
+        <v>54.3660416</v>
+      </c>
+      <c r="L529" t="n">
+        <v>71162</v>
+      </c>
+      <c r="M529" t="n">
+        <v>70954</v>
+      </c>
+      <c r="N529" t="n">
+        <v>31278</v>
+      </c>
+      <c r="O529" t="n">
+        <v>31196</v>
+      </c>
+      <c r="P529" t="n">
+        <v>0.9970770917062477</v>
+      </c>
+      <c r="Q529" t="n">
+        <v>0.9973783489992967</v>
+      </c>
+      <c r="R529" t="n">
+        <v>0.105117037037037</v>
+      </c>
+      <c r="S529" t="n">
+        <v>0.0462162962962963</v>
+      </c>
+      <c r="T529" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D530" t="n">
+        <v>6438.805011306</v>
+      </c>
+      <c r="E530" t="n">
+        <v>72.726527058</v>
+      </c>
+      <c r="F530" t="n">
+        <v>6366.078484248</v>
+      </c>
+      <c r="G530" t="n">
+        <v>52.73276727933334</v>
+      </c>
+      <c r="H530" t="n">
+        <v>5344.264972488</v>
+      </c>
+      <c r="I530" t="n">
+        <v>66.424891066</v>
+      </c>
+      <c r="J530" t="n">
+        <v>5277.840081422</v>
+      </c>
+      <c r="K530" t="n">
+        <v>54.21527837999999</v>
+      </c>
+      <c r="L530" t="n">
+        <v>71414</v>
+      </c>
+      <c r="M530" t="n">
+        <v>71199</v>
+      </c>
+      <c r="N530" t="n">
+        <v>31526</v>
+      </c>
+      <c r="O530" t="n">
+        <v>31441</v>
+      </c>
+      <c r="P530" t="n">
+        <v>0.9969893858347103</v>
+      </c>
+      <c r="Q530" t="n">
+        <v>0.9973038127260039</v>
+      </c>
+      <c r="R530" t="n">
+        <v>0.10548</v>
+      </c>
+      <c r="S530" t="n">
+        <v>0.04657925925925926</v>
+      </c>
+      <c r="T530" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D531" t="n">
+        <v>6565.258853832</v>
+      </c>
+      <c r="E531" t="n">
+        <v>72.52157115200001</v>
+      </c>
+      <c r="F531" t="n">
+        <v>6492.737282677999</v>
+      </c>
+      <c r="G531" t="n">
+        <v>52.60115226333333</v>
+      </c>
+      <c r="H531" t="n">
+        <v>5441.227809344</v>
+      </c>
+      <c r="I531" t="n">
+        <v>66.011016414</v>
+      </c>
+      <c r="J531" t="n">
+        <v>5375.21679293</v>
+      </c>
+      <c r="K531" t="n">
+        <v>54.08366334</v>
+      </c>
+      <c r="L531" t="n">
+        <v>71653</v>
+      </c>
+      <c r="M531" t="n">
+        <v>71438</v>
+      </c>
+      <c r="N531" t="n">
+        <v>31765</v>
+      </c>
+      <c r="O531" t="n">
+        <v>31680</v>
+      </c>
+      <c r="P531" t="n">
+        <v>0.9969994277978591</v>
+      </c>
+      <c r="Q531" t="n">
+        <v>0.9973240988509365</v>
+      </c>
+      <c r="R531" t="n">
+        <v>0.1058340740740741</v>
+      </c>
+      <c r="S531" t="n">
+        <v>0.04693333333333333</v>
+      </c>
+      <c r="T531" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D532" t="n">
+        <v>6681.03374892</v>
+      </c>
+      <c r="E532" t="n">
+        <v>72.292137338</v>
+      </c>
+      <c r="F532" t="n">
+        <v>6608.741611580001</v>
+      </c>
+      <c r="G532" t="n">
+        <v>52.46199386466667</v>
+      </c>
+      <c r="H532" t="n">
+        <v>5522.577281832</v>
+      </c>
+      <c r="I532" t="n">
+        <v>65.549924878</v>
+      </c>
+      <c r="J532" t="n">
+        <v>5457.027356956</v>
+      </c>
+      <c r="K532" t="n">
+        <v>53.94450496533332</v>
+      </c>
+      <c r="L532" t="n">
+        <v>71921</v>
+      </c>
+      <c r="M532" t="n">
+        <v>71706</v>
+      </c>
+      <c r="N532" t="n">
+        <v>32033</v>
+      </c>
+      <c r="O532" t="n">
+        <v>31948</v>
+      </c>
+      <c r="P532" t="n">
+        <v>0.9970106088625019</v>
+      </c>
+      <c r="Q532" t="n">
+        <v>0.997346486435863</v>
+      </c>
+      <c r="R532" t="n">
+        <v>0.1062311111111111</v>
+      </c>
+      <c r="S532" t="n">
+        <v>0.04733037037037038</v>
+      </c>
+      <c r="T532" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D533" t="n">
+        <v>6783.28766343</v>
+      </c>
+      <c r="E533" t="n">
+        <v>72.06516332599999</v>
+      </c>
+      <c r="F533" t="n">
+        <v>6711.222500104</v>
+      </c>
+      <c r="G533" t="n">
+        <v>52.34048667266666</v>
+      </c>
+      <c r="H533" t="n">
+        <v>5592.298804904</v>
+      </c>
+      <c r="I533" t="n">
+        <v>65.09871178</v>
+      </c>
+      <c r="J533" t="n">
+        <v>5527.200093124</v>
+      </c>
+      <c r="K533" t="n">
+        <v>53.82299777333333</v>
+      </c>
+      <c r="L533" t="n">
+        <v>72188</v>
+      </c>
+      <c r="M533" t="n">
+        <v>71973</v>
+      </c>
+      <c r="N533" t="n">
+        <v>32300</v>
+      </c>
+      <c r="O533" t="n">
+        <v>32215</v>
+      </c>
+      <c r="P533" t="n">
+        <v>0.9970216656508006</v>
+      </c>
+      <c r="Q533" t="n">
+        <v>0.9973684210526316</v>
+      </c>
+      <c r="R533" t="n">
+        <v>0.1066266666666667</v>
+      </c>
+      <c r="S533" t="n">
+        <v>0.04772592592592592</v>
+      </c>
+      <c r="T533" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D534" t="n">
+        <v>6878.342600798</v>
+      </c>
+      <c r="E534" t="n">
+        <v>71.85817733799999</v>
+      </c>
+      <c r="F534" t="n">
+        <v>6806.48442346</v>
+      </c>
+      <c r="G534" t="n">
+        <v>52.217972882</v>
+      </c>
+      <c r="H534" t="n">
+        <v>5660.730641286</v>
+      </c>
+      <c r="I534" t="n">
+        <v>64.68385387800001</v>
+      </c>
+      <c r="J534" t="n">
+        <v>5596.046787408</v>
+      </c>
+      <c r="K534" t="n">
+        <v>53.700484254</v>
+      </c>
+      <c r="L534" t="n">
+        <v>72433</v>
+      </c>
+      <c r="M534" t="n">
+        <v>72224</v>
+      </c>
+      <c r="N534" t="n">
+        <v>32549</v>
+      </c>
+      <c r="O534" t="n">
+        <v>32466</v>
+      </c>
+      <c r="P534" t="n">
+        <v>0.9971145748484807</v>
+      </c>
+      <c r="Q534" t="n">
+        <v>0.9974499984638545</v>
+      </c>
+      <c r="R534" t="n">
+        <v>0.1069985185185185</v>
+      </c>
+      <c r="S534" t="n">
+        <v>0.04809777777777777</v>
+      </c>
+      <c r="T534" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D535" t="n">
+        <v>6990.652155916</v>
+      </c>
+      <c r="E535" t="n">
+        <v>71.64740945200001</v>
+      </c>
+      <c r="F535" t="n">
+        <v>6919.004746464</v>
+      </c>
+      <c r="G535" t="n">
+        <v>52.08909668933332</v>
+      </c>
+      <c r="H535" t="n">
+        <v>5726.835284408</v>
+      </c>
+      <c r="I535" t="n">
+        <v>64.27199926599999</v>
+      </c>
+      <c r="J535" t="n">
+        <v>5662.563285142</v>
+      </c>
+      <c r="K535" t="n">
+        <v>53.57160806133333</v>
+      </c>
+      <c r="L535" t="n">
+        <v>72685</v>
+      </c>
+      <c r="M535" t="n">
+        <v>72475</v>
+      </c>
+      <c r="N535" t="n">
+        <v>32801</v>
+      </c>
+      <c r="O535" t="n">
+        <v>32717</v>
+      </c>
+      <c r="P535" t="n">
+        <v>0.9971108206645113</v>
+      </c>
+      <c r="Q535" t="n">
+        <v>0.9974391024663882</v>
+      </c>
+      <c r="R535" t="n">
+        <v>0.1073703703703704</v>
+      </c>
+      <c r="S535" t="n">
+        <v>0.04846962962962963</v>
+      </c>
+      <c r="T535" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D536" t="n">
+        <v>7091.627351486</v>
+      </c>
+      <c r="E536" t="n">
+        <v>71.44756600599999</v>
+      </c>
+      <c r="F536" t="n">
+        <v>7020.179785478</v>
+      </c>
+      <c r="G536" t="n">
+        <v>51.971694816</v>
+      </c>
+      <c r="H536" t="n">
+        <v>5794.55802664</v>
+      </c>
+      <c r="I536" t="n">
+        <v>63.881246398</v>
+      </c>
+      <c r="J536" t="n">
+        <v>5730.676780242</v>
+      </c>
+      <c r="K536" t="n">
+        <v>53.45382051266667</v>
+      </c>
+      <c r="L536" t="n">
+        <v>72932</v>
+      </c>
+      <c r="M536" t="n">
+        <v>72720</v>
+      </c>
+      <c r="N536" t="n">
+        <v>33044</v>
+      </c>
+      <c r="O536" t="n">
+        <v>32959</v>
+      </c>
+      <c r="P536" t="n">
+        <v>0.9970931826907256</v>
+      </c>
+      <c r="Q536" t="n">
+        <v>0.9974276721946496</v>
+      </c>
+      <c r="R536" t="n">
+        <v>0.1077333333333333</v>
+      </c>
+      <c r="S536" t="n">
+        <v>0.04882814814814815</v>
+      </c>
+      <c r="T536" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D537" t="n">
+        <v>7179.076770196</v>
+      </c>
+      <c r="E537" t="n">
+        <v>71.25056882</v>
+      </c>
+      <c r="F537" t="n">
+        <v>7107.826201376</v>
+      </c>
+      <c r="G537" t="n">
+        <v>51.84353559133333</v>
+      </c>
+      <c r="H537" t="n">
+        <v>5847.51061843</v>
+      </c>
+      <c r="I537" t="n">
+        <v>63.50254541</v>
+      </c>
+      <c r="J537" t="n">
+        <v>5784.008073018001</v>
+      </c>
+      <c r="K537" t="n">
+        <v>53.32566128800001</v>
+      </c>
+      <c r="L537" t="n">
+        <v>73170</v>
+      </c>
+      <c r="M537" t="n">
+        <v>72958</v>
+      </c>
+      <c r="N537" t="n">
+        <v>33282</v>
+      </c>
+      <c r="O537" t="n">
+        <v>33197</v>
+      </c>
+      <c r="P537" t="n">
+        <v>0.9971026376930436</v>
+      </c>
+      <c r="Q537" t="n">
+        <v>0.9974460669430923</v>
+      </c>
+      <c r="R537" t="n">
+        <v>0.1080859259259259</v>
+      </c>
+      <c r="S537" t="n">
+        <v>0.04918074074074074</v>
+      </c>
+      <c r="T537" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D538" t="n">
+        <v>7261.11818157</v>
+      </c>
+      <c r="E538" t="n">
+        <v>71.06316954600001</v>
+      </c>
+      <c r="F538" t="n">
+        <v>7190.055012024</v>
+      </c>
+      <c r="G538" t="n">
+        <v>51.72988850999999</v>
+      </c>
+      <c r="H538" t="n">
+        <v>5899.305268826</v>
+      </c>
+      <c r="I538" t="n">
+        <v>63.143164886</v>
+      </c>
+      <c r="J538" t="n">
+        <v>5836.16210394</v>
+      </c>
+      <c r="K538" t="n">
+        <v>53.21201427933333</v>
+      </c>
+      <c r="L538" t="n">
+        <v>73397</v>
+      </c>
+      <c r="M538" t="n">
+        <v>73184</v>
+      </c>
+      <c r="N538" t="n">
+        <v>33509</v>
+      </c>
+      <c r="O538" t="n">
+        <v>33423</v>
+      </c>
+      <c r="P538" t="n">
+        <v>0.9970979740316361</v>
+      </c>
+      <c r="Q538" t="n">
+        <v>0.9974335253215554</v>
+      </c>
+      <c r="R538" t="n">
+        <v>0.1084207407407407</v>
+      </c>
+      <c r="S538" t="n">
+        <v>0.04951555555555556</v>
+      </c>
+      <c r="T538" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D539" t="n">
+        <v>7326.251919726</v>
+      </c>
+      <c r="E539" t="n">
+        <v>70.84730693799999</v>
+      </c>
+      <c r="F539" t="n">
+        <v>7255.404612788</v>
+      </c>
+      <c r="G539" t="n">
+        <v>51.61623677600001</v>
+      </c>
+      <c r="H539" t="n">
+        <v>5931.24552498</v>
+      </c>
+      <c r="I539" t="n">
+        <v>62.734586042</v>
+      </c>
+      <c r="J539" t="n">
+        <v>5868.510938938</v>
+      </c>
+      <c r="K539" t="n">
+        <v>53.09836254533334</v>
+      </c>
+      <c r="L539" t="n">
+        <v>73662</v>
+      </c>
+      <c r="M539" t="n">
+        <v>73448</v>
+      </c>
+      <c r="N539" t="n">
+        <v>33774</v>
+      </c>
+      <c r="O539" t="n">
+        <v>33687</v>
+      </c>
+      <c r="P539" t="n">
+        <v>0.9970948385870598</v>
+      </c>
+      <c r="Q539" t="n">
+        <v>0.9974240540060402</v>
+      </c>
+      <c r="R539" t="n">
+        <v>0.1088118518518519</v>
+      </c>
+      <c r="S539" t="n">
+        <v>0.04990666666666667</v>
+      </c>
+      <c r="T539" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D540" t="n">
+        <v>7387.09362747</v>
+      </c>
+      <c r="E540" t="n">
+        <v>70.63700869600001</v>
+      </c>
+      <c r="F540" t="n">
+        <v>7316.456618773999</v>
+      </c>
+      <c r="G540" t="n">
+        <v>51.49178745666666</v>
+      </c>
+      <c r="H540" t="n">
+        <v>5962.072143994</v>
+      </c>
+      <c r="I540" t="n">
+        <v>62.339863312</v>
+      </c>
+      <c r="J540" t="n">
+        <v>5899.732280682</v>
+      </c>
+      <c r="K540" t="n">
+        <v>52.97391322599999</v>
+      </c>
+      <c r="L540" t="n">
+        <v>73921</v>
+      </c>
+      <c r="M540" t="n">
+        <v>73707</v>
+      </c>
+      <c r="N540" t="n">
+        <v>34033</v>
+      </c>
+      <c r="O540" t="n">
+        <v>33946</v>
+      </c>
+      <c r="P540" t="n">
+        <v>0.9971050175187024</v>
+      </c>
+      <c r="Q540" t="n">
+        <v>0.9974436576264214</v>
+      </c>
+      <c r="R540" t="n">
+        <v>0.1091955555555556</v>
+      </c>
+      <c r="S540" t="n">
+        <v>0.05029037037037037</v>
+      </c>
+      <c r="T540" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D541" t="n">
+        <v>7448.750152124</v>
+      </c>
+      <c r="E541" t="n">
+        <v>70.43862994</v>
+      </c>
+      <c r="F541" t="n">
+        <v>7378.311522184001</v>
+      </c>
+      <c r="G541" t="n">
+        <v>51.38105990133334</v>
+      </c>
+      <c r="H541" t="n">
+        <v>5991.024596396001</v>
+      </c>
+      <c r="I541" t="n">
+        <v>61.970490174</v>
+      </c>
+      <c r="J541" t="n">
+        <v>5929.054106224001</v>
+      </c>
+      <c r="K541" t="n">
+        <v>52.86318567066667</v>
+      </c>
+      <c r="L541" t="n">
+        <v>74168</v>
+      </c>
+      <c r="M541" t="n">
+        <v>73953</v>
+      </c>
+      <c r="N541" t="n">
+        <v>34280</v>
+      </c>
+      <c r="O541" t="n">
+        <v>34192</v>
+      </c>
+      <c r="P541" t="n">
+        <v>0.9971011757092008</v>
+      </c>
+      <c r="Q541" t="n">
+        <v>0.9974329054842473</v>
+      </c>
+      <c r="R541" t="n">
+        <v>0.10956</v>
+      </c>
+      <c r="S541" t="n">
+        <v>0.05065481481481482</v>
+      </c>
+      <c r="T541" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D542" t="n">
+        <v>7505.071136924001</v>
+      </c>
+      <c r="E542" t="n">
+        <v>70.23467504</v>
+      </c>
+      <c r="F542" t="n">
+        <v>7434.836461884001</v>
+      </c>
+      <c r="G542" t="n">
+        <v>51.25715598266667</v>
+      </c>
+      <c r="H542" t="n">
+        <v>6017.599134928</v>
+      </c>
+      <c r="I542" t="n">
+        <v>61.59312587</v>
+      </c>
+      <c r="J542" t="n">
+        <v>5956.006009058</v>
+      </c>
+      <c r="K542" t="n">
+        <v>52.73928180066667</v>
+      </c>
+      <c r="L542" t="n">
+        <v>74424</v>
+      </c>
+      <c r="M542" t="n">
+        <v>74209</v>
+      </c>
+      <c r="N542" t="n">
+        <v>34536</v>
+      </c>
+      <c r="O542" t="n">
+        <v>34448</v>
+      </c>
+      <c r="P542" t="n">
+        <v>0.9971111469418468</v>
+      </c>
+      <c r="Q542" t="n">
+        <v>0.9974519342135743</v>
+      </c>
+      <c r="R542" t="n">
+        <v>0.1099392592592593</v>
+      </c>
+      <c r="S542" t="n">
+        <v>0.05103407407407408</v>
+      </c>
+      <c r="T542" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D543" t="n">
+        <v>7560.574884484</v>
+      </c>
+      <c r="E543" t="n">
+        <v>70.04437996999999</v>
+      </c>
+      <c r="F543" t="n">
+        <v>7490.530504514</v>
+      </c>
+      <c r="G543" t="n">
+        <v>51.13834125533333</v>
+      </c>
+      <c r="H543" t="n">
+        <v>6040.175397122001</v>
+      </c>
+      <c r="I543" t="n">
+        <v>61.244241358</v>
+      </c>
+      <c r="J543" t="n">
+        <v>5978.931155763999</v>
+      </c>
+      <c r="K543" t="n">
+        <v>52.62046707333333</v>
+      </c>
+      <c r="L543" t="n">
+        <v>74663</v>
+      </c>
+      <c r="M543" t="n">
+        <v>74448</v>
+      </c>
+      <c r="N543" t="n">
+        <v>34775</v>
+      </c>
+      <c r="O543" t="n">
+        <v>34687</v>
+      </c>
+      <c r="P543" t="n">
+        <v>0.9971203943050775</v>
+      </c>
+      <c r="Q543" t="n">
+        <v>0.9974694464414091</v>
+      </c>
+      <c r="R543" t="n">
+        <v>0.1102933333333333</v>
+      </c>
+      <c r="S543" t="n">
+        <v>0.05138814814814815</v>
+      </c>
+      <c r="T543" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D544" t="n">
+        <v>7591.05805099</v>
+      </c>
+      <c r="E544" t="n">
+        <v>70.736876986</v>
+      </c>
+      <c r="F544" t="n">
+        <v>7520.321174004</v>
+      </c>
+      <c r="G544" t="n">
+        <v>51.52702907533333</v>
+      </c>
+      <c r="H544" t="n">
+        <v>6044.979216972</v>
+      </c>
+      <c r="I544" t="n">
+        <v>61.154794756</v>
+      </c>
+      <c r="J544" t="n">
+        <v>5983.824422213999</v>
+      </c>
+      <c r="K544" t="n">
+        <v>52.95588456266667</v>
+      </c>
+      <c r="L544" t="n">
+        <v>74152</v>
+      </c>
+      <c r="M544" t="n">
+        <v>73935</v>
+      </c>
+      <c r="N544" t="n">
+        <v>34876</v>
+      </c>
+      <c r="O544" t="n">
+        <v>34788</v>
+      </c>
+      <c r="P544" t="n">
+        <v>0.9970735785953178</v>
+      </c>
+      <c r="Q544" t="n">
+        <v>0.9974767748595023</v>
+      </c>
+      <c r="R544" t="n">
+        <v>0.1095333333333333</v>
+      </c>
+      <c r="S544" t="n">
+        <v>0.05153777777777777</v>
+      </c>
+      <c r="T544" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D545" t="n">
+        <v>7631.984243796001</v>
+      </c>
+      <c r="E545" t="n">
+        <v>70.530845228</v>
+      </c>
+      <c r="F545" t="n">
+        <v>7561.453398568</v>
+      </c>
+      <c r="G545" t="n">
+        <v>51.40612024533333</v>
+      </c>
+      <c r="H545" t="n">
+        <v>6056.863351024</v>
+      </c>
+      <c r="I545" t="n">
+        <v>60.788249728</v>
+      </c>
+      <c r="J545" t="n">
+        <v>5996.075101296</v>
+      </c>
+      <c r="K545" t="n">
+        <v>52.834975772</v>
+      </c>
+      <c r="L545" t="n">
+        <v>74410</v>
+      </c>
+      <c r="M545" t="n">
+        <v>74193</v>
+      </c>
+      <c r="N545" t="n">
+        <v>35134</v>
+      </c>
+      <c r="O545" t="n">
+        <v>35046</v>
+      </c>
+      <c r="P545" t="n">
+        <v>0.9970837253057385</v>
+      </c>
+      <c r="Q545" t="n">
+        <v>0.9974953036944271</v>
+      </c>
+      <c r="R545" t="n">
+        <v>0.1099155555555556</v>
+      </c>
+      <c r="S545" t="n">
+        <v>0.05192</v>
+      </c>
+      <c r="T545" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D546" t="n">
+        <v>7672.768928048</v>
+      </c>
+      <c r="E546" t="n">
+        <v>70.32295542199999</v>
+      </c>
+      <c r="F546" t="n">
+        <v>7602.445972628</v>
+      </c>
+      <c r="G546" t="n">
+        <v>51.29037651199999</v>
+      </c>
+      <c r="H546" t="n">
+        <v>6069.707386846</v>
+      </c>
+      <c r="I546" t="n">
+        <v>60.421599728</v>
+      </c>
+      <c r="J546" t="n">
+        <v>6009.285787118</v>
+      </c>
+      <c r="K546" t="n">
+        <v>52.71923203866667</v>
+      </c>
+      <c r="L546" t="n">
+        <v>74671</v>
+      </c>
+      <c r="M546" t="n">
+        <v>74453</v>
+      </c>
+      <c r="N546" t="n">
+        <v>35395</v>
+      </c>
+      <c r="O546" t="n">
+        <v>35306</v>
+      </c>
+      <c r="P546" t="n">
+        <v>0.9970805265765826</v>
+      </c>
+      <c r="Q546" t="n">
+        <v>0.9974855205537505</v>
+      </c>
+      <c r="R546" t="n">
+        <v>0.1103007407407407</v>
+      </c>
+      <c r="S546" t="n">
+        <v>0.05230518518518518</v>
+      </c>
+      <c r="T546" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D547" t="n">
+        <v>7708.20904575</v>
+      </c>
+      <c r="E547" t="n">
+        <v>70.13709213200001</v>
+      </c>
+      <c r="F547" t="n">
+        <v>7638.071953619999</v>
+      </c>
+      <c r="G547" t="n">
+        <v>51.18299795200001</v>
+      </c>
+      <c r="H547" t="n">
+        <v>6080.869077096</v>
+      </c>
+      <c r="I547" t="n">
+        <v>60.096201464</v>
+      </c>
+      <c r="J547" t="n">
+        <v>6020.772875633999</v>
+      </c>
+      <c r="K547" t="n">
+        <v>52.61185347866667</v>
+      </c>
+      <c r="L547" t="n">
+        <v>74905</v>
+      </c>
+      <c r="M547" t="n">
+        <v>74687</v>
+      </c>
+      <c r="N547" t="n">
+        <v>35629</v>
+      </c>
+      <c r="O547" t="n">
+        <v>35540</v>
+      </c>
+      <c r="P547" t="n">
+        <v>0.9970896468860557</v>
+      </c>
+      <c r="Q547" t="n">
+        <v>0.9975020348592438</v>
+      </c>
+      <c r="R547" t="n">
+        <v>0.1106474074074074</v>
+      </c>
+      <c r="S547" t="n">
+        <v>0.05265185185185185</v>
+      </c>
+      <c r="T547" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D548" t="n">
+        <v>7746.032491456001</v>
+      </c>
+      <c r="E548" t="n">
+        <v>69.95959258799999</v>
+      </c>
+      <c r="F548" t="n">
+        <v>7676.072898868</v>
+      </c>
+      <c r="G548" t="n">
+        <v>51.09820584533334</v>
+      </c>
+      <c r="H548" t="n">
+        <v>6092.74905634</v>
+      </c>
+      <c r="I548" t="n">
+        <v>59.787585628</v>
+      </c>
+      <c r="J548" t="n">
+        <v>6032.961470712</v>
+      </c>
+      <c r="K548" t="n">
+        <v>52.52706137200001</v>
+      </c>
+      <c r="L548" t="n">
+        <v>75130</v>
+      </c>
+      <c r="M548" t="n">
+        <v>74912</v>
+      </c>
+      <c r="N548" t="n">
+        <v>35854</v>
+      </c>
+      <c r="O548" t="n">
+        <v>35765</v>
+      </c>
+      <c r="P548" t="n">
+        <v>0.9970983628377479</v>
+      </c>
+      <c r="Q548" t="n">
+        <v>0.9975177107156803</v>
+      </c>
+      <c r="R548" t="n">
+        <v>0.1109807407407407</v>
+      </c>
+      <c r="S548" t="n">
+        <v>0.05298518518518518</v>
+      </c>
+      <c r="T548" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D549" t="n">
+        <v>7785.913254648</v>
+      </c>
+      <c r="E549" t="n">
+        <v>69.77235166600001</v>
+      </c>
+      <c r="F549" t="n">
+        <v>7716.140902982001</v>
+      </c>
+      <c r="G549" t="n">
+        <v>51.00774241266667</v>
+      </c>
+      <c r="H549" t="n">
+        <v>6105.233335184001</v>
+      </c>
+      <c r="I549" t="n">
+        <v>59.464281746</v>
+      </c>
+      <c r="J549" t="n">
+        <v>6045.769053438001</v>
+      </c>
+      <c r="K549" t="n">
+        <v>52.43659793933333</v>
+      </c>
+      <c r="L549" t="n">
+        <v>75369</v>
+      </c>
+      <c r="M549" t="n">
+        <v>75151</v>
+      </c>
+      <c r="N549" t="n">
+        <v>36093</v>
+      </c>
+      <c r="O549" t="n">
+        <v>36004</v>
+      </c>
+      <c r="P549" t="n">
+        <v>0.9971075641178734</v>
+      </c>
+      <c r="Q549" t="n">
+        <v>0.9975341478957138</v>
+      </c>
+      <c r="R549" t="n">
+        <v>0.1113348148148148</v>
+      </c>
+      <c r="S549" t="n">
+        <v>0.05333925925925926</v>
+      </c>
+      <c r="T549" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D550" t="n">
+        <v>7819.818725708001</v>
+      </c>
+      <c r="E550" t="n">
+        <v>69.59237493799999</v>
+      </c>
+      <c r="F550" t="n">
+        <v>7750.226350768</v>
+      </c>
+      <c r="G550" t="n">
+        <v>50.92341807933333</v>
+      </c>
+      <c r="H550" t="n">
+        <v>6117.702423004001</v>
+      </c>
+      <c r="I550" t="n">
+        <v>59.154542444</v>
+      </c>
+      <c r="J550" t="n">
+        <v>6058.547880560001</v>
+      </c>
+      <c r="K550" t="n">
+        <v>52.352273664</v>
+      </c>
+      <c r="L550" t="n">
+        <v>75602</v>
+      </c>
+      <c r="M550" t="n">
+        <v>75383</v>
+      </c>
+      <c r="N550" t="n">
+        <v>36326</v>
+      </c>
+      <c r="O550" t="n">
+        <v>36236</v>
+      </c>
+      <c r="P550" t="n">
+        <v>0.9971032512367398</v>
+      </c>
+      <c r="Q550" t="n">
+        <v>0.9975224357209712</v>
+      </c>
+      <c r="R550" t="n">
+        <v>0.1116785185185185</v>
+      </c>
+      <c r="S550" t="n">
+        <v>0.05368296296296297</v>
+      </c>
+      <c r="T550" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D551" t="n">
+        <v>7852.620493008</v>
+      </c>
+      <c r="E551" t="n">
+        <v>69.441973088</v>
+      </c>
+      <c r="F551" t="n">
+        <v>7783.17851992</v>
+      </c>
+      <c r="G551" t="n">
+        <v>50.83858159533333</v>
+      </c>
+      <c r="H551" t="n">
+        <v>6142.078149876001</v>
+      </c>
+      <c r="I551" t="n">
+        <v>58.898105956</v>
+      </c>
+      <c r="J551" t="n">
+        <v>6083.18004392</v>
+      </c>
+      <c r="K551" t="n">
+        <v>52.26743718</v>
+      </c>
+      <c r="L551" t="n">
+        <v>75795</v>
+      </c>
+      <c r="M551" t="n">
+        <v>75577</v>
+      </c>
+      <c r="N551" t="n">
+        <v>36519</v>
+      </c>
+      <c r="O551" t="n">
+        <v>36430</v>
+      </c>
+      <c r="P551" t="n">
+        <v>0.9971238208325087</v>
+      </c>
+      <c r="Q551" t="n">
+        <v>0.9975629124565295</v>
+      </c>
+      <c r="R551" t="n">
+        <v>0.1119659259259259</v>
+      </c>
+      <c r="S551" t="n">
+        <v>0.05397037037037038</v>
+      </c>
+      <c r="T551" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C552" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D552" t="n">
+        <v>7920.21149246</v>
+      </c>
+      <c r="E552" t="n">
+        <v>69.371800124</v>
+      </c>
+      <c r="F552" t="n">
+        <v>7850.839692336</v>
+      </c>
+      <c r="G552" t="n">
+        <v>50.77083833733333</v>
+      </c>
+      <c r="H552" t="n">
+        <v>6221.929764512</v>
+      </c>
+      <c r="I552" t="n">
+        <v>58.778696604</v>
+      </c>
+      <c r="J552" t="n">
+        <v>6163.151067908</v>
+      </c>
+      <c r="K552" t="n">
+        <v>52.199693922</v>
+      </c>
+      <c r="L552" t="n">
+        <v>75886</v>
+      </c>
+      <c r="M552" t="n">
+        <v>75667</v>
+      </c>
+      <c r="N552" t="n">
+        <v>36610</v>
+      </c>
+      <c r="O552" t="n">
+        <v>36520</v>
+      </c>
+      <c r="P552" t="n">
+        <v>0.997114092190918</v>
+      </c>
+      <c r="Q552" t="n">
+        <v>0.9975416552854411</v>
+      </c>
+      <c r="R552" t="n">
+        <v>0.1120992592592592</v>
+      </c>
+      <c r="S552" t="n">
+        <v>0.0541037037037037</v>
+      </c>
+      <c r="T552" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D553" t="n">
+        <v>8009.595494484</v>
+      </c>
+      <c r="E553" t="n">
+        <v>69.35791768600001</v>
+      </c>
+      <c r="F553" t="n">
+        <v>7940.237576798</v>
+      </c>
+      <c r="G553" t="n">
+        <v>50.757030216</v>
+      </c>
+      <c r="H553" t="n">
+        <v>6339.0312825</v>
+      </c>
+      <c r="I553" t="n">
+        <v>58.75515901199999</v>
+      </c>
+      <c r="J553" t="n">
+        <v>6280.276123488</v>
+      </c>
+      <c r="K553" t="n">
+        <v>52.18588580066666</v>
+      </c>
+      <c r="L553" t="n">
+        <v>75905</v>
+      </c>
+      <c r="M553" t="n">
+        <v>75685</v>
+      </c>
+      <c r="N553" t="n">
+        <v>36629</v>
+      </c>
+      <c r="O553" t="n">
+        <v>36538</v>
+      </c>
+      <c r="P553" t="n">
+        <v>0.9971016402081549</v>
+      </c>
+      <c r="Q553" t="n">
+        <v>0.9975156296923203</v>
+      </c>
+      <c r="R553" t="n">
+        <v>0.1121259259259259</v>
+      </c>
+      <c r="S553" t="n">
+        <v>0.05413037037037038</v>
+      </c>
+      <c r="T553" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D554" t="n">
+        <v>8090.394921456</v>
+      </c>
+      <c r="E554" t="n">
+        <v>69.35256503399999</v>
+      </c>
+      <c r="F554" t="n">
+        <v>8021.042356422</v>
+      </c>
+      <c r="G554" t="n">
+        <v>50.752258512</v>
+      </c>
+      <c r="H554" t="n">
+        <v>6442.935555374001</v>
+      </c>
+      <c r="I554" t="n">
+        <v>58.748132338</v>
+      </c>
+      <c r="J554" t="n">
+        <v>6384.187423036</v>
+      </c>
+      <c r="K554" t="n">
+        <v>52.18096627066667</v>
+      </c>
+      <c r="L554" t="n">
+        <v>75910</v>
+      </c>
+      <c r="M554" t="n">
+        <v>75691</v>
+      </c>
+      <c r="N554" t="n">
+        <v>36634</v>
+      </c>
+      <c r="O554" t="n">
+        <v>36543</v>
+      </c>
+      <c r="P554" t="n">
+        <v>0.9971150046107232</v>
+      </c>
+      <c r="Q554" t="n">
+        <v>0.9975159687721789</v>
+      </c>
+      <c r="R554" t="n">
+        <v>0.1121348148148148</v>
+      </c>
+      <c r="S554" t="n">
+        <v>0.05413777777777777</v>
+      </c>
+      <c r="T554" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D555" t="n">
+        <v>8164.824615872</v>
+      </c>
+      <c r="E555" t="n">
+        <v>69.35301422800001</v>
+      </c>
+      <c r="F555" t="n">
+        <v>8095.471601644</v>
+      </c>
+      <c r="G555" t="n">
+        <v>50.75281084533333</v>
+      </c>
+      <c r="H555" t="n">
+        <v>6547.085187314</v>
+      </c>
+      <c r="I555" t="n">
+        <v>58.749062748</v>
+      </c>
+      <c r="J555" t="n">
+        <v>6488.336124566</v>
+      </c>
+      <c r="K555" t="n">
+        <v>52.181518604</v>
+      </c>
+      <c r="L555" t="n">
+        <v>75910</v>
+      </c>
+      <c r="M555" t="n">
+        <v>75691</v>
+      </c>
+      <c r="N555" t="n">
+        <v>36634</v>
+      </c>
+      <c r="O555" t="n">
+        <v>36543</v>
+      </c>
+      <c r="P555" t="n">
+        <v>0.9971150046107232</v>
+      </c>
+      <c r="Q555" t="n">
+        <v>0.9975159687721789</v>
+      </c>
+      <c r="R555" t="n">
+        <v>0.1121348148148148</v>
+      </c>
+      <c r="S555" t="n">
+        <v>0.05413777777777777</v>
+      </c>
+      <c r="T555" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C556" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D556" t="n">
+        <v>8239.453391285999</v>
+      </c>
+      <c r="E556" t="n">
+        <v>69.350701508</v>
+      </c>
+      <c r="F556" t="n">
+        <v>8170.102689778</v>
+      </c>
+      <c r="G556" t="n">
+        <v>50.75199967333333</v>
+      </c>
+      <c r="H556" t="n">
+        <v>6644.947928638</v>
+      </c>
+      <c r="I556" t="n">
+        <v>58.74514310799999</v>
+      </c>
+      <c r="J556" t="n">
+        <v>6586.20278553</v>
+      </c>
+      <c r="K556" t="n">
+        <v>52.18070743200001</v>
+      </c>
+      <c r="L556" t="n">
+        <v>75913</v>
+      </c>
+      <c r="M556" t="n">
+        <v>75694</v>
+      </c>
+      <c r="N556" t="n">
+        <v>36637</v>
+      </c>
+      <c r="O556" t="n">
+        <v>36546</v>
+      </c>
+      <c r="P556" t="n">
+        <v>0.9971151186226338</v>
+      </c>
+      <c r="Q556" t="n">
+        <v>0.9975161721756695</v>
+      </c>
+      <c r="R556" t="n">
+        <v>0.1121392592592593</v>
+      </c>
+      <c r="S556" t="n">
+        <v>0.05414222222222222</v>
+      </c>
+      <c r="T556" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C557" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D557" t="n">
+        <v>8316.649981504001</v>
+      </c>
+      <c r="E557" t="n">
+        <v>69.34934474800001</v>
+      </c>
+      <c r="F557" t="n">
+        <v>8247.300636758</v>
+      </c>
+      <c r="G557" t="n">
+        <v>50.75141598933333</v>
+      </c>
+      <c r="H557" t="n">
+        <v>6744.736264638</v>
+      </c>
+      <c r="I557" t="n">
+        <v>58.742913428</v>
+      </c>
+      <c r="J557" t="n">
+        <v>6685.99335121</v>
+      </c>
+      <c r="K557" t="n">
+        <v>52.18012374800001</v>
+      </c>
+      <c r="L557" t="n">
+        <v>75914</v>
+      </c>
+      <c r="M557" t="n">
+        <v>75696</v>
+      </c>
+      <c r="N557" t="n">
+        <v>36638</v>
+      </c>
+      <c r="O557" t="n">
+        <v>36548</v>
+      </c>
+      <c r="P557" t="n">
+        <v>0.9971283294254024</v>
+      </c>
+      <c r="Q557" t="n">
+        <v>0.9975435340357006</v>
+      </c>
+      <c r="R557" t="n">
+        <v>0.1121422222222222</v>
+      </c>
+      <c r="S557" t="n">
+        <v>0.05414518518518519</v>
+      </c>
+      <c r="T557" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D558" t="n">
+        <v>8388.393405373999</v>
+      </c>
+      <c r="E558" t="n">
+        <v>69.348225844</v>
+      </c>
+      <c r="F558" t="n">
+        <v>8319.04517953</v>
+      </c>
+      <c r="G558" t="n">
+        <v>50.75117118266667</v>
+      </c>
+      <c r="H558" t="n">
+        <v>6849.587239048001</v>
+      </c>
+      <c r="I558" t="n">
+        <v>58.741306192</v>
+      </c>
+      <c r="J558" t="n">
+        <v>6790.845932857999</v>
+      </c>
+      <c r="K558" t="n">
+        <v>52.17973120266667</v>
+      </c>
+      <c r="L558" t="n">
+        <v>75915</v>
+      </c>
+      <c r="M558" t="n">
+        <v>75698</v>
+      </c>
+      <c r="N558" t="n">
+        <v>36639</v>
+      </c>
+      <c r="O558" t="n">
+        <v>36549</v>
+      </c>
+      <c r="P558" t="n">
+        <v>0.9971415398801291</v>
+      </c>
+      <c r="Q558" t="n">
+        <v>0.9975436010808155</v>
+      </c>
+      <c r="R558" t="n">
+        <v>0.1121451851851852</v>
+      </c>
+      <c r="S558" t="n">
+        <v>0.05414666666666667</v>
+      </c>
+      <c r="T558" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D559" t="n">
+        <v>8458.08270915</v>
+      </c>
+      <c r="E559" t="n">
+        <v>69.347455052</v>
+      </c>
+      <c r="F559" t="n">
+        <v>8388.735254097999</v>
+      </c>
+      <c r="G559" t="n">
+        <v>50.75117118266667</v>
+      </c>
+      <c r="H559" t="n">
+        <v>6947.072366622</v>
+      </c>
+      <c r="I559" t="n">
+        <v>58.74</v>
+      </c>
+      <c r="J559" t="n">
+        <v>6888.332366622</v>
+      </c>
+      <c r="K559" t="n">
+        <v>52.17973120266667</v>
+      </c>
+      <c r="L559" t="n">
+        <v>75915</v>
+      </c>
+      <c r="M559" t="n">
+        <v>75699</v>
+      </c>
+      <c r="N559" t="n">
+        <v>36639</v>
+      </c>
+      <c r="O559" t="n">
+        <v>36550</v>
+      </c>
+      <c r="P559" t="n">
+        <v>0.9971547125074096</v>
+      </c>
+      <c r="Q559" t="n">
+        <v>0.9975708944021398</v>
+      </c>
+      <c r="R559" t="n">
+        <v>0.1121466666666667</v>
+      </c>
+      <c r="S559" t="n">
+        <v>0.05414814814814815</v>
+      </c>
+      <c r="T559" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D560" t="n">
+        <v>8528.819931571999</v>
+      </c>
+      <c r="E560" t="n">
+        <v>69.348749654</v>
+      </c>
+      <c r="F560" t="n">
+        <v>8459.471181918001</v>
+      </c>
+      <c r="G560" t="n">
+        <v>50.75238578333333</v>
+      </c>
+      <c r="H560" t="n">
+        <v>7040.493077976</v>
+      </c>
+      <c r="I560" t="n">
+        <v>58.741805746</v>
+      </c>
+      <c r="J560" t="n">
+        <v>6981.75127223</v>
+      </c>
+      <c r="K560" t="n">
+        <v>52.18094585333334</v>
+      </c>
+      <c r="L560" t="n">
+        <v>75915</v>
+      </c>
+      <c r="M560" t="n">
+        <v>75699</v>
+      </c>
+      <c r="N560" t="n">
+        <v>36639</v>
+      </c>
+      <c r="O560" t="n">
+        <v>36550</v>
+      </c>
+      <c r="P560" t="n">
+        <v>0.9971547125074096</v>
+      </c>
+      <c r="Q560" t="n">
+        <v>0.9975708944021398</v>
+      </c>
+      <c r="R560" t="n">
+        <v>0.1121466666666667</v>
+      </c>
+      <c r="S560" t="n">
+        <v>0.05414814814814815</v>
+      </c>
+      <c r="T560" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C561" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D561" t="n">
+        <v>8591.550389030001</v>
+      </c>
+      <c r="E561" t="n">
+        <v>69.34730056400001</v>
+      </c>
+      <c r="F561" t="n">
+        <v>8522.203088466</v>
+      </c>
+      <c r="G561" t="n">
+        <v>50.752499488</v>
+      </c>
+      <c r="H561" t="n">
+        <v>7132.746717006</v>
+      </c>
+      <c r="I561" t="n">
+        <v>58.739384986</v>
+      </c>
+      <c r="J561" t="n">
+        <v>7074.00733202</v>
+      </c>
+      <c r="K561" t="n">
+        <v>52.18105955800001</v>
+      </c>
+      <c r="L561" t="n">
+        <v>75917</v>
+      </c>
+      <c r="M561" t="n">
+        <v>75701</v>
+      </c>
+      <c r="N561" t="n">
+        <v>36641</v>
+      </c>
+      <c r="O561" t="n">
+        <v>36552</v>
+      </c>
+      <c r="P561" t="n">
+        <v>0.9971547874652581</v>
+      </c>
+      <c r="Q561" t="n">
+        <v>0.9975710269916214</v>
+      </c>
+      <c r="R561" t="n">
+        <v>0.1121496296296296</v>
+      </c>
+      <c r="S561" t="n">
+        <v>0.05415111111111112</v>
+      </c>
+      <c r="T561" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D562" t="n">
+        <v>8656.652752275999</v>
+      </c>
+      <c r="E562" t="n">
+        <v>69.34730056400001</v>
+      </c>
+      <c r="F562" t="n">
+        <v>8587.305451712</v>
+      </c>
+      <c r="G562" t="n">
+        <v>50.752499488</v>
+      </c>
+      <c r="H562" t="n">
+        <v>7223.530750712</v>
+      </c>
+      <c r="I562" t="n">
+        <v>58.739384986</v>
+      </c>
+      <c r="J562" t="n">
+        <v>7164.791365726</v>
+      </c>
+      <c r="K562" t="n">
+        <v>52.18105955800001</v>
+      </c>
+      <c r="L562" t="n">
+        <v>75917</v>
+      </c>
+      <c r="M562" t="n">
+        <v>75701</v>
+      </c>
+      <c r="N562" t="n">
+        <v>36641</v>
+      </c>
+      <c r="O562" t="n">
+        <v>36552</v>
+      </c>
+      <c r="P562" t="n">
+        <v>0.9971547874652581</v>
+      </c>
+      <c r="Q562" t="n">
+        <v>0.9975710269916214</v>
+      </c>
+      <c r="R562" t="n">
+        <v>0.1121496296296296</v>
+      </c>
+      <c r="S562" t="n">
+        <v>0.05415111111111112</v>
+      </c>
+      <c r="T562" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C563" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D563" t="n">
+        <v>8723.785471790001</v>
+      </c>
+      <c r="E563" t="n">
+        <v>69.34730056400001</v>
+      </c>
+      <c r="F563" t="n">
+        <v>8654.438171226</v>
+      </c>
+      <c r="G563" t="n">
+        <v>50.752499488</v>
+      </c>
+      <c r="H563" t="n">
+        <v>7317.245458524</v>
+      </c>
+      <c r="I563" t="n">
+        <v>58.739384986</v>
+      </c>
+      <c r="J563" t="n">
+        <v>7258.50607354</v>
+      </c>
+      <c r="K563" t="n">
+        <v>52.18105955800001</v>
+      </c>
+      <c r="L563" t="n">
+        <v>75917</v>
+      </c>
+      <c r="M563" t="n">
+        <v>75701</v>
+      </c>
+      <c r="N563" t="n">
+        <v>36641</v>
+      </c>
+      <c r="O563" t="n">
+        <v>36552</v>
+      </c>
+      <c r="P563" t="n">
+        <v>0.9971547874652581</v>
+      </c>
+      <c r="Q563" t="n">
+        <v>0.9975710269916214</v>
+      </c>
+      <c r="R563" t="n">
+        <v>0.1121496296296296</v>
+      </c>
+      <c r="S563" t="n">
+        <v>0.05415111111111112</v>
+      </c>
+      <c r="T563" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C564" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D564" t="n">
+        <v>8780.868487794001</v>
+      </c>
+      <c r="E564" t="n">
+        <v>69.283881962</v>
+      </c>
+      <c r="F564" t="n">
+        <v>8711.584605833999</v>
+      </c>
+      <c r="G564" t="n">
+        <v>50.71959188066667</v>
+      </c>
+      <c r="H564" t="n">
+        <v>7399.664204422</v>
+      </c>
+      <c r="I564" t="n">
+        <v>58.739685926</v>
+      </c>
+      <c r="J564" t="n">
+        <v>7340.924518494</v>
+      </c>
+      <c r="K564" t="n">
+        <v>52.181398636</v>
+      </c>
+      <c r="L564" t="n">
+        <v>75922</v>
+      </c>
+      <c r="M564" t="n">
+        <v>75704</v>
+      </c>
+      <c r="N564" t="n">
+        <v>36642</v>
+      </c>
+      <c r="O564" t="n">
+        <v>36552</v>
+      </c>
+      <c r="P564" t="n">
+        <v>0.9971286320170701</v>
+      </c>
+      <c r="Q564" t="n">
+        <v>0.9975438021942034</v>
+      </c>
+      <c r="R564" t="n">
+        <v>0.1121540740740741</v>
+      </c>
+      <c r="S564" t="n">
+        <v>0.05415111111111112</v>
+      </c>
+      <c r="T564" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C565" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D565" t="n">
+        <v>8837.069586812</v>
+      </c>
+      <c r="E565" t="n">
+        <v>69.283961218</v>
+      </c>
+      <c r="F565" t="n">
+        <v>8767.785625593999</v>
+      </c>
+      <c r="G565" t="n">
+        <v>50.719689342</v>
+      </c>
+      <c r="H565" t="n">
+        <v>7479.722641716</v>
+      </c>
+      <c r="I565" t="n">
+        <v>58.739850076</v>
+      </c>
+      <c r="J565" t="n">
+        <v>7420.982791640001</v>
+      </c>
+      <c r="K565" t="n">
+        <v>52.18149609733333</v>
+      </c>
+      <c r="L565" t="n">
+        <v>75922</v>
+      </c>
+      <c r="M565" t="n">
+        <v>75704</v>
+      </c>
+      <c r="N565" t="n">
+        <v>36642</v>
+      </c>
+      <c r="O565" t="n">
+        <v>36552</v>
+      </c>
+      <c r="P565" t="n">
+        <v>0.9971286320170701</v>
+      </c>
+      <c r="Q565" t="n">
+        <v>0.9975438021942034</v>
+      </c>
+      <c r="R565" t="n">
+        <v>0.1121540740740741</v>
+      </c>
+      <c r="S565" t="n">
+        <v>0.05415111111111112</v>
+      </c>
+      <c r="T565" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C566" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D566" t="n">
+        <v>8894.425472894</v>
+      </c>
+      <c r="E566" t="n">
+        <v>69.283961218</v>
+      </c>
+      <c r="F566" t="n">
+        <v>8825.141511678001</v>
+      </c>
+      <c r="G566" t="n">
+        <v>50.719689342</v>
+      </c>
+      <c r="H566" t="n">
+        <v>7560.050448676</v>
+      </c>
+      <c r="I566" t="n">
+        <v>58.739850076</v>
+      </c>
+      <c r="J566" t="n">
+        <v>7501.3105986</v>
+      </c>
+      <c r="K566" t="n">
+        <v>52.18149609733333</v>
+      </c>
+      <c r="L566" t="n">
+        <v>75922</v>
+      </c>
+      <c r="M566" t="n">
+        <v>75704</v>
+      </c>
+      <c r="N566" t="n">
+        <v>36642</v>
+      </c>
+      <c r="O566" t="n">
+        <v>36552</v>
+      </c>
+      <c r="P566" t="n">
+        <v>0.9971286320170701</v>
+      </c>
+      <c r="Q566" t="n">
+        <v>0.9975438021942034</v>
+      </c>
+      <c r="R566" t="n">
+        <v>0.1121540740740741</v>
+      </c>
+      <c r="S566" t="n">
+        <v>0.05415111111111112</v>
+      </c>
+      <c r="T566" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D567" t="n">
+        <v>8951.789971467999</v>
+      </c>
+      <c r="E567" t="n">
+        <v>69.283961218</v>
+      </c>
+      <c r="F567" t="n">
+        <v>8882.506010250001</v>
+      </c>
+      <c r="G567" t="n">
+        <v>50.719689342</v>
+      </c>
+      <c r="H567" t="n">
+        <v>7642.099310572</v>
+      </c>
+      <c r="I567" t="n">
+        <v>58.739850076</v>
+      </c>
+      <c r="J567" t="n">
+        <v>7583.359460494001</v>
+      </c>
+      <c r="K567" t="n">
+        <v>52.18149609733333</v>
+      </c>
+      <c r="L567" t="n">
+        <v>75922</v>
+      </c>
+      <c r="M567" t="n">
+        <v>75704</v>
+      </c>
+      <c r="N567" t="n">
+        <v>36642</v>
+      </c>
+      <c r="O567" t="n">
+        <v>36552</v>
+      </c>
+      <c r="P567" t="n">
+        <v>0.9971286320170701</v>
+      </c>
+      <c r="Q567" t="n">
+        <v>0.9975438021942034</v>
+      </c>
+      <c r="R567" t="n">
+        <v>0.1121540740740741</v>
+      </c>
+      <c r="S567" t="n">
+        <v>0.05415111111111112</v>
+      </c>
+      <c r="T567" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D568" t="n">
+        <v>9005.093337208</v>
+      </c>
+      <c r="E568" t="n">
+        <v>69.283961218</v>
+      </c>
+      <c r="F568" t="n">
+        <v>8935.80937599</v>
+      </c>
+      <c r="G568" t="n">
+        <v>50.719689342</v>
+      </c>
+      <c r="H568" t="n">
+        <v>7712.965528562</v>
+      </c>
+      <c r="I568" t="n">
+        <v>58.739850076</v>
+      </c>
+      <c r="J568" t="n">
+        <v>7654.225678486</v>
+      </c>
+      <c r="K568" t="n">
+        <v>52.18149609733333</v>
+      </c>
+      <c r="L568" t="n">
+        <v>75922</v>
+      </c>
+      <c r="M568" t="n">
+        <v>75704</v>
+      </c>
+      <c r="N568" t="n">
+        <v>36642</v>
+      </c>
+      <c r="O568" t="n">
+        <v>36552</v>
+      </c>
+      <c r="P568" t="n">
+        <v>0.9971286320170701</v>
+      </c>
+      <c r="Q568" t="n">
+        <v>0.9975438021942034</v>
+      </c>
+      <c r="R568" t="n">
+        <v>0.1121540740740741</v>
+      </c>
+      <c r="S568" t="n">
+        <v>0.05415111111111112</v>
+      </c>
+      <c r="T568" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D569" t="n">
+        <v>9059.724717320001</v>
+      </c>
+      <c r="E569" t="n">
+        <v>69.28409331</v>
+      </c>
+      <c r="F569" t="n">
+        <v>8990.44062401</v>
+      </c>
+      <c r="G569" t="n">
+        <v>50.71985177733333</v>
+      </c>
+      <c r="H569" t="n">
+        <v>7791.748796236</v>
+      </c>
+      <c r="I569" t="n">
+        <v>58.74012365999999</v>
+      </c>
+      <c r="J569" t="n">
+        <v>7733.008672576</v>
+      </c>
+      <c r="K569" t="n">
+        <v>52.18165853266666</v>
+      </c>
+      <c r="L569" t="n">
+        <v>75922</v>
+      </c>
+      <c r="M569" t="n">
+        <v>75704</v>
+      </c>
+      <c r="N569" t="n">
+        <v>36642</v>
+      </c>
+      <c r="O569" t="n">
+        <v>36552</v>
+      </c>
+      <c r="P569" t="n">
+        <v>0.9971286320170701</v>
+      </c>
+      <c r="Q569" t="n">
+        <v>0.9975438021942034</v>
+      </c>
+      <c r="R569" t="n">
+        <v>0.1121540740740741</v>
+      </c>
+      <c r="S569" t="n">
+        <v>0.05415111111111112</v>
+      </c>
+      <c r="T569" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D570" t="n">
+        <v>9109.004306188001</v>
+      </c>
+      <c r="E570" t="n">
+        <v>69.283349844</v>
+      </c>
+      <c r="F570" t="n">
+        <v>9039.720956343999</v>
+      </c>
+      <c r="G570" t="n">
+        <v>50.719884264</v>
+      </c>
+      <c r="H570" t="n">
+        <v>7857.681640358</v>
+      </c>
+      <c r="I570" t="n">
+        <v>58.73887232200001</v>
+      </c>
+      <c r="J570" t="n">
+        <v>7798.942768036</v>
+      </c>
+      <c r="K570" t="n">
+        <v>52.18169101933334</v>
+      </c>
+      <c r="L570" t="n">
+        <v>75923</v>
+      </c>
+      <c r="M570" t="n">
+        <v>75705</v>
+      </c>
+      <c r="N570" t="n">
+        <v>36643</v>
+      </c>
+      <c r="O570" t="n">
+        <v>36553</v>
+      </c>
+      <c r="P570" t="n">
+        <v>0.9971286698365449</v>
+      </c>
+      <c r="Q570" t="n">
+        <v>0.9975438692246814</v>
+      </c>
+      <c r="R570" t="n">
+        <v>0.1121555555555556</v>
+      </c>
+      <c r="S570" t="n">
+        <v>0.05415259259259259</v>
+      </c>
+      <c r="T570" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C571" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D571" t="n">
+        <v>9157.941523015999</v>
+      </c>
+      <c r="E571" t="n">
+        <v>69.44841159800001</v>
+      </c>
+      <c r="F571" t="n">
+        <v>9088.493111420001</v>
+      </c>
+      <c r="G571" t="n">
+        <v>50.80500050200001</v>
+      </c>
+      <c r="H571" t="n">
+        <v>7925.362651492</v>
+      </c>
+      <c r="I571" t="n">
+        <v>58.73887232200001</v>
+      </c>
+      <c r="J571" t="n">
+        <v>7866.62377917</v>
+      </c>
+      <c r="K571" t="n">
+        <v>52.18169101933334</v>
+      </c>
+      <c r="L571" t="n">
+        <v>75923</v>
+      </c>
+      <c r="M571" t="n">
+        <v>75705</v>
+      </c>
+      <c r="N571" t="n">
+        <v>36643</v>
+      </c>
+      <c r="O571" t="n">
+        <v>36553</v>
+      </c>
+      <c r="P571" t="n">
+        <v>0.9971286698365449</v>
+      </c>
+      <c r="Q571" t="n">
+        <v>0.9975438692246814</v>
+      </c>
+      <c r="R571" t="n">
+        <v>0.1121555555555556</v>
+      </c>
+      <c r="S571" t="n">
+        <v>0.05415259259259259</v>
+      </c>
+      <c r="T571" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C572" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D572" t="n">
+        <v>9200.084763226001</v>
+      </c>
+      <c r="E572" t="n">
+        <v>69.44841159800001</v>
+      </c>
+      <c r="F572" t="n">
+        <v>9130.636351628</v>
+      </c>
+      <c r="G572" t="n">
+        <v>50.80500050200001</v>
+      </c>
+      <c r="H572" t="n">
+        <v>7984.997209532</v>
+      </c>
+      <c r="I572" t="n">
+        <v>58.73887232200001</v>
+      </c>
+      <c r="J572" t="n">
+        <v>7926.258337208</v>
+      </c>
+      <c r="K572" t="n">
+        <v>52.18169101933334</v>
+      </c>
+      <c r="L572" t="n">
+        <v>75923</v>
+      </c>
+      <c r="M572" t="n">
+        <v>75705</v>
+      </c>
+      <c r="N572" t="n">
+        <v>36643</v>
+      </c>
+      <c r="O572" t="n">
+        <v>36553</v>
+      </c>
+      <c r="P572" t="n">
+        <v>0.9971286698365449</v>
+      </c>
+      <c r="Q572" t="n">
+        <v>0.9975438692246814</v>
+      </c>
+      <c r="R572" t="n">
+        <v>0.1121555555555556</v>
+      </c>
+      <c r="S572" t="n">
+        <v>0.05415259259259259</v>
+      </c>
+      <c r="T572" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C573" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D573" t="n">
+        <v>9241.701472822</v>
+      </c>
+      <c r="E573" t="n">
+        <v>69.445532</v>
+      </c>
+      <c r="F573" t="n">
+        <v>9172.255940822</v>
+      </c>
+      <c r="G573" t="n">
+        <v>50.80367594466667</v>
+      </c>
+      <c r="H573" t="n">
+        <v>8045.370174814</v>
+      </c>
+      <c r="I573" t="n">
+        <v>58.738051596</v>
+      </c>
+      <c r="J573" t="n">
+        <v>7986.632123218</v>
+      </c>
+      <c r="K573" t="n">
+        <v>52.18036606933334</v>
+      </c>
+      <c r="L573" t="n">
+        <v>75923</v>
+      </c>
+      <c r="M573" t="n">
+        <v>75705</v>
+      </c>
+      <c r="N573" t="n">
+        <v>36643</v>
+      </c>
+      <c r="O573" t="n">
+        <v>36553</v>
+      </c>
+      <c r="P573" t="n">
+        <v>0.9971286698365449</v>
+      </c>
+      <c r="Q573" t="n">
+        <v>0.9975438692246814</v>
+      </c>
+      <c r="R573" t="n">
+        <v>0.1121555555555556</v>
+      </c>
+      <c r="S573" t="n">
+        <v>0.05415259259259259</v>
+      </c>
+      <c r="T573" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C574" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D574" t="n">
+        <v>9286.818941946</v>
+      </c>
+      <c r="E574" t="n">
+        <v>69.44598110999999</v>
+      </c>
+      <c r="F574" t="n">
+        <v>9217.372960834</v>
+      </c>
+      <c r="G574" t="n">
+        <v>50.80394526266667</v>
+      </c>
+      <c r="H574" t="n">
+        <v>8108.780838782001</v>
+      </c>
+      <c r="I574" t="n">
+        <v>58.738325172</v>
+      </c>
+      <c r="J574" t="n">
+        <v>8050.04251361</v>
+      </c>
+      <c r="K574" t="n">
+        <v>52.180635438</v>
+      </c>
+      <c r="L574" t="n">
+        <v>75923</v>
+      </c>
+      <c r="M574" t="n">
+        <v>75705</v>
+      </c>
+      <c r="N574" t="n">
+        <v>36643</v>
+      </c>
+      <c r="O574" t="n">
+        <v>36553</v>
+      </c>
+      <c r="P574" t="n">
+        <v>0.9971286698365449</v>
+      </c>
+      <c r="Q574" t="n">
+        <v>0.9975438692246814</v>
+      </c>
+      <c r="R574" t="n">
+        <v>0.1121555555555556</v>
+      </c>
+      <c r="S574" t="n">
+        <v>0.05415259259259259</v>
+      </c>
+      <c r="T574" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D575" t="n">
+        <v>9332.170160492</v>
+      </c>
+      <c r="E575" t="n">
+        <v>69.44598110999999</v>
+      </c>
+      <c r="F575" t="n">
+        <v>9262.72417938</v>
+      </c>
+      <c r="G575" t="n">
+        <v>50.80394526266667</v>
+      </c>
+      <c r="H575" t="n">
+        <v>8173.263480426001</v>
+      </c>
+      <c r="I575" t="n">
+        <v>58.738325172</v>
+      </c>
+      <c r="J575" t="n">
+        <v>8114.525155254</v>
+      </c>
+      <c r="K575" t="n">
+        <v>52.180635438</v>
+      </c>
+      <c r="L575" t="n">
+        <v>75923</v>
+      </c>
+      <c r="M575" t="n">
+        <v>75705</v>
+      </c>
+      <c r="N575" t="n">
+        <v>36643</v>
+      </c>
+      <c r="O575" t="n">
+        <v>36553</v>
+      </c>
+      <c r="P575" t="n">
+        <v>0.9971286698365449</v>
+      </c>
+      <c r="Q575" t="n">
+        <v>0.9975438692246814</v>
+      </c>
+      <c r="R575" t="n">
+        <v>0.1121555555555556</v>
+      </c>
+      <c r="S575" t="n">
+        <v>0.05415259259259259</v>
+      </c>
+      <c r="T575" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C576" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D576" t="n">
+        <v>9383.025348056</v>
+      </c>
+      <c r="E576" t="n">
+        <v>69.44563178599999</v>
+      </c>
+      <c r="F576" t="n">
+        <v>9313.57971627</v>
+      </c>
+      <c r="G576" t="n">
+        <v>50.80365391999999</v>
+      </c>
+      <c r="H576" t="n">
+        <v>8244.433194726</v>
+      </c>
+      <c r="I576" t="n">
+        <v>58.737894622</v>
+      </c>
+      <c r="J576" t="n">
+        <v>8185.695300104</v>
+      </c>
+      <c r="K576" t="n">
+        <v>52.18034409533333</v>
+      </c>
+      <c r="L576" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M576" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N576" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O576" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P576" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q576" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R576" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S576" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T576" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C577" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D577" t="n">
+        <v>9428.012271153999</v>
+      </c>
+      <c r="E577" t="n">
+        <v>69.44563178599999</v>
+      </c>
+      <c r="F577" t="n">
+        <v>9358.566639368</v>
+      </c>
+      <c r="G577" t="n">
+        <v>50.80365391999999</v>
+      </c>
+      <c r="H577" t="n">
+        <v>8305.303249986</v>
+      </c>
+      <c r="I577" t="n">
+        <v>58.737894622</v>
+      </c>
+      <c r="J577" t="n">
+        <v>8246.565355364</v>
+      </c>
+      <c r="K577" t="n">
+        <v>52.18034409533333</v>
+      </c>
+      <c r="L577" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M577" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N577" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O577" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P577" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q577" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R577" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S577" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T577" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D578" t="n">
+        <v>9468.553866272001</v>
+      </c>
+      <c r="E578" t="n">
+        <v>69.43717803</v>
+      </c>
+      <c r="F578" t="n">
+        <v>9399.116688242</v>
+      </c>
+      <c r="G578" t="n">
+        <v>50.799294574</v>
+      </c>
+      <c r="H578" t="n">
+        <v>8361.882612026</v>
+      </c>
+      <c r="I578" t="n">
+        <v>58.734392952</v>
+      </c>
+      <c r="J578" t="n">
+        <v>8303.148219073999</v>
+      </c>
+      <c r="K578" t="n">
+        <v>52.17598367999999</v>
+      </c>
+      <c r="L578" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M578" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N578" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O578" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P578" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q578" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R578" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S578" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T578" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D579" t="n">
+        <v>9505.172099966001</v>
+      </c>
+      <c r="E579" t="n">
+        <v>69.437283702</v>
+      </c>
+      <c r="F579" t="n">
+        <v>9435.734816262</v>
+      </c>
+      <c r="G579" t="n">
+        <v>50.799424516</v>
+      </c>
+      <c r="H579" t="n">
+        <v>8413.39730262</v>
+      </c>
+      <c r="I579" t="n">
+        <v>58.734611808</v>
+      </c>
+      <c r="J579" t="n">
+        <v>8354.662690813999</v>
+      </c>
+      <c r="K579" t="n">
+        <v>52.176113622</v>
+      </c>
+      <c r="L579" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M579" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N579" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O579" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P579" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q579" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R579" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S579" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T579" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D580" t="n">
+        <v>9546.793767998</v>
+      </c>
+      <c r="E580" t="n">
+        <v>69.437679972</v>
+      </c>
+      <c r="F580" t="n">
+        <v>9477.356088024</v>
+      </c>
+      <c r="G580" t="n">
+        <v>50.79962886</v>
+      </c>
+      <c r="H580" t="n">
+        <v>8469.638315916</v>
+      </c>
+      <c r="I580" t="n">
+        <v>58.734775948</v>
+      </c>
+      <c r="J580" t="n">
+        <v>8410.903539968001</v>
+      </c>
+      <c r="K580" t="n">
+        <v>52.176318016</v>
+      </c>
+      <c r="L580" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M580" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N580" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O580" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P580" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q580" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R580" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S580" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T580" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D581" t="n">
+        <v>9579.152946926</v>
+      </c>
+      <c r="E581" t="n">
+        <v>69.437679972</v>
+      </c>
+      <c r="F581" t="n">
+        <v>9509.715266953999</v>
+      </c>
+      <c r="G581" t="n">
+        <v>50.79962886</v>
+      </c>
+      <c r="H581" t="n">
+        <v>8515.680226514001</v>
+      </c>
+      <c r="I581" t="n">
+        <v>58.734775948</v>
+      </c>
+      <c r="J581" t="n">
+        <v>8456.945450566</v>
+      </c>
+      <c r="K581" t="n">
+        <v>52.176318016</v>
+      </c>
+      <c r="L581" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M581" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N581" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O581" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P581" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q581" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R581" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S581" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T581" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D582" t="n">
+        <v>9612.899624864001</v>
+      </c>
+      <c r="E582" t="n">
+        <v>69.437679972</v>
+      </c>
+      <c r="F582" t="n">
+        <v>9543.461944892</v>
+      </c>
+      <c r="G582" t="n">
+        <v>50.79962886</v>
+      </c>
+      <c r="H582" t="n">
+        <v>8561.2625978</v>
+      </c>
+      <c r="I582" t="n">
+        <v>58.734775948</v>
+      </c>
+      <c r="J582" t="n">
+        <v>8502.527821852</v>
+      </c>
+      <c r="K582" t="n">
+        <v>52.176318016</v>
+      </c>
+      <c r="L582" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M582" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N582" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O582" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P582" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q582" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R582" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S582" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T582" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D583" t="n">
+        <v>9650.503751353999</v>
+      </c>
+      <c r="E583" t="n">
+        <v>69.437679972</v>
+      </c>
+      <c r="F583" t="n">
+        <v>9581.066071382</v>
+      </c>
+      <c r="G583" t="n">
+        <v>50.79962886</v>
+      </c>
+      <c r="H583" t="n">
+        <v>8612.539776768001</v>
+      </c>
+      <c r="I583" t="n">
+        <v>58.734775948</v>
+      </c>
+      <c r="J583" t="n">
+        <v>8553.805000819999</v>
+      </c>
+      <c r="K583" t="n">
+        <v>52.176318016</v>
+      </c>
+      <c r="L583" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M583" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N583" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O583" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P583" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q583" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R583" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S583" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T583" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D584" t="n">
+        <v>9689.806158032001</v>
+      </c>
+      <c r="E584" t="n">
+        <v>69.437679972</v>
+      </c>
+      <c r="F584" t="n">
+        <v>9620.36847806</v>
+      </c>
+      <c r="G584" t="n">
+        <v>50.79962886</v>
+      </c>
+      <c r="H584" t="n">
+        <v>8667.754418121998</v>
+      </c>
+      <c r="I584" t="n">
+        <v>58.734775948</v>
+      </c>
+      <c r="J584" t="n">
+        <v>8609.019642174</v>
+      </c>
+      <c r="K584" t="n">
+        <v>52.176318016</v>
+      </c>
+      <c r="L584" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M584" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N584" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O584" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P584" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q584" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R584" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S584" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T584" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D585" t="n">
+        <v>9722.998930072001</v>
+      </c>
+      <c r="E585" t="n">
+        <v>69.43773280800001</v>
+      </c>
+      <c r="F585" t="n">
+        <v>9653.561197264</v>
+      </c>
+      <c r="G585" t="n">
+        <v>50.79969383133334</v>
+      </c>
+      <c r="H585" t="n">
+        <v>8712.465585162001</v>
+      </c>
+      <c r="I585" t="n">
+        <v>58.734885376</v>
+      </c>
+      <c r="J585" t="n">
+        <v>8653.730699786</v>
+      </c>
+      <c r="K585" t="n">
+        <v>52.17638298733334</v>
+      </c>
+      <c r="L585" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M585" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N585" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O585" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P585" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q585" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R585" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S585" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T585" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D586" t="n">
+        <v>9756.416334240001</v>
+      </c>
+      <c r="E586" t="n">
+        <v>69.43773280800001</v>
+      </c>
+      <c r="F586" t="n">
+        <v>9686.978601432</v>
+      </c>
+      <c r="G586" t="n">
+        <v>50.79969383133334</v>
+      </c>
+      <c r="H586" t="n">
+        <v>8755.670542211999</v>
+      </c>
+      <c r="I586" t="n">
+        <v>58.734885376</v>
+      </c>
+      <c r="J586" t="n">
+        <v>8696.935656836</v>
+      </c>
+      <c r="K586" t="n">
+        <v>52.17638298733334</v>
+      </c>
+      <c r="L586" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M586" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N586" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O586" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P586" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q586" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R586" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S586" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T586" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D587" t="n">
+        <v>9789.390471031998</v>
+      </c>
+      <c r="E587" t="n">
+        <v>69.437415792</v>
+      </c>
+      <c r="F587" t="n">
+        <v>9719.953055239999</v>
+      </c>
+      <c r="G587" t="n">
+        <v>50.79930400533334</v>
+      </c>
+      <c r="H587" t="n">
+        <v>8798.340236362001</v>
+      </c>
+      <c r="I587" t="n">
+        <v>58.734228812</v>
+      </c>
+      <c r="J587" t="n">
+        <v>8739.606007549999</v>
+      </c>
+      <c r="K587" t="n">
+        <v>52.17599316133334</v>
+      </c>
+      <c r="L587" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M587" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N587" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O587" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P587" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q587" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R587" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S587" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T587" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D588" t="n">
+        <v>9818.923427470001</v>
+      </c>
+      <c r="E588" t="n">
+        <v>69.437415792</v>
+      </c>
+      <c r="F588" t="n">
+        <v>9749.486011676001</v>
+      </c>
+      <c r="G588" t="n">
+        <v>50.79930400533334</v>
+      </c>
+      <c r="H588" t="n">
+        <v>8838.347184986002</v>
+      </c>
+      <c r="I588" t="n">
+        <v>58.734228812</v>
+      </c>
+      <c r="J588" t="n">
+        <v>8779.612956174</v>
+      </c>
+      <c r="K588" t="n">
+        <v>52.17599316133334</v>
+      </c>
+      <c r="L588" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M588" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N588" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O588" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P588" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q588" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R588" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S588" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T588" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D589" t="n">
+        <v>9850.058370538</v>
+      </c>
+      <c r="E589" t="n">
+        <v>69.437415792</v>
+      </c>
+      <c r="F589" t="n">
+        <v>9780.620954746</v>
+      </c>
+      <c r="G589" t="n">
+        <v>50.79930400533334</v>
+      </c>
+      <c r="H589" t="n">
+        <v>8877.932401378001</v>
+      </c>
+      <c r="I589" t="n">
+        <v>58.734228812</v>
+      </c>
+      <c r="J589" t="n">
+        <v>8819.198172566001</v>
+      </c>
+      <c r="K589" t="n">
+        <v>52.17599316133334</v>
+      </c>
+      <c r="L589" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M589" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N589" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O589" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P589" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q589" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R589" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S589" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T589" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D590" t="n">
+        <v>9880.923770904001</v>
+      </c>
+      <c r="E590" t="n">
+        <v>69.437415792</v>
+      </c>
+      <c r="F590" t="n">
+        <v>9811.486355110001</v>
+      </c>
+      <c r="G590" t="n">
+        <v>50.79930400533334</v>
+      </c>
+      <c r="H590" t="n">
+        <v>8917.411090441999</v>
+      </c>
+      <c r="I590" t="n">
+        <v>58.734228812</v>
+      </c>
+      <c r="J590" t="n">
+        <v>8858.67686163</v>
+      </c>
+      <c r="K590" t="n">
+        <v>52.17599316133334</v>
+      </c>
+      <c r="L590" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M590" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N590" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O590" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P590" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q590" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R590" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S590" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T590" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D591" t="n">
+        <v>9911.997212902001</v>
+      </c>
+      <c r="E591" t="n">
+        <v>69.437415792</v>
+      </c>
+      <c r="F591" t="n">
+        <v>9842.559797110001</v>
+      </c>
+      <c r="G591" t="n">
+        <v>50.79930400533334</v>
+      </c>
+      <c r="H591" t="n">
+        <v>8959.677928544001</v>
+      </c>
+      <c r="I591" t="n">
+        <v>58.734228812</v>
+      </c>
+      <c r="J591" t="n">
+        <v>8900.943699732001</v>
+      </c>
+      <c r="K591" t="n">
+        <v>52.17599316133334</v>
+      </c>
+      <c r="L591" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M591" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N591" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O591" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P591" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q591" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R591" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S591" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T591" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D592" t="n">
+        <v>9938.96498296</v>
+      </c>
+      <c r="E592" t="n">
+        <v>69.437547882</v>
+      </c>
+      <c r="F592" t="n">
+        <v>9869.527435078</v>
+      </c>
+      <c r="G592" t="n">
+        <v>50.79937211999999</v>
+      </c>
+      <c r="H592" t="n">
+        <v>8996.538627784001</v>
+      </c>
+      <c r="I592" t="n">
+        <v>58.734283526</v>
+      </c>
+      <c r="J592" t="n">
+        <v>8937.804344257998</v>
+      </c>
+      <c r="K592" t="n">
+        <v>52.17606129333333</v>
+      </c>
+      <c r="L592" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M592" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N592" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O592" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P592" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q592" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R592" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S592" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T592" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D593" t="n">
+        <v>9967.130835071999</v>
+      </c>
+      <c r="E593" t="n">
+        <v>69.437759226</v>
+      </c>
+      <c r="F593" t="n">
+        <v>9897.693075846</v>
+      </c>
+      <c r="G593" t="n">
+        <v>50.79963200399999</v>
+      </c>
+      <c r="H593" t="n">
+        <v>9034.352382776</v>
+      </c>
+      <c r="I593" t="n">
+        <v>58.734721234</v>
+      </c>
+      <c r="J593" t="n">
+        <v>8975.617661542001</v>
+      </c>
+      <c r="K593" t="n">
+        <v>52.17632117733333</v>
+      </c>
+      <c r="L593" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M593" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N593" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O593" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P593" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q593" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R593" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S593" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T593" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C594" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D594" t="n">
+        <v>9998.320859642001</v>
+      </c>
+      <c r="E594" t="n">
+        <v>69.43789131599999</v>
+      </c>
+      <c r="F594" t="n">
+        <v>9928.882968324</v>
+      </c>
+      <c r="G594" t="n">
+        <v>50.79970011866667</v>
+      </c>
+      <c r="H594" t="n">
+        <v>9073.252858783999</v>
+      </c>
+      <c r="I594" t="n">
+        <v>58.734775948</v>
+      </c>
+      <c r="J594" t="n">
+        <v>9014.518082836001</v>
+      </c>
+      <c r="K594" t="n">
+        <v>52.17638930866666</v>
+      </c>
+      <c r="L594" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M594" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N594" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O594" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P594" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q594" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R594" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S594" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T594" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D595" t="n">
+        <v>10024.970557156</v>
+      </c>
+      <c r="E595" t="n">
+        <v>69.43789131599999</v>
+      </c>
+      <c r="F595" t="n">
+        <v>9955.532665838</v>
+      </c>
+      <c r="G595" t="n">
+        <v>50.79970011866667</v>
+      </c>
+      <c r="H595" t="n">
+        <v>9108.376292608</v>
+      </c>
+      <c r="I595" t="n">
+        <v>58.734775948</v>
+      </c>
+      <c r="J595" t="n">
+        <v>9049.64151666</v>
+      </c>
+      <c r="K595" t="n">
+        <v>52.17638930866666</v>
+      </c>
+      <c r="L595" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M595" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N595" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O595" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P595" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q595" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R595" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S595" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T595" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D596" t="n">
+        <v>10047.604271788</v>
+      </c>
+      <c r="E596" t="n">
+        <v>69.43815549600001</v>
+      </c>
+      <c r="F596" t="n">
+        <v>9978.166116291999</v>
+      </c>
+      <c r="G596" t="n">
+        <v>50.79983634866667</v>
+      </c>
+      <c r="H596" t="n">
+        <v>9140.899463805999</v>
+      </c>
+      <c r="I596" t="n">
+        <v>58.734885376</v>
+      </c>
+      <c r="J596" t="n">
+        <v>9082.164578431999</v>
+      </c>
+      <c r="K596" t="n">
+        <v>52.17652557133333</v>
+      </c>
+      <c r="L596" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M596" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N596" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O596" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P596" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q596" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R596" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S596" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T596" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D597" t="n">
+        <v>10071.606173884</v>
+      </c>
+      <c r="E597" t="n">
+        <v>69.43820833199999</v>
+      </c>
+      <c r="F597" t="n">
+        <v>10002.16796555</v>
+      </c>
+      <c r="G597" t="n">
+        <v>50.79990131933333</v>
+      </c>
+      <c r="H597" t="n">
+        <v>9173.010422936</v>
+      </c>
+      <c r="I597" t="n">
+        <v>58.734994802</v>
+      </c>
+      <c r="J597" t="n">
+        <v>9114.275428134</v>
+      </c>
+      <c r="K597" t="n">
+        <v>52.176590542</v>
+      </c>
+      <c r="L597" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M597" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N597" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O597" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P597" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q597" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R597" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S597" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T597" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D598" t="n">
+        <v>10096.960122052</v>
+      </c>
+      <c r="E598" t="n">
+        <v>69.438261168</v>
+      </c>
+      <c r="F598" t="n">
+        <v>10027.521860882</v>
+      </c>
+      <c r="G598" t="n">
+        <v>50.79996629066666</v>
+      </c>
+      <c r="H598" t="n">
+        <v>9207.530256606</v>
+      </c>
+      <c r="I598" t="n">
+        <v>58.73510423</v>
+      </c>
+      <c r="J598" t="n">
+        <v>9148.795152378001</v>
+      </c>
+      <c r="K598" t="n">
+        <v>52.17665551333333</v>
+      </c>
+      <c r="L598" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M598" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N598" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O598" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P598" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q598" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R598" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S598" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T598" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D599" t="n">
+        <v>10121.504966582</v>
+      </c>
+      <c r="E599" t="n">
+        <v>69.438261168</v>
+      </c>
+      <c r="F599" t="n">
+        <v>10052.066705414</v>
+      </c>
+      <c r="G599" t="n">
+        <v>50.79996629066666</v>
+      </c>
+      <c r="H599" t="n">
+        <v>9240.256634020001</v>
+      </c>
+      <c r="I599" t="n">
+        <v>58.73510423</v>
+      </c>
+      <c r="J599" t="n">
+        <v>9181.521529792</v>
+      </c>
+      <c r="K599" t="n">
+        <v>52.17665551333333</v>
+      </c>
+      <c r="L599" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M599" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N599" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O599" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P599" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q599" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R599" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S599" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T599" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D600" t="n">
+        <v>10148.292988666</v>
+      </c>
+      <c r="E600" t="n">
+        <v>69.43839325799999</v>
+      </c>
+      <c r="F600" t="n">
+        <v>10078.854595408</v>
+      </c>
+      <c r="G600" t="n">
+        <v>50.80003440533334</v>
+      </c>
+      <c r="H600" t="n">
+        <v>9274.001504624001</v>
+      </c>
+      <c r="I600" t="n">
+        <v>58.73515894200001</v>
+      </c>
+      <c r="J600" t="n">
+        <v>9215.26634568</v>
+      </c>
+      <c r="K600" t="n">
+        <v>52.17672364533334</v>
+      </c>
+      <c r="L600" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M600" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N600" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O600" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P600" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q600" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R600" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S600" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T600" t="inlineStr">
+        <is>
+          <t>deterministic</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>1</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>triba27_bit_complement</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D601" t="n">
+        <v>10171.953993078</v>
+      </c>
+      <c r="E601" t="n">
+        <v>69.43839325799999</v>
+      </c>
+      <c r="F601" t="n">
+        <v>10102.51559982</v>
+      </c>
+      <c r="G601" t="n">
+        <v>50.80003440533334</v>
+      </c>
+      <c r="H601" t="n">
+        <v>9307.589730262</v>
+      </c>
+      <c r="I601" t="n">
+        <v>58.73515894200001</v>
+      </c>
+      <c r="J601" t="n">
+        <v>9248.854571319998</v>
+      </c>
+      <c r="K601" t="n">
+        <v>52.17672364533334</v>
+      </c>
+      <c r="L601" t="n">
+        <v>75924</v>
+      </c>
+      <c r="M601" t="n">
+        <v>75706</v>
+      </c>
+      <c r="N601" t="n">
+        <v>36644</v>
+      </c>
+      <c r="O601" t="n">
+        <v>36554</v>
+      </c>
+      <c r="P601" t="n">
+        <v>0.9971287076550235</v>
+      </c>
+      <c r="Q601" t="n">
+        <v>0.997543936251501</v>
+      </c>
+      <c r="R601" t="n">
+        <v>0.112157037037037</v>
+      </c>
+      <c r="S601" t="n">
+        <v>0.05415407407407408</v>
+      </c>
+      <c r="T601" t="inlineStr">
+        <is>
+          <t>deterministic</t>
         </is>
       </c>
     </row>
